--- a/citation.xlsx
+++ b/citation.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Van Abbema, D., &amp; Bauer, P.,  (2005). Autobiographical memory in middle childhood: Recollections of the recent and distant past. Memory, 13(8), 829-845. https://doi.org/10.1080/09658210444000430</t>
+          <t>Van Abbema, D., &amp; Bauer, P. (2005). Autobiographical memory in middle childhood: Recollections of the recent and distant past. Memory, 13(8), 829-845. https://doi.org/10.1080/09658210444000430</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ackerman, B. P.,  (1981). Encoding specificity in the recall of pictures and words in children and adults. Journal of Experimental Child Psychology, 31(2), 193-211. https://doi.org/10.1016/0022-0965(81)90012-6</t>
+          <t>Ackerman, B. P. (1981). Encoding specificity in the recall of pictures and words in children and adults. Journal of Experimental Child Psychology, 31(2), 193-211. https://doi.org/10.1016/0022-0965(81)90012-6</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ackerman, B. P., &amp; Rust-Kahl, E.,  (1982). The effects of contrastive encoding of semantic information on children's memory for words. Journal of Experimental Child Psychology, 34(3), 414-434. https://doi.org/10.1016/0022-0965(82)90069-8</t>
+          <t>Ackerman, B. P., &amp; Rust-Kahl, E. (1982). The effects of contrastive encoding of semantic information on children's memory for words. Journal of Experimental Child Psychology, 34(3), 414-434. https://doi.org/10.1016/0022-0965(82)90069-8</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ackerman, B. P.,  (1985). The effects of specific and categorical orienting on children's incidental and intentional memory for pictures and words. Journal of Experimental Child Psychology, 39(2), 300-325. https://doi.org/10.1016/0022-0965(85)90043-8</t>
+          <t>Ackerman, B. P. (1985). The effects of specific and categorical orienting on children's incidental and intentional memory for pictures and words. Journal of Experimental Child Psychology, 39(2), 300-325. https://doi.org/10.1016/0022-0965(85)90043-8</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amlien, I. K., Sneve, M. H., Vidal-Piñeiro, D., Walhovd, K. B., &amp; Fjell, A. M.,  (2018). The Lifespan Trajectory of the Encoding-Retrieval Flip: A Multimodal Examination of Medial Parietal Cortex Contributions to Episodic Memory. The Journal of Neuroscience, 38(40), 8666-8679. https://doi.org/10.1523/JNEUROSCI.1702-17.2018</t>
+          <t>Amlien, I. K., Sneve, M. H., Vidal-Piñeiro, D., Walhovd, K. B., &amp; Fjell, A. M. (2018). The Lifespan Trajectory of the Encoding-Retrieval Flip: A Multimodal Examination of Medial Parietal Cortex Contributions to Episodic Memory. The Journal of Neuroscience, 38(40), 8666-8679. https://doi.org/10.1523/JNEUROSCI.1702-17.2018</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anastasi, J. S., &amp; Rhodes, M. G.,  (2008). Examining differences in the levels of false memories in children and adults using child-normed lists. Developmental Psychology, 44(3), 889-894. https://doi.org/10.1037/0012-1649.44.3.889</t>
+          <t>Anastasi, J. S., &amp; Rhodes, M. G. (2008). Examining differences in the levels of false memories in children and adults using child-normed lists. Developmental Psychology, 44(3), 889-894. https://doi.org/10.1037/0012-1649.44.3.889</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arciuli, J., &amp; Simpson, I. C.,  (2011). Statistical learning in typically developing children: the role of age and speed of stimulus presentation. Developmental Science, 14(3), 464-473. https://doi.org/10.1111/j.1467-7687.2009.00937.x</t>
+          <t>Arciuli, J., &amp; Simpson, I. C. (2011). Statistical learning in typically developing children: the role of age and speed of stimulus presentation. Developmental Science, 14(3), 464-473. https://doi.org/10.1111/j.1467-7687.2009.00937.x</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arterberry, M. E., &amp; Albright, E. J.,  (2020). Children’s Memory for Temporal Information: The Roles of Temporal Language and Executive Function. The Journal of Genetic Psychology, 181(4), 191-205. https://doi.org/10.1080/00221325.2020.1741503</t>
+          <t>Arterberry, M. E., &amp; Albright, E. J. (2020). Children’s Memory for Temporal Information: The Roles of Temporal Language and Executive Function. The Journal of Genetic Psychology, 181(4), 191-205. https://doi.org/10.1080/00221325.2020.1741503</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ashworth, A., Hill, C. M., Karmiloff-Smith, A., &amp; Dimitriou, D.,  (2014). Sleep enhances memory consolidation in children. Journal of Sleep Research, 23(3), 304-310. https://doi.org/10.1111/jsr.12119</t>
+          <t>Ashworth, A., Hill, C. M., Karmiloff-Smith, A., &amp; Dimitriou, D. (2014). Sleep enhances memory consolidation in children. Journal of Sleep Research, 23(3), 304-310. https://doi.org/10.1111/jsr.12119</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Asso, D., Baudonnière, P.-M., Pecheux, M.-G., &amp; Taranne, P.,  (1978). Eye-Movements of Six-Year-Old Children in Two Memorization Tasks. Perceptual and Motor Skills, 47(3), 979-982. https://doi.org/10.2466/pms.1978.47.3.979</t>
+          <t>Asso, D., Baudonnière, P.-M., Pecheux, M.-G., &amp; Taranne, P. (1978). Eye-Movements of Six-Year-Old Children in Two Memorization Tasks. Perceptual and Motor Skills, 47(3), 979-982. https://doi.org/10.2466/pms.1978.47.3.979</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Badger, J. R., &amp; Shapiro, L. R.,  (2012). Evidence of a transition from perceptual to category induction in 3- to 9-year-old children. Journal of Experimental Child Psychology, 113(1), 131-146. https://doi.org/10.1016/j.jecp.2012.03.004</t>
+          <t>Badger, J. R., &amp; Shapiro, L. R. (2012). Evidence of a transition from perceptual to category induction in 3- to 9-year-old children. Journal of Experimental Child Psychology, 113(1), 131-146. https://doi.org/10.1016/j.jecp.2012.03.004</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Baker-Ward, L., &amp; Ornstein, P. A.,  (1988). Age differences in visual-spatial memory performance: Do children really out-perform adults when playing Concentration?. Bulletin of the Psychonomic Society, 26(4), 331-332. https://doi.org/10.3758/BF03337672</t>
+          <t>Baker-Ward, L., &amp; Ornstein, P. A. (1988). Age differences in visual-spatial memory performance: Do children really out-perform adults when playing Concentration?. Bulletin of the Psychonomic Society, 26(4), 331-332. https://doi.org/10.3758/BF03337672</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Baker-Ward, L., Gordon, B. N., Ornstein, P. A., Larus, D. M., &amp; Clubb, P. A.,  (1993). Young Children's Long-Term Retention of a Pediatric Examination. Child Development, 64(5), 1519. https://doi.org/10.2307/1131550</t>
+          <t>Baker-Ward, L., Gordon, B. N., Ornstein, P. A., Larus, D. M., &amp; Clubb, P. A. (1993). Young Children's Long-Term Retention of a Pediatric Examination. Child Development, 64(5), 1519. https://doi.org/10.2307/1131550</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Balcomb, F. K., &amp; Gerken, L.A.,  (2008). Three-year-old children can access their own memory to guide responses on a visual matching task. Developmental Science, 11(5), 750-760. https://doi.org/10.1111/j.1467-7687.2008.00725.x</t>
+          <t>Balcomb, F. K., &amp; Gerken, L.A. (2008). Three-year-old children can access their own memory to guide responses on a visual matching task. Developmental Science, 11(5), 750-760. https://doi.org/10.1111/j.1467-7687.2008.00725.x</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Barry, E. S.,  (2007). Does Conceptual Implicit Memory Develop? The Role of Processing Demands. The Journal of Genetic Psychology, 168(1), 19-36. https://doi.org/10.3200/GNTP.168.1.19-36</t>
+          <t>Barry, E. S. (2007). Does Conceptual Implicit Memory Develop? The Role of Processing Demands. The Journal of Genetic Psychology, 168(1), 19-36. https://doi.org/10.3200/GNTP.168.1.19-36</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Stark, E. N., Lukowski, A. F., Rademacher, J., Van Abbema, D. L., &amp; Ackil, J. K.,  (2005). Working Together to Make Sense of the Past: Mothers' and Children's Use of Internal States Language in Conversations about Traumatic and Nontraumatic Events. Journal of Cognition and Development, 6(4), 463-488. https://doi.org/10.1207/s15327647jcd0604_2</t>
+          <t>Bauer, P. J., Stark, E. N., Lukowski, A. F., Rademacher, J., Van Abbema, D. L., &amp; Ackil, J. K. (2005). Working Together to Make Sense of the Past: Mothers' and Children's Use of Internal States Language in Conversations about Traumatic and Nontraumatic Events. Journal of Cognition and Development, 6(4), 463-488. https://doi.org/10.1207/s15327647jcd0604_2</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Burch, M. M., Scholin, S. E., &amp; Güler, O. E.,  (2007). Using Cue Words to Investigate the Distribution of Autobiographical Memories in Childhood. Psychological Science, 18(10), 910-916. https://doi.org/10.1111/j.1467-9280.2007.01999.x</t>
+          <t>Bauer, P. J., Burch, M. M., Scholin, S. E., &amp; Güler, O. E. (2007). Using Cue Words to Investigate the Distribution of Autobiographical Memories in Childhood. Psychological Science, 18(10), 910-916. https://doi.org/10.1111/j.1467-9280.2007.01999.x</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Burch, M. M., Van Abbema, D. L., &amp; Ackil, J. K.,  (2007). Talking about Twisters: Relations between Mothers' and Children's Contributions to Conversations about a Devastating Tornado. Journal of Cognition and Development, 8(4), 371-399. https://doi.org/10.1080/15248370701612936</t>
+          <t>Bauer, P. J., Burch, M. M., Van Abbema, D. L., &amp; Ackil, J. K. (2007). Talking about Twisters: Relations between Mothers' and Children's Contributions to Conversations about a Devastating Tornado. Journal of Cognition and Development, 8(4), 371-399. https://doi.org/10.1080/15248370701612936</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bauer, P. J., &amp; Souci, P. S.,  (2010). Going beyond the facts: Young children extend knowledge by integrating episodes. Journal of Experimental Child Psychology, 107(4), 452-465. https://doi.org/10.1016/j.jecp.2010.05.012</t>
+          <t>Bauer, P. J., &amp; Souci, P. S. (2010). Going beyond the facts: Young children extend knowledge by integrating episodes. Journal of Experimental Child Psychology, 107(4), 452-465. https://doi.org/10.1016/j.jecp.2010.05.012</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Doydum, A. O., Pathman, T., Larkina, M., Güler, O. E., &amp; Burch, M.,  (2012). It’s all about location, location, location: Children’s memory for the “where” of personally experienced events. Journal of Experimental Child Psychology, 113(4), 510-522. https://doi.org/10.1016/j.jecp.2012.06.007</t>
+          <t>Bauer, P. J., Doydum, A. O., Pathman, T., Larkina, M., Güler, O. E., &amp; Burch, M. (2012). It’s all about location, location, location: Children’s memory for the “where” of personally experienced events. Journal of Experimental Child Psychology, 113(4), 510-522. https://doi.org/10.1016/j.jecp.2012.06.007</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bauer, P. J., King, J. E., Larkina, M., Varga, N. L., &amp; White, E. A.,  (2012). Characters and clues: Factors affecting children’s extension of knowledge through integration of separate episodes. Journal of Experimental Child Psychology, 111(4), 681-694. https://doi.org/10.1016/j.jecp.2011.10.005</t>
+          <t>Bauer, P. J., King, J. E., Larkina, M., Varga, N. L., &amp; White, E. A. (2012). Characters and clues: Factors affecting children’s extension of knowledge through integration of separate episodes. Journal of Experimental Child Psychology, 111(4), 681-694. https://doi.org/10.1016/j.jecp.2011.10.005</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Larkina, M., &amp; Doydum, A. O.,  (2012). Explaining variance in long-term recall in 3- and 4-year-old children: The importance of post-encoding processes. Journal of Experimental Child Psychology, 113(2), 195-210. https://doi.org/10.1016/j.jecp.2012.05.006</t>
+          <t>Bauer, P. J., Larkina, M., &amp; Doydum, A. O. (2012). Explaining variance in long-term recall in 3- and 4-year-old children: The importance of post-encoding processes. Journal of Experimental Child Psychology, 113(2), 195-210. https://doi.org/10.1016/j.jecp.2012.05.006</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Dikmen, S. S., Heaton, R. K., Mungas, D., Slotkin, J., &amp; Beaumont, J. L.,  (2013). III. NIH TOOLBOX COGNITION BATTERY (CB): MEASURING EPISODIC MEMORY. Monographs of the Society for Research in Child Development, 78(4), 34-48. https://doi.org/10.1111/mono.12033</t>
+          <t>Bauer, P. J., Dikmen, S. S., Heaton, R. K., Mungas, D., Slotkin, J., &amp; Beaumont, J. L. (2013). III. NIH TOOLBOX COGNITION BATTERY (CB): MEASURING EPISODIC MEMORY. Monographs of the Society for Research in Child Development, 78(4), 34-48. https://doi.org/10.1111/mono.12033</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bauer, P. J., &amp; Larkina, M.,  (2014). Childhood amnesia in the making: Different distributions of autobiographical memories in children and adults. Journal of Experimental Psychology: General, 143(2), 597-611. https://doi.org/10.1037/a0033307</t>
+          <t>Bauer, P. J., &amp; Larkina, M. (2014). Childhood amnesia in the making: Different distributions of autobiographical memories in children and adults. Journal of Experimental Psychology: General, 143(2), 597-611. https://doi.org/10.1037/a0033307</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bauer, P. J., &amp; Larkina, M.,  (2014). The onset of childhood amnesia in childhood: A prospective investigation of the course and determinants of forgetting of early-life events. Memory, 22(8), 907-924. https://doi.org/10.1080/09658211.2013.854806</t>
+          <t>Bauer, P. J., &amp; Larkina, M. (2014). The onset of childhood amnesia in childhood: A prospective investigation of the course and determinants of forgetting of early-life events. Memory, 22(8), 907-924. https://doi.org/10.1080/09658211.2013.854806</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Varga, N. L., King, J. E., Nolen, A. M., &amp; White, E. A.,  (2015). Semantic Elaboration through Integration: Hints Both Facilitate and Inform the Process. Journal of Cognition and Development, 16(2), 351-369. https://doi.org/10.1080/15248372.2013.849707</t>
+          <t>Bauer, P. J., Varga, N. L., King, J. E., Nolen, A. M., &amp; White, E. A. (2015). Semantic Elaboration through Integration: Hints Both Facilitate and Inform the Process. Journal of Cognition and Development, 16(2), 351-369. https://doi.org/10.1080/15248372.2013.849707</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bauer, P. J., &amp; Larkina, M.,  (2016). Predicting remembering and forgetting of autobiographical memories in children and adults: a 4-year prospective study. Memory, 24(10), 1345-1368. https://doi.org/10.1080/09658211.2015.1110595</t>
+          <t>Bauer, P. J., &amp; Larkina, M. (2016). Predicting remembering and forgetting of autobiographical memories in children and adults: a 4-year prospective study. Memory, 24(10), 1345-1368. https://doi.org/10.1080/09658211.2015.1110595</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Blue, S. N., Xu, A., &amp; Esposito, A. G.,  (2016). Productive extension of semantic memory in school-aged children: Relations with reading comprehension and deployment of cognitive resources. Developmental Psychology, 52(7), 1024-1037. https://doi.org/10.1037/dev0000130</t>
+          <t>Bauer, P. J., Blue, S. N., Xu, A., &amp; Esposito, A. G. (2016). Productive extension of semantic memory in school-aged children: Relations with reading comprehension and deployment of cognitive resources. Developmental Psychology, 52(7), 1024-1037. https://doi.org/10.1037/dev0000130</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Stewart, R., White, E. A., &amp; Larkina, M.,  (2016). A Place for Every Event and Every Event in Its Place: Memory for Locations and Activities by 4-Year-Old Children. Journal of Cognition and Development, 17(2), 244-263. https://doi.org/10.1080/15248372.2014.959521</t>
+          <t>Bauer, P. J., Stewart, R., White, E. A., &amp; Larkina, M. (2016). A Place for Every Event and Every Event in Its Place: Memory for Locations and Activities by 4-Year-Old Children. Journal of Cognition and Development, 17(2), 244-263. https://doi.org/10.1080/15248372.2014.959521</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bauer, P. J., &amp; Larkina, M.,  (2017). Realizing Relevance: The Influence of Domain-Specific Information on Generation of New Knowledge Through Integration in 4- to 8-Year-Old Children. Child Development, 88(1), 247-262. https://doi.org/10.1111/cdev.12584</t>
+          <t>Bauer, P. J., &amp; Larkina, M. (2017). Realizing Relevance: The Influence of Domain-Specific Information on Generation of New Knowledge Through Integration in 4- to 8-Year-Old Children. Child Development, 88(1), 247-262. https://doi.org/10.1111/cdev.12584</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Pathman, T., Inman, C., Campanella, C., &amp; Hamann, S.,  (2017). Neural correlates of autobiographical memory retrieval in children and adults. Memory, 25(4), 450-466. https://doi.org/10.1080/09658211.2016.1186699</t>
+          <t>Bauer, P. J., Pathman, T., Inman, C., Campanella, C., &amp; Hamann, S. (2017). Neural correlates of autobiographical memory retrieval in children and adults. Memory, 25(4), 450-466. https://doi.org/10.1080/09658211.2016.1186699</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bauer, P. J., &amp; Larkina, M.,  (2019). Predictors of age-related and individual variability in autobiographical memory in childhood. Memory, 27(1), 63-78. https://doi.org/10.1080/09658211.2017.1381267</t>
+          <t>Bauer, P. J., &amp; Larkina, M. (2019). Predictors of age-related and individual variability in autobiographical memory in childhood. Memory, 27(1), 63-78. https://doi.org/10.1080/09658211.2017.1381267</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Dugan, J. A., Varga, N. L., &amp; Riggins, T.,  (2019). Relations between neural structures and children’s self-derivation of new knowledge through memory integration. Developmental Cognitive Neuroscience, 36(), 100611. https://doi.org/10.1016/j.dcn.2018.12.009</t>
+          <t>Bauer, P. J., Dugan, J. A., Varga, N. L., &amp; Riggins, T. (2019). Relations between neural structures and children’s self-derivation of new knowledge through memory integration. Developmental Cognitive Neuroscience, 36(), 100611. https://doi.org/10.1016/j.dcn.2018.12.009</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Larkina, M., Güler, E., &amp; Burch, M.,  (2019). Long-term autobiographical memory across middle childhood: patterns, predictors, and implications for conceptualizations of childhood amnesia. Memory, 27(9), 1175-1193. https://doi.org/10.1080/09658211.2019.1615511</t>
+          <t>Bauer, P. J., Larkina, M., Güler, E., &amp; Burch, M. (2019). Long-term autobiographical memory across middle childhood: patterns, predictors, and implications for conceptualizations of childhood amnesia. Memory, 27(9), 1175-1193. https://doi.org/10.1080/09658211.2019.1615511</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Esposito, A. G., &amp; Daly, J. J.,  (2020). Self-derivation through memory integration: A model for accumulation of semantic knowledge. Learning and Instruction, 66(), 101271. https://doi.org/10.1016/j.learninstruc.2019.101271</t>
+          <t>Bauer, P. J., Esposito, A. G., &amp; Daly, J. J. (2020). Self-derivation through memory integration: A model for accumulation of semantic knowledge. Learning and Instruction, 66(), 101271. https://doi.org/10.1016/j.learninstruc.2019.101271</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bauer, P. J., Cronin-Golomb, L. M., Porter, B. M., Jaganjac, A., &amp; Miller, H. E.,  (2021). Integration of memory content in adults and children: Developmental differences in task conditions and functional consequences. Journal of Experimental Psychology: General, 150(7), 1259-1278. https://doi.org/10.1037/xge0000996</t>
+          <t>Bauer, P. J., Cronin-Golomb, L. M., Porter, B. M., Jaganjac, A., &amp; Miller, H. E. (2021). Integration of memory content in adults and children: Developmental differences in task conditions and functional consequences. Journal of Experimental Psychology: General, 150(7), 1259-1278. https://doi.org/10.1037/xge0000996</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Baym, C. L, Khan, N. A, Monti, J. M, Raine, L. B, Drollette, E. S, Moore, R D., Scudder, M. R, Kramer, A. F, Hillman, C. H, &amp; Cohen, N. J,  (2014). Dietary lipids are differentially associated with hippocampal-dependent relational memory in prepubescent children. The American Journal of Clinical Nutrition, 99(5), 1026-1032. https://doi.org/10.3945/ajcn.113.079624</t>
+          <t>Baym, C. L, Khan, N. A, Monti, J. M, Raine, L. B, Drollette, E. S, Moore, R D., Scudder, M. R, Kramer, A. F, Hillman, C. H, &amp; Cohen, N. J (2014). Dietary lipids are differentially associated with hippocampal-dependent relational memory in prepubescent children. The American Journal of Clinical Nutrition, 99(5), 1026-1032. https://doi.org/10.3945/ajcn.113.079624</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Benear, S. L., Ngo, C. T., Olson, I. R., &amp; Newcombe, N. S.,  (2021). Understanding relational binding in early childhood: Interacting effects of overlap and delay. Journal of Experimental Child Psychology, 208(), 105152. https://doi.org/10.1016/j.jecp.2021.105152</t>
+          <t>Benear, S. L., Ngo, C. T., Olson, I. R., &amp; Newcombe, N. S. (2021). Understanding relational binding in early childhood: Interacting effects of overlap and delay. Journal of Experimental Child Psychology, 208(), 105152. https://doi.org/10.1016/j.jecp.2021.105152</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Berman, S,  (1990). A developmental study of event-related potentials during explicit and implicit memory. International Journal of Psychophysiology, 10(2), 191-197. https://doi.org/10.1016/0167-8760(90)90034-B</t>
+          <t>Berman, S (1990). A developmental study of event-related potentials during explicit and implicit memory. International Journal of Psychophysiology, 10(2), 191-197. https://doi.org/10.1016/0167-8760(90)90034-B</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Billingsley, R. L., Lou Smith, M., &amp; Pat McAndrews, M.,  (2002). Developmental patterns in priming and familiarity in explicit recollection. Journal of Experimental Child Psychology, 82(3), 251-277. https://doi.org/10.1016/s0022-0965(02)00007-3</t>
+          <t>Billingsley, R. L., Lou Smith, M., &amp; Pat McAndrews, M. (2002). Developmental patterns in priming and familiarity in explicit recollection. Journal of Experimental Child Psychology, 82(3), 251-277. https://doi.org/10.1016/s0022-0965(02)00007-3</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bjorklund, D. F., Schneider, W., Cassel, W. S., &amp; Ashley, E.,  (1994). Training and Extension of a Memory Strategy: Evidence for Utilization Deficiencies in the Acquisition of an Organizational Strategy in High- and Low-IQ Children. Child Development, 65(3), 951-965. https://doi.org/10.1111/j.1467-8624.1994.tb00795.x</t>
+          <t>Bjorklund, D. F., Schneider, W., Cassel, W. S., &amp; Ashley, E. (1994). Training and Extension of a Memory Strategy: Evidence for Utilization Deficiencies in the Acquisition of an Organizational Strategy in High- and Low-IQ Children. Child Development, 65(3), 951-965. https://doi.org/10.1111/j.1467-8624.1994.tb00795.x</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Blanco, N. J., &amp; Sloutsky, V. M.,  (2019). Adaptive flexibility in category learning? Young children exhibit smaller costs of selective attention than adults. Developmental Psychology, 55(10), 2060-2076. https://doi.org/10.1037/dev0000777</t>
+          <t>Blanco, N. J., &amp; Sloutsky, V. M. (2019). Adaptive flexibility in category learning? Young children exhibit smaller costs of selective attention than adults. Developmental Psychology, 55(10), 2060-2076. https://doi.org/10.1037/dev0000777</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Blaye, A.è., Bernard-Peyron, Vé., Paour, J.-L., &amp; Bonthoux, F.ç.,  (2006). Categorical flexibility in children: Distinguishing response flexibility from conceptual flexibility; the protracted development of taxonomic representations. European Journal of Developmental Psychology, 3(2), 163-188. https://doi.org/10.1080/17405620500412267</t>
+          <t>Blaye, A.è., Bernard-Peyron, Vé., Paour, J.-L., &amp; Bonthoux, F.ç. (2006). Categorical flexibility in children: Distinguishing response flexibility from conceptual flexibility; the protracted development of taxonomic representations. European Journal of Developmental Psychology, 3(2), 163-188. https://doi.org/10.1080/17405620500412267</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Boland, A. M., Haden, C. A., &amp; Ornstein, P. A.,  (2003). Boosting Children's Memory by Training Mothers in the Use of an Elaborative Conversational Style as an Event Unfolds. Journal of Cognition and Development, 4(1), 39-65. https://doi.org/10.1080/15248372.2003.9669682</t>
+          <t>Boland, A. M., Haden, C. A., &amp; Ornstein, P. A. (2003). Boosting Children's Memory by Training Mothers in the Use of an Elaborative Conversational Style as an Event Unfolds. Journal of Cognition and Development, 4(1), 39-65. https://doi.org/10.1080/15248372.2003.9669682</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Botdorf, M., Riggins, T., &amp; Dougherty, L. R.,  (2019). Early positive parenting and maternal depression history predict children’s relational binding ability at school-age. Developmental Psychology, 55(11), 2417-2427. https://doi.org/10.1037/dev0000803</t>
+          <t>Botdorf, M., Riggins, T., &amp; Dougherty, L. R. (2019). Early positive parenting and maternal depression history predict children’s relational binding ability at school-age. Developmental Psychology, 55(11), 2417-2427. https://doi.org/10.1037/dev0000803</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bouyeure, A., Patil, S., Mauconduit, F., Poiret, C.é., Isai, D., &amp; Noulhiane, M.,  (2021). Hippocampal subfield volumes and memory discrimination in the developing brain. Hippocampus, 31(11), 1202-1214. https://doi.org/10.1002/hipo.23385</t>
+          <t>Bouyeure, A., Patil, S., Mauconduit, F., Poiret, C.é., Isai, D., &amp; Noulhiane, M. (2021). Hippocampal subfield volumes and memory discrimination in the developing brain. Hippocampus, 31(11), 1202-1214. https://doi.org/10.1002/hipo.23385</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Brainerd, C,  (1984). Do children have to remember to reason? A fuzzy-trace theory of transitivity development. Developmental Review, 4(4), 311-377. https://doi.org/10.1016/0273-2297(84)90021-2</t>
+          <t>Brainerd, C (1984). Do children have to remember to reason? A fuzzy-trace theory of transitivity development. Developmental Review, 4(4), 311-377. https://doi.org/10.1016/0273-2297(84)90021-2</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Brainerd, C.J, &amp; Kingma, J,  (1985). On the independence of short-term memory and working memory in cognitive development. Cognitive Psychology, 17(2), 210-247. https://doi.org/10.1016/0010-0285(85)90008-8</t>
+          <t>Brainerd, C.J, &amp; Kingma, J (1985). On the independence of short-term memory and working memory in cognitive development. Cognitive Psychology, 17(2), 210-247. https://doi.org/10.1016/0010-0285(85)90008-8</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Brainerd, C.J., Reyna, V.F., &amp; Howe, M.L.,  (1990). Children's cognitive triage: Optimal retrieval or effortful processing?. Journal of Experimental Child Psychology, 49(3), 428-447. https://doi.org/10.1016/0022-0965(90)90068-J</t>
+          <t>Brainerd, C.J., Reyna, V.F., &amp; Howe, M.L. (1990). Children's cognitive triage: Optimal retrieval or effortful processing?. Journal of Experimental Child Psychology, 49(3), 428-447. https://doi.org/10.1016/0022-0965(90)90068-J</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Brainerd, C. J., Reyna, V. F., Howe, M. L., Kingma, J., &amp; Guttentag, R. E.,  (1990). The Development of Forgetting and Reminiscence. Monographs of the Society for Research in Child Development, 55(3/4), i. https://doi.org/10.2307/1166106</t>
+          <t>Brainerd, C. J., Reyna, V. F., Howe, M. L., Kingma, J., &amp; Guttentag, R. E. (1990). The Development of Forgetting and Reminiscence. Monographs of the Society for Research in Child Development, 55(3/4), i. https://doi.org/10.2307/1166106</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Brainerd, C. J., &amp; Reyna, V. F.,  (1996). Mere memory testing creates false memories in children. Developmental Psychology, 32(3), 467-478. https://doi.org/10.1037/0012-1649.32.3.467</t>
+          <t>Brainerd, C. J., &amp; Reyna, V. F. (1996). Mere memory testing creates false memories in children. Developmental Psychology, 32(3), 467-478. https://doi.org/10.1037/0012-1649.32.3.467</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Brainerd, C.J., Reyna, V.F., &amp; Forrest, T.J.,  (2002). Are Young Children Susceptible to the False-Memory Illusion?. Child Development, 73(5), 1363-1377. https://doi.org/10.1111/1467-8624.00477</t>
+          <t>Brainerd, C.J., Reyna, V.F., &amp; Forrest, T.J. (2002). Are Young Children Susceptible to the False-Memory Illusion?. Child Development, 73(5), 1363-1377. https://doi.org/10.1111/1467-8624.00477</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Brainerd, C. J., Holliday, R. E., &amp; Reyna, V. F.,  (2004). Behavioral Measurement of Remembering Phenomenologies: So Simple a Child Can Do It. Child Development, 75(2), 497-504. https://doi.org/10.1111/j.1467-8624.2004.00689.x</t>
+          <t>Brainerd, C. J., Holliday, R. E., &amp; Reyna, V. F. (2004). Behavioral Measurement of Remembering Phenomenologies: So Simple a Child Can Do It. Child Development, 75(2), 497-504. https://doi.org/10.1111/j.1467-8624.2004.00689.x</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Brainerd, C. J., Forrest, T. J., Karibian, D., &amp; Reyna, V. F.,  (2006). Development of the false-memory illusion. Developmental Psychology, 42(5), 962-979. https://doi.org/10.1037/0012-1649.42.5.962</t>
+          <t>Brainerd, C. J., Forrest, T. J., Karibian, D., &amp; Reyna, V. F. (2006). Development of the false-memory illusion. Developmental Psychology, 42(5), 962-979. https://doi.org/10.1037/0012-1649.42.5.962</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Brainerd, C. J., Reyna, V. F., &amp; Holliday, R. E.,  (2018). Developmental reversals in false memory: Development is complementary, not compensatory. Developmental Psychology, 54(9), 1773-1784. https://doi.org/10.1037/dev0000554</t>
+          <t>Brainerd, C. J., Reyna, V. F., &amp; Holliday, R. E. (2018). Developmental reversals in false memory: Development is complementary, not compensatory. Developmental Psychology, 54(9), 1773-1784. https://doi.org/10.1037/dev0000554</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Brehmer, Y., Li, S.-C., Müller, V., von Oertzen, T., &amp; Lindenberger, U.,  (2007). Memory plasticity across the life span: Uncovering children's latent potential. Developmental Psychology, 43(2), 465-478. https://doi.org/10.1037/0012-1649.43.2.465</t>
+          <t>Brehmer, Y., Li, S.-C., Müller, V., von Oertzen, T., &amp; Lindenberger, U. (2007). Memory plasticity across the life span: Uncovering children's latent potential. Developmental Psychology, 43(2), 465-478. https://doi.org/10.1037/0012-1649.43.2.465</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Brehmer, Y., Li, S.-C., Straube, B., Stoll, G., von Oertzen, T., Müller, V., &amp; Lindenberger, U.,  (2008). Comparing memory skill maintenance across the life span: Preservation in adults, increase in children. Psychology and Aging, 23(2), 227-238. https://doi.org/10.1037/0882-7974.23.2.227</t>
+          <t>Brehmer, Y., Li, S.-C., Straube, B., Stoll, G., von Oertzen, T., Müller, V., &amp; Lindenberger, U. (2008). Comparing memory skill maintenance across the life span: Preservation in adults, increase in children. Psychology and Aging, 23(2), 227-238. https://doi.org/10.1037/0882-7974.23.2.227</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Brod, G., Lindenberger, U., &amp; Shing, Y. L.,  (2017). Neural activation patterns during retrieval of schema-related memories: differences and commonalities between children and adults. Developmental Science, 20(6), e12475. https://doi.org/10.1111/desc.12475</t>
+          <t>Brod, G., Lindenberger, U., &amp; Shing, Y. L. (2017). Neural activation patterns during retrieval of schema-related memories: differences and commonalities between children and adults. Developmental Science, 20(6), e12475. https://doi.org/10.1111/desc.12475</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Brod, G., &amp; Shing, Y. L.,  (2019). A boon and a bane: Comparing the effects of prior knowledge on memory across the lifespan. Developmental Psychology, 55(6), 1326-1337. https://doi.org/10.1037/dev0000712</t>
+          <t>Brod, G., &amp; Shing, Y. L. (2019). A boon and a bane: Comparing the effects of prior knowledge on memory across the lifespan. Developmental Psychology, 55(6), 1326-1337. https://doi.org/10.1037/dev0000712</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Brown, A. L, &amp; Scott, M. S,  (1971). Recognition memory for pictures in preschool children. Journal of Experimental Child Psychology, 11(3), 401-412. https://doi.org/10.1016/0022-0965(71)90045-2</t>
+          <t>Brown, A. L, &amp; Scott, M. S (1971). Recognition memory for pictures in preschool children. Journal of Experimental Child Psychology, 11(3), 401-412. https://doi.org/10.1016/0022-0965(71)90045-2</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Brown, A. L., &amp; Campione, J. C.,  (1972). Recognition memory for perceptually similar pictures in preschool children. Journal of Experimental Psychology, 95(1), 55-62. https://doi.org/10.1037/h0033276</t>
+          <t>Brown, A. L., &amp; Campione, J. C. (1972). Recognition memory for perceptually similar pictures in preschool children. Journal of Experimental Psychology, 95(1), 55-62. https://doi.org/10.1037/h0033276</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Brown, A. L., &amp; Murphy, M. D.,  (1975). Reconstruction of arbitrary versus logical sequences by preschool children. Journal of Experimental Child Psychology, 20(2), 307-326. https://doi.org/10.1016/0022-0965(75)90106-X</t>
+          <t>Brown, A. L., &amp; Murphy, M. D. (1975). Reconstruction of arbitrary versus logical sequences by preschool children. Journal of Experimental Child Psychology, 20(2), 307-326. https://doi.org/10.1016/0022-0965(75)90106-X</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Brown, J., Aczel, B., Jiménez, L., Kaufman, S. B., &amp; Grant, K. P.,  (2010). Intact implicit learning in autism spectrum conditions. Quarterly Journal of Experimental Psychology, 63(9), 1789-1812. https://doi.org/10.1080/17470210903536910</t>
+          <t>Brown, J., Aczel, B., Jiménez, L., Kaufman, S. B., &amp; Grant, K. P. (2010). Intact implicit learning in autism spectrum conditions. Quarterly Journal of Experimental Psychology, 63(9), 1789-1812. https://doi.org/10.1080/17470210903536910</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Brubacher, S. P., Glisic, U., Roberts, K. P., &amp; Powell, M.,  (2011). Children's ability to recall unique aspects of one occurrence of a repeated event. Applied Cognitive Psychology, 25(3), 351-358. https://doi.org/10.1002/acp.1696</t>
+          <t>Brubacher, S. P., Glisic, U., Roberts, K. P., &amp; Powell, M. (2011). Children's ability to recall unique aspects of one occurrence of a repeated event. Applied Cognitive Psychology, 25(3), 351-358. https://doi.org/10.1002/acp.1696</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Brubacher, S. P., Roberts, K. P., &amp; Powell, M.,  (2011). Effects of practicing episodic versus scripted recall on children's subsequent narratives of a repeated event. Psychology, Public Policy, and Law, 17(2), 286-314. https://doi.org/10.1037/a0022793</t>
+          <t>Brubacher, S. P., Roberts, K. P., &amp; Powell, M. (2011). Effects of practicing episodic versus scripted recall on children's subsequent narratives of a repeated event. Psychology, Public Policy, and Law, 17(2), 286-314. https://doi.org/10.1037/a0022793</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Brubacher, S. P., Roberts, K. P., &amp; Powell, M.,  (2012). Retrieval of episodic versus generic information: Does the order of recall affect the amount and accuracy of details reported by children about repeated events?. Developmental Psychology, 48(1), 111-122. https://doi.org/10.1037/a0025864</t>
+          <t>Brubacher, S. P., Roberts, K. P., &amp; Powell, M. (2012). Retrieval of episodic versus generic information: Does the order of recall affect the amount and accuracy of details reported by children about repeated events?. Developmental Psychology, 48(1), 111-122. https://doi.org/10.1037/a0025864</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Brubacher, S. P., Earhart, B., Roberts, K. P., &amp; Powell, M. B.,  (2018). Effects of label training and recall order on children's reports of a repeated event. Applied Cognitive Psychology, 32(5), 600-609. https://doi.org/10.1002/acp.3440</t>
+          <t>Brubacher, S. P., Earhart, B., Roberts, K. P., &amp; Powell, M. B. (2018). Effects of label training and recall order on children's reports of a repeated event. Applied Cognitive Psychology, 32(5), 600-609. https://doi.org/10.1002/acp.3440</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Bryant, P. E., &amp; Trabasso, T.,  (1971). Transitive Inferences and Memory in Young Children. Nature, 232(5311), 456-458. https://doi.org/10.1038/232456a0</t>
+          <t>Bryant, P. E., &amp; Trabasso, T. (1971). Transitive Inferences and Memory in Young Children. Nature, 232(5311), 456-458. https://doi.org/10.1038/232456a0</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Buckner, J. P., &amp; Fivush, R.,  (1998). Gender and self in children's autobiographical narratives. Applied Cognitive Psychology, 12(4), 407-429. https://doi.org/10.1002/(SICI)1099-0720(199808)12:4&lt;407::AID-ACP575&gt;3.0.CO;2-7</t>
+          <t>Buckner, J. P., &amp; Fivush, R. (1998). Gender and self in children's autobiographical narratives. Applied Cognitive Psychology, 12(4), 407-429. https://doi.org/10.1002/(SICI)1099-0720(199808)12:4&lt;407::AID-ACP575&gt;3.0.CO;2-7</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bunnell, S. L., &amp; Greenhoot, A. F.,  (2018). Do Overgeneral Memories Make us feel better? An experimental examination. Memory, 26(1), 74-88. https://doi.org/10.1080/09658211.2017.1323105</t>
+          <t>Bunnell, S. L., &amp; Greenhoot, A. F. (2018). Do Overgeneral Memories Make us feel better? An experimental examination. Memory, 26(1), 74-88. https://doi.org/10.1080/09658211.2017.1323105</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Burden, M. J., &amp; Mitchell, D. B.,  (2005). Implicit Memory Development in School-Aged Children With Attention Deficit Hyperactivity Disorder (ADHD): Conceptual Priming Deficit?. Developmental Neuropsychology, 28(3), 779-807. https://doi.org/10.1207/s15326942dn2803_3</t>
+          <t>Burden, M. J., &amp; Mitchell, D. B. (2005). Implicit Memory Development in School-Aged Children With Attention Deficit Hyperactivity Disorder (ADHD): Conceptual Priming Deficit?. Developmental Neuropsychology, 28(3), 779-807. https://doi.org/10.1207/s15326942dn2803_3</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Burns, P., Russell, C., &amp; Russell, J.,  (2015). Preschool children's proto-episodic memory assessed by deferred imitation. Memory, 23(8), 1172-1192. https://doi.org/10.1080/09658211.2014.963625</t>
+          <t>Burns, P., Russell, C., &amp; Russell, J. (2015). Preschool children's proto-episodic memory assessed by deferred imitation. Memory, 23(8), 1172-1192. https://doi.org/10.1080/09658211.2014.963625</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Busby, J., &amp; Suddendorf, T.,  (2005). Recalling yesterday and predicting tomorrow. Cognitive Development, 20(3), 362-372. https://doi.org/10.1016/j.cogdev.2005.05.002</t>
+          <t>Busby, J., &amp; Suddendorf, T. (2005). Recalling yesterday and predicting tomorrow. Cognitive Development, 20(3), 362-372. https://doi.org/10.1016/j.cogdev.2005.05.002</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Callow, D. D., Canada, K. L., &amp; Riggins, T.,  (2020). Microstructural Integrity of the Hippocampus During Childhood: Relations With Age and Source Memory. Frontiers in Psychology, 11(), 568953. https://doi.org/10.3389/fpsyg.2020.568953</t>
+          <t>Callow, D. D., Canada, K. L., &amp; Riggins, T. (2020). Microstructural Integrity of the Hippocampus During Childhood: Relations With Age and Source Memory. Frontiers in Psychology, 11(), 568953. https://doi.org/10.3389/fpsyg.2020.568953</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Canada, K. L, Ngo, C. T, Newcombe, N. S, Geng, F., &amp; Riggins, T.,  (2019). It’s All in the Details: Relations Between Young Children’s Developing Pattern Separation Abilities and Hippocampal Subfield Volumes. Cerebral Cortex, 29(8), 3427-3433. https://doi.org/10.1093/cercor/bhy211</t>
+          <t>Canada, K. L, Ngo, C. T, Newcombe, N. S, Geng, F., &amp; Riggins, T. (2019). It’s All in the Details: Relations Between Young Children’s Developing Pattern Separation Abilities and Hippocampal Subfield Volumes. Cerebral Cortex, 29(8), 3427-3433. https://doi.org/10.1093/cercor/bhy211</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Canada, K. L., Pathman, T., &amp; Riggins, T.,  (2020). Longitudinal Development of Memory for Temporal Order in Early to Middle Childhood. The Journal of Genetic Psychology, 181(4), 237-254. https://doi.org/10.1080/00221325.2020.1741504</t>
+          <t>Canada, K. L., Pathman, T., &amp; Riggins, T. (2020). Longitudinal Development of Memory for Temporal Order in Early to Middle Childhood. The Journal of Genetic Psychology, 181(4), 237-254. https://doi.org/10.1080/00221325.2020.1741504</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Canada, K. L., Geng, F., &amp; Riggins, T.,  (2020). Age‐ and performance‐related differences in source memory retrieval during early childhood: Insights from event‐related potentials. Developmental Psychobiology, 62(6), 723-736. https://doi.org/10.1002/dev.21946</t>
+          <t>Canada, K. L., Geng, F., &amp; Riggins, T. (2020). Age‐ and performance‐related differences in source memory retrieval during early childhood: Insights from event‐related potentials. Developmental Psychobiology, 62(6), 723-736. https://doi.org/10.1002/dev.21946</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Carneiro, P., Albuquerque, P., Fernandez, A., &amp; Esteves, F.,  (2007). Analyzing False Memories in Children With Associative Lists Specific for Their Age. Child Development, 78(4), 1171-1185. https://doi.org/10.1111/j.1467-8624.2007.01059.x</t>
+          <t>Carneiro, P., Albuquerque, P., Fernandez, A., &amp; Esteves, F. (2007). Analyzing False Memories in Children With Associative Lists Specific for Their Age. Child Development, 78(4), 1171-1185. https://doi.org/10.1111/j.1467-8624.2007.01059.x</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Carneiro, P., Albuquerque, P., &amp; Fernandez, A.,  (2009). Opposite developmental trends for false recognition of basic and superordinate names. Memory, 17(4), 411-427. https://doi.org/10.1080/09658210902758847</t>
+          <t>Carneiro, P., Albuquerque, P., &amp; Fernandez, A. (2009). Opposite developmental trends for false recognition of basic and superordinate names. Memory, 17(4), 411-427. https://doi.org/10.1080/09658210902758847</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Carneiro, P., &amp; Fernandez, A.,  (2010). Age differences in the rejection of false memories: The effects of giving warning instructions and slowing the presentation rate. Journal of Experimental Child Psychology, 105(1-2), 81-97. https://doi.org/10.1016/j.jecp.2009.09.004</t>
+          <t>Carneiro, P., &amp; Fernandez, A. (2010). Age differences in the rejection of false memories: The effects of giving warning instructions and slowing the presentation rate. Journal of Experimental Child Psychology, 105(1-2), 81-97. https://doi.org/10.1016/j.jecp.2009.09.004</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Carroll, M., Byrne, B., &amp; Kirsner, K.,  (1985). Autobiographical memory and perceptual learning: A developmental study using picture recognition, naming latency, and perceptual identification. Memory &amp; Cognition, 13(3), 273-279. https://doi.org/10.3758/BF03197690</t>
+          <t>Carroll, M., Byrne, B., &amp; Kirsner, K. (1985). Autobiographical memory and perceptual learning: A developmental study using picture recognition, naming latency, and perceptual identification. Memory &amp; Cognition, 13(3), 273-279. https://doi.org/10.3758/BF03197690</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Castelli, P., &amp; Ghetti, S.,  (2014). Resisting imagination and confabulation: Effects of metacognitive training. Journal of Experimental Child Psychology, 126(), 339-356. https://doi.org/10.1016/j.jecp.2014.04.005</t>
+          <t>Castelli, P., &amp; Ghetti, S. (2014). Resisting imagination and confabulation: Effects of metacognitive training. Journal of Experimental Child Psychology, 126(), 339-356. https://doi.org/10.1016/j.jecp.2014.04.005</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cavanaugh, J. C., &amp; Borkowski, J. G.,  (1980). Searching for metamemory–memory connections: A developmental study. Developmental Psychology, 16(5), 441-453. https://doi.org/10.1037/0012-1649.16.5.441</t>
+          <t>Cavanaugh, J. C., &amp; Borkowski, J. G. (1980). Searching for metamemory–memory connections: A developmental study. Developmental Psychology, 16(5), 441-453. https://doi.org/10.1037/0012-1649.16.5.441</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ceci, S. J., &amp; Howe, M. J.A.,  (1978). Age-related differences in free recall as a function of retrieval flexibility. Journal of Experimental Child Psychology, 26(3), 432-442. https://doi.org/10.1016/0022-0965(78)90123-6</t>
+          <t>Ceci, S. J., &amp; Howe, M. J.A. (1978). Age-related differences in free recall as a function of retrieval flexibility. Journal of Experimental Child Psychology, 26(3), 432-442. https://doi.org/10.1016/0022-0965(78)90123-6</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ceci, S. J, &amp; Howe, M. J.A,  (1978). Semantic knowledge as a determinant of developmental differences in recall. Journal of Experimental Child Psychology, 26(2), 230-245. https://doi.org/10.1016/0022-0965(78)90003-6</t>
+          <t>Ceci, S. J, &amp; Howe, M. J.A (1978). Semantic knowledge as a determinant of developmental differences in recall. Journal of Experimental Child Psychology, 26(2), 230-245. https://doi.org/10.1016/0022-0965(78)90003-6</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ceci, S. J., Lea, S. E., &amp; Howe, M. J.,  (1980). Structural analysis of memory traces in children from 4 to 10 years of age. Developmental Psychology, 16(3), 203-212. https://doi.org/10.1037/0012-1649.16.3.203</t>
+          <t>Ceci, S. J., Lea, S. E., &amp; Howe, M. J. (1980). Structural analysis of memory traces in children from 4 to 10 years of age. Developmental Psychology, 16(3), 203-212. https://doi.org/10.1037/0012-1649.16.3.203</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ceci, S. J,  (1984). A developmental study of learning disabilities and memory. Journal of Experimental Child Psychology, 38(2), 352-371. https://doi.org/10.1016/0022-0965(84)90131-0</t>
+          <t>Ceci, S. J (1984). A developmental study of learning disabilities and memory. Journal of Experimental Child Psychology, 38(2), 352-371. https://doi.org/10.1016/0022-0965(84)90131-0</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ceci, S. J., Loftus, E. F., Leichtman, M. D., &amp; Bruck, M.,  (1994). The Possible Role of Source Misattributions in the Creation of False Beliefs Among Preschoolers. International Journal of Clinical and Experimental Hypnosis, 42(4), 304-320. https://doi.org/10.1080/00207149408409361</t>
+          <t>Ceci, S. J., Loftus, E. F., Leichtman, M. D., &amp; Bruck, M. (1994). The Possible Role of Source Misattributions in the Creation of False Beliefs Among Preschoolers. International Journal of Clinical and Experimental Hypnosis, 42(4), 304-320. https://doi.org/10.1080/00207149408409361</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ceci, S. J., Papierno, P. B., &amp; Kulkofsky, S.,  (2007). Representational Constraints on Children's Suggestibility. Psychological Science, 18(6), 503-509. https://doi.org/10.1111/j.1467-9280.2007.01930.x</t>
+          <t>Ceci, S. J., Papierno, P. B., &amp; Kulkofsky, S. (2007). Representational Constraints on Children's Suggestibility. Psychological Science, 18(6), 503-509. https://doi.org/10.1111/j.1467-9280.2007.01930.x</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ceci, S. J., Fitneva, S. A., &amp; Williams, W. M.,  (2010). Representational constraints on the development of memory and metamemory: A developmental–representational theory. Psychological Review, 117(2), 464-495. https://doi.org/10.1037/a0019067</t>
+          <t>Ceci, S. J., Fitneva, S. A., &amp; Williams, W. M. (2010). Representational constraints on the development of memory and metamemory: A developmental–representational theory. Psychological Review, 117(2), 464-495. https://doi.org/10.1037/a0019067</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Chad‐Friedman, E., Botdorf, M., Riggins, T., &amp; Dougherty, L. R.,  (2021). Early childhood cumulative risk is associated with decreased global brain measures, cortical thickness, and cognitive functioning in school‐age children. Developmental Psychobiology, 63(2), 192-205. https://doi.org/10.1002/dev.21956</t>
+          <t>Chad‐Friedman, E., Botdorf, M., Riggins, T., &amp; Dougherty, L. R. (2021). Early childhood cumulative risk is associated with decreased global brain measures, cortical thickness, and cognitive functioning in school‐age children. Developmental Psychobiology, 63(2), 192-205. https://doi.org/10.1002/dev.21956</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Chae, Y., &amp; Ceci, S. J.,  (2005). Individual differences in children's recall and suggestibility: the effect of intelligence, temperament, and self-perceptions. Applied Cognitive Psychology, 19(4), 383-407. https://doi.org/10.1002/acp.1094</t>
+          <t>Chae, Y., &amp; Ceci, S. J. (2005). Individual differences in children's recall and suggestibility: the effect of intelligence, temperament, and self-perceptions. Applied Cognitive Psychology, 19(4), 383-407. https://doi.org/10.1002/acp.1094</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Chai, X. J.,  (2010). Scene complexity: Influence on perception, memory, and development in the medial temporal lobe. Frontiers in Human Neuroscience, 4(), . https://doi.org/10.3389/fnhum.2010.00021</t>
+          <t>Chai, X. J. (2010). Scene complexity: Influence on perception, memory, and development in the medial temporal lobe. Frontiers in Human Neuroscience, 4(), . https://doi.org/10.3389/fnhum.2010.00021</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Chai, X. J., Ofen, N., Gabrieli, J. D.E., &amp; Whitfield-Gabrieli, S.,  (2014). Development of deactivation of the default-mode network during episodic memory formation. NeuroImage, 84(), 932-938. https://doi.org/10.1016/j.neuroimage.2013.09.032</t>
+          <t>Chai, X. J., Ofen, N., Gabrieli, J. D.E., &amp; Whitfield-Gabrieli, S. (2014). Development of deactivation of the default-mode network during episodic memory formation. NeuroImage, 84(), 932-938. https://doi.org/10.1016/j.neuroimage.2013.09.032</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>de Chastelaine, M., Friedman, D., &amp; Cycowicz, Y. M.,  (2007). The Development of Control Processes Supporting Source Memory Discrimination as Revealed by Event-related Potentials. Journal of Cognitive Neuroscience, 19(8), 1286-1301. https://doi.org/10.1162/jocn.2007.19.8.1286</t>
+          <t>de Chastelaine, M., Friedman, D., &amp; Cycowicz, Y. M. (2007). The Development of Control Processes Supporting Source Memory Discrimination as Revealed by Event-related Potentials. Journal of Cognitive Neuroscience, 19(8), 1286-1301. https://doi.org/10.1162/jocn.2007.19.8.1286</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cheke, L. G., &amp; Clayton, N. S.,  (2015). The six blind men and the elephant: Are episodic memory tasks tests of different things or different tests of the same thing?. Journal of Experimental Child Psychology, 137(), 164-171. https://doi.org/10.1016/j.jecp.2015.03.006</t>
+          <t>Cheke, L. G., &amp; Clayton, N. S. (2015). The six blind men and the elephant: Are episodic memory tasks tests of different things or different tests of the same thing?. Journal of Experimental Child Psychology, 137(), 164-171. https://doi.org/10.1016/j.jecp.2015.03.006</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chi, M. T. H., &amp; Koeske, R. D.,  (1983). Network representation of a child's dinosaur knowledge. Developmental Psychology, 19(1), 29-39. https://doi.org/10.1037/0012-1649.19.1.29</t>
+          <t>Chi, M. T. H., &amp; Koeske, R. D. (1983). Network representation of a child's dinosaur knowledge. Developmental Psychology, 19(1), 29-39. https://doi.org/10.1037/0012-1649.19.1.29</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Chiu, C.-Y. P., Schmithorst, V. J., Brown, R. D., Holland, S. K., &amp; Dunn, S.,  (2006). Making Memories: A Cross-Sectional Investigation of Episodic Memory Encoding in Childhood Using fMRI. Developmental Neuropsychology, 29(2), 321-340. https://doi.org/10.1207/s15326942dn2902_3</t>
+          <t>Chiu, C.-Y. P., Schmithorst, V. J., Brown, R. D., Holland, S. K., &amp; Dunn, S. (2006). Making Memories: A Cross-Sectional Investigation of Episodic Memory Encoding in Childhood Using fMRI. Developmental Neuropsychology, 29(2), 321-340. https://doi.org/10.1207/s15326942dn2902_3</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cleveland, E. S., &amp; Reese, E.,  (2005). Maternal Structure and Autonomy Support in Conversations About the Past: Contributions to Children's Autobiographical Memory. Developmental Psychology, 41(2), 376-388. https://doi.org/10.1037/0012-1649.41.2.376</t>
+          <t>Cleveland, E. S., &amp; Reese, E. (2005). Maternal Structure and Autonomy Support in Conversations About the Past: Contributions to Children's Autobiographical Memory. Developmental Psychology, 41(2), 376-388. https://doi.org/10.1037/0012-1649.41.2.376</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Coffman, J. L., Ornstein, P. A., McCall, L. E., &amp; Curran, P. J.,  (2008). Linking teachers' memory-relevant language and the development of children's memory skills. Developmental Psychology, 44(6), 1640-1654. https://doi.org/10.1037/a0013859</t>
+          <t>Coffman, J. L., Ornstein, P. A., McCall, L. E., &amp; Curran, P. J. (2008). Linking teachers' memory-relevant language and the development of children's memory skills. Developmental Psychology, 44(6), 1640-1654. https://doi.org/10.1037/a0013859</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Coley, J. D.,  (2012). Where the Wild Things Are: Informal Experience and Ecological Reasoning. Child Development, 83(3), 992-1006. https://doi.org/10.1111/j.1467-8624.2012.01751.x</t>
+          <t>Coley, J. D. (2012). Where the Wild Things Are: Informal Experience and Ecological Reasoning. Child Development, 83(3), 992-1006. https://doi.org/10.1111/j.1467-8624.2012.01751.x</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Connolly, D. A, &amp; Lindsay, D S.,  (2001). The influence of suggestions on children's reports of a unique experience versus an instance of a repeated experience. Applied Cognitive Psychology, 15(2), 205-223. https://doi.org/10.1002/1099-0720(200103/04)15:2&lt;205::AID-ACP698&gt;3.0.CO;2-F</t>
+          <t>Connolly, D. A, &amp; Lindsay, D S. (2001). The influence of suggestions on children's reports of a unique experience versus an instance of a repeated experience. Applied Cognitive Psychology, 15(2), 205-223. https://doi.org/10.1002/1099-0720(200103/04)15:2&lt;205::AID-ACP698&gt;3.0.CO;2-F</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Connolly, D. A., &amp; Price, H. L.,  (2006). Children’s suggestibility for an instance of a repeated event versus a unique event: The effect of degree of association between variable details. Journal of Experimental Child Psychology, 93(3), 207-223. https://doi.org/10.1016/j.jecp.2005.06.004</t>
+          <t>Connolly, D. A., &amp; Price, H. L. (2006). Children’s suggestibility for an instance of a repeated event versus a unique event: The effect of degree of association between variable details. Journal of Experimental Child Psychology, 93(3), 207-223. https://doi.org/10.1016/j.jecp.2005.06.004</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Crookes, K., &amp; McKone, E.,  (2009). Early maturity of face recognition: No childhood development of holistic processing, novel face encoding, or face-space. Cognition, 111(2), 219-247. https://doi.org/10.1016/j.cognition.2009.02.004</t>
+          <t>Crookes, K., &amp; McKone, E. (2009). Early maturity of face recognition: No childhood development of holistic processing, novel face encoding, or face-space. Cognition, 111(2), 219-247. https://doi.org/10.1016/j.cognition.2009.02.004</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cuevas, K., Rajan, V., Morasch, K. C., &amp; Bell, M. A.,  (2015). Episodic memory and future thinking during early childhood: Linking the past and future. Developmental Psychobiology, 57(5), 552-565. https://doi.org/10.1002/dev.21307</t>
+          <t>Cuevas, K., Rajan, V., Morasch, K. C., &amp; Bell, M. A. (2015). Episodic memory and future thinking during early childhood: Linking the past and future. Developmental Psychobiology, 57(5), 552-565. https://doi.org/10.1002/dev.21307</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cuvo, A. J,  (1975). Developmental differences in rehearsal and free recall. Journal of Experimental Child Psychology, 19(2), 265-278. https://doi.org/10.1016/0022-0965(75)90090-9</t>
+          <t>Cuvo, A. J (1975). Developmental differences in rehearsal and free recall. Journal of Experimental Child Psychology, 19(2), 265-278. https://doi.org/10.1016/0022-0965(75)90090-9</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cycowicz, Y. M., Friedman, D., Snodgrass, J. G., &amp; Rothstein, M.,  (2000). A Developmental Trajectory in Implicit Memory is Revealed by Picture Fragment Completion. Memory, 8(1), 19-35. https://doi.org/10.1080/096582100387687</t>
+          <t>Cycowicz, Y. M., Friedman, D., Snodgrass, J. G., &amp; Rothstein, M. (2000). A Developmental Trajectory in Implicit Memory is Revealed by Picture Fragment Completion. Memory, 8(1), 19-35. https://doi.org/10.1080/096582100387687</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cycowicz, Y. M, Friedman, D., Snodgrass, J. G., &amp; Duff, M.,  (2001). Recognition and source memory for pictures in children and adults. Neuropsychologia, 39(3), 255-267. https://doi.org/10.1016/S0028-3932(00)00108-1</t>
+          <t>Cycowicz, Y. M, Friedman, D., Snodgrass, J. G., &amp; Duff, M. (2001). Recognition and source memory for pictures in children and adults. Neuropsychologia, 39(3), 255-267. https://doi.org/10.1016/S0028-3932(00)00108-1</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cycowicz, Y. M., Friedman, D., &amp; Duff, M.,  (2003). Pictures and Their Colors: What Do Children Remember?. Journal of Cognitive Neuroscience, 15(5), 759-768. https://doi.org/10.1162/jocn.2003.15.5.759</t>
+          <t>Cycowicz, Y. M., Friedman, D., &amp; Duff, M. (2003). Pictures and Their Colors: What Do Children Remember?. Journal of Cognitive Neuroscience, 15(5), 759-768. https://doi.org/10.1162/jocn.2003.15.5.759</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Czernochowski, D., Mecklinger, A., Johansson, M., &amp; Brinkmann, M.,  (2005). Age-related differences in familiarity and recollection: ERP evidence from a recognition memory study in children and young adults. Cognitive, Affective, &amp; Behavioral Neuroscience, 5(4), 417-433. https://doi.org/10.3758/CABN.5.4.417</t>
+          <t>Czernochowski, D., Mecklinger, A., Johansson, M., &amp; Brinkmann, M. (2005). Age-related differences in familiarity and recollection: ERP evidence from a recognition memory study in children and young adults. Cognitive, Affective, &amp; Behavioral Neuroscience, 5(4), 417-433. https://doi.org/10.3758/CABN.5.4.417</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Czernochowski, D., Mecklinger, A., &amp; Johansson, M.,  (2009). Age-related changes in the control of episodic retrieval: an ERP study of recognition memory in children and adults. Developmental Science, 12(6), 1026-1040. https://doi.org/10.1111/j.1467-7687.2009.00841.x</t>
+          <t>Czernochowski, D., Mecklinger, A., &amp; Johansson, M. (2009). Age-related changes in the control of episodic retrieval: an ERP study of recognition memory in children and adults. Developmental Science, 12(6), 1026-1040. https://doi.org/10.1111/j.1467-7687.2009.00841.x</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Danby, M. C., Sharman, S. J., Brubacher, S. P., Powell, M. B., &amp; Roberts, K. P.,  (2017). Differential effects of general versus cued invitations on children’s reports of a repeated event episode. Psychology, Crime &amp; Law, 23(8), 794-811. https://doi.org/10.1080/1068316X.2017.1324028</t>
+          <t>Danby, M. C., Sharman, S. J., Brubacher, S. P., Powell, M. B., &amp; Roberts, K. P. (2017). Differential effects of general versus cued invitations on children’s reports of a repeated event episode. Psychology, Crime &amp; Law, 23(8), 794-811. https://doi.org/10.1080/1068316X.2017.1324028</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Danby, M. C., Brubacher, S. P., Sharman, S. J., Powell, M. B., &amp; Roberts, K. P.,  (2017). Children's Reasoning About Which Episode of a Repeated Event is Best Remembered. Applied Cognitive Psychology, 31(1), 99-108. https://doi.org/10.1002/acp.3306</t>
+          <t>Danby, M. C., Brubacher, S. P., Sharman, S. J., Powell, M. B., &amp; Roberts, K. P. (2017). Children's Reasoning About Which Episode of a Repeated Event is Best Remembered. Applied Cognitive Psychology, 31(1), 99-108. https://doi.org/10.1002/acp.3306</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Darby, K. P., &amp; Sloutsky, V. M.,  (2015). When Delays Improve Memory: Stabilizing Memory in Children May Require Time. Psychological Science, 26(12), 1937-1946. https://doi.org/10.1177/0956797615607350</t>
+          <t>Darby, K. P., &amp; Sloutsky, V. M. (2015). When Delays Improve Memory: Stabilizing Memory in Children May Require Time. Psychological Science, 26(12), 1937-1946. https://doi.org/10.1177/0956797615607350</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Darby, K. P., &amp; Sloutsky, V. M.,  (2015). The cost of learning: Interference effects in memory development. Journal of Experimental Psychology: General, 144(2), 410-431. https://doi.org/10.1037/xge0000051</t>
+          <t>Darby, K. P., &amp; Sloutsky, V. M. (2015). The cost of learning: Interference effects in memory development. Journal of Experimental Psychology: General, 144(2), 410-431. https://doi.org/10.1037/xge0000051</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Daugherty, A. M., &amp; Ofen, N.,  (2015). That’s a good one! Belief in efficacy of mnemonic strategies contributes to age-related increase in associative memory. Journal of Experimental Child Psychology, 136(), 17-29. https://doi.org/10.1016/j.jecp.2015.02.008</t>
+          <t>Daugherty, A. M., &amp; Ofen, N. (2015). That’s a good one! Belief in efficacy of mnemonic strategies contributes to age-related increase in associative memory. Journal of Experimental Child Psychology, 136(), 17-29. https://doi.org/10.1016/j.jecp.2015.02.008</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Daugherty, A. M., Flinn, R., &amp; Ofen, N.,  (2017). Hippocampal CA3-dentate gyrus volume uniquely linked to improvement in associative memory from childhood to adulthood. NeuroImage, 153(), 75-85. https://doi.org/10.1016/j.neuroimage.2017.03.047</t>
+          <t>Daugherty, A. M., Flinn, R., &amp; Ofen, N. (2017). Hippocampal CA3-dentate gyrus volume uniquely linked to improvement in associative memory from childhood to adulthood. NeuroImage, 153(), 75-85. https://doi.org/10.1016/j.neuroimage.2017.03.047</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Davis, P. J.,  (1999). Gender differences in autobiographical memory for childhood emotional experiences. Journal of Personality and Social Psychology, 76(3), 498-510. https://doi.org/10.1037/0022-3514.76.3.498</t>
+          <t>Davis, P. J. (1999). Gender differences in autobiographical memory for childhood emotional experiences. Journal of Personality and Social Psychology, 76(3), 498-510. https://doi.org/10.1037/0022-3514.76.3.498</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Day, K., Howie, P., &amp; Markham, R.,  (1998). The role of similarity in developmental differences in source monitoring. British Journal of Developmental Psychology, 16(2), 219-232. https://doi.org/10.1111/j.2044-835X.1998.tb00920.x</t>
+          <t>Day, K., Howie, P., &amp; Markham, R. (1998). The role of similarity in developmental differences in source monitoring. British Journal of Developmental Psychology, 16(2), 219-232. https://doi.org/10.1111/j.2044-835X.1998.tb00920.x</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Delgado, B.ñ., Gómez, J. C., &amp; Sarriá, E.ó.,  (2011). Pointing gestures as a cognitive tool in young children: Experimental evidence. Journal of Experimental Child Psychology, 110(3), 299-312. https://doi.org/10.1016/j.jecp.2011.04.010</t>
+          <t>Delgado, B.ñ., Gómez, J. C., &amp; Sarriá, E.ó. (2011). Pointing gestures as a cognitive tool in young children: Experimental evidence. Journal of Experimental Child Psychology, 110(3), 299-312. https://doi.org/10.1016/j.jecp.2011.04.010</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DeLoache, J. S, &amp; Todd, C. M,  (1988). Young children's use of spatial categorization as a mnemonic strategy. Journal of Experimental Child Psychology, 46(1), 1-20. https://doi.org/10.1016/0022-0965(88)90019-7</t>
+          <t>DeLoache, J. S, &amp; Todd, C. M (1988). Young children's use of spatial categorization as a mnemonic strategy. Journal of Experimental Child Psychology, 46(1), 1-20. https://doi.org/10.1016/0022-0965(88)90019-7</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DeMarie, D., &amp; Ferron, J.,  (2003). Capacity, strategies, and metamemory: Tests of a three-factor model of memory development. Journal of Experimental Child Psychology, 84(3), 167-193. https://doi.org/10.1016/S0022-0965(03)00004-3</t>
+          <t>DeMarie, D., &amp; Ferron, J. (2003). Capacity, strategies, and metamemory: Tests of a three-factor model of memory development. Journal of Experimental Child Psychology, 84(3), 167-193. https://doi.org/10.1016/S0022-0965(03)00004-3</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DeMaster, D. M., &amp; Ghetti, S.,  (2013). Developmental differences in hippocampal and cortical contributions to episodic retrieval. Cortex, 49(6), 1482-1493. https://doi.org/10.1016/j.cortex.2012.08.004</t>
+          <t>DeMaster, D. M., &amp; Ghetti, S. (2013). Developmental differences in hippocampal and cortical contributions to episodic retrieval. Cortex, 49(6), 1482-1493. https://doi.org/10.1016/j.cortex.2012.08.004</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DeMaster, D., Pathman, T., &amp; Ghetti, S.,  (2013). Development of memory for spatial context: Hippocampal and cortical contributions. Neuropsychologia, 51(12), 2415-2426. https://doi.org/10.1016/j.neuropsychologia.2013.05.026</t>
+          <t>DeMaster, D., Pathman, T., &amp; Ghetti, S. (2013). Development of memory for spatial context: Hippocampal and cortical contributions. Neuropsychologia, 51(12), 2415-2426. https://doi.org/10.1016/j.neuropsychologia.2013.05.026</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DeMaster, D., Pathman, T., Lee, J. K., &amp; Ghetti, S.,  (2014). Structural Development of the Hippocampus and Episodic Memory: Developmental Differences Along the Anterior/Posterior Axis. Cerebral Cortex, 24(11), 3036-3045. https://doi.org/10.1093/cercor/bht160</t>
+          <t>DeMaster, D., Pathman, T., Lee, J. K., &amp; Ghetti, S. (2014). Structural Development of the Hippocampus and Episodic Memory: Developmental Differences Along the Anterior/Posterior Axis. Cerebral Cortex, 24(11), 3036-3045. https://doi.org/10.1093/cercor/bht160</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DeMaster, D., Coughlin, C., &amp; Ghetti, S.,  (2016). Retrieval flexibility and reinstatement in the developing hippocampus. Hippocampus, 26(4), 492-501. https://doi.org/10.1002/hipo.22538</t>
+          <t>DeMaster, D., Coughlin, C., &amp; Ghetti, S. (2016). Retrieval flexibility and reinstatement in the developing hippocampus. Hippocampus, 26(4), 492-501. https://doi.org/10.1002/hipo.22538</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Deng, W. (S.), &amp; Sloutsky, V. M.,  (2012). Carrot Eaters or Moving Heads: Inductive Inference Is Better Supported by Salient Features Than by Category Labels. Psychological Science, 23(2), 178-186. https://doi.org/10.1177/0956797611429133</t>
+          <t>Deng, W. (S.), &amp; Sloutsky, V. M. (2012). Carrot Eaters or Moving Heads: Inductive Inference Is Better Supported by Salient Features Than by Category Labels. Psychological Science, 23(2), 178-186. https://doi.org/10.1177/0956797611429133</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Deng, W., &amp; Sloutsky, V. M.,  (2013). The role of linguistic labels in inductive generalization. Journal of Experimental Child Psychology, 114(3), 432-455. https://doi.org/10.1016/j.jecp.2012.10.011</t>
+          <t>Deng, W., &amp; Sloutsky, V. M. (2013). The role of linguistic labels in inductive generalization. Journal of Experimental Child Psychology, 114(3), 432-455. https://doi.org/10.1016/j.jecp.2012.10.011</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Deng, W. (S.), &amp; Sloutsky, V. M.,  (2015). The development of categorization: Effects of classification and inference training on category representation. Developmental Psychology, 51(3), 392-405. https://doi.org/10.1037/a0038749</t>
+          <t>Deng, W. (S.), &amp; Sloutsky, V. M. (2015). The development of categorization: Effects of classification and inference training on category representation. Developmental Psychology, 51(3), 392-405. https://doi.org/10.1037/a0038749</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Deng, W. (S.), &amp; Sloutsky, V. M.,  (2016). Selective attention, diffused attention, and the development of categorization. Cognitive Psychology, 91(), 24-62. https://doi.org/10.1016/j.cogpsych.2016.09.002</t>
+          <t>Deng, W. (S.), &amp; Sloutsky, V. M. (2016). Selective attention, diffused attention, and the development of categorization. Cognitive Psychology, 91(), 24-62. https://doi.org/10.1016/j.cogpsych.2016.09.002</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Destan, N., Hembacher, E., Ghetti, S., &amp; Roebers, C. M.,  (2014). Early metacognitive abilities: The interplay of monitoring and control processes in 5- to 7-year-old children. Journal of Experimental Child Psychology, 126(), 213-228. https://doi.org/10.1016/j.jecp.2014.04.001</t>
+          <t>Destan, N., Hembacher, E., Ghetti, S., &amp; Roebers, C. M. (2014). Early metacognitive abilities: The interplay of monitoring and control processes in 5- to 7-year-old children. Journal of Experimental Child Psychology, 126(), 213-228. https://doi.org/10.1016/j.jecp.2014.04.001</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Dewhurst, S. A., &amp; Robinson, C. A.,  (2004). False Memories in Children: Evidence for a Shift from Phonological to Semantic Associations. Psychological Science, 15(11), 782-786. https://doi.org/10.1111/j.0956-7976.2004.00756.x</t>
+          <t>Dewhurst, S. A., &amp; Robinson, C. A. (2004). False Memories in Children: Evidence for a Shift from Phonological to Semantic Associations. Psychological Science, 15(11), 782-786. https://doi.org/10.1111/j.0956-7976.2004.00756.x</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Bullock Drummey, A., &amp; Newcombe N., NA,  (1995). Remembering versus Knowing the Past: Children′s Explicit and Implicit Memories for Pictures. Journal of Experimental Child Psychology, 59(3), 549-565. https://doi.org/10.1006/jecp.1995.1025</t>
+          <t>Bullock Drummey, A., &amp; Newcombe N., NA (1995). Remembering versus Knowing the Past: Children′s Explicit and Implicit Memories for Pictures. Journal of Experimental Child Psychology, 59(3), 549-565. https://doi.org/10.1006/jecp.1995.1025</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Drummey, A. B., &amp; Newcombe, N. S.,  (2002). Developmental changes in source memory. Developmental Science, 5(4), 502-513. https://doi.org/10.1111/1467-7687.00243</t>
+          <t>Drummey, A. B., &amp; Newcombe, N. S. (2002). Developmental changes in source memory. Developmental Science, 5(4), 502-513. https://doi.org/10.1111/1467-7687.00243</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Duffy, S., Huttenlocher, J., &amp; Crawford, L. E.,  (2006). Children use categories to maximize accuracy in estimation. Developmental Science, 9(6), 597-603. https://doi.org/10.1111/j.1467-7687.2006.00538.x</t>
+          <t>Duffy, S., Huttenlocher, J., &amp; Crawford, L. E. (2006). Children use categories to maximize accuracy in estimation. Developmental Science, 9(6), 597-603. https://doi.org/10.1111/j.1467-7687.2006.00538.x</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Duncan, E. M., Whitney, P., &amp; Kunen, S.,  (1982). Integration of Visual and Verbal Information in Children's Memories. Child Development, 53(5), 1215. https://doi.org/10.2307/1129008</t>
+          <t>Duncan, E. M., Whitney, P., &amp; Kunen, S. (1982). Integration of Visual and Verbal Information in Children's Memories. Child Development, 53(5), 1215. https://doi.org/10.2307/1129008</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Earhart, B., &amp; Roberts, K. P.,  (2014). The role of executive function in children's source monitoring with varying retrieval strategies. Frontiers in Psychology, 5(), . https://doi.org/10.3389/fpsyg.2014.00405</t>
+          <t>Earhart, B., &amp; Roberts, K. P. (2014). The role of executive function in children's source monitoring with varying retrieval strategies. Frontiers in Psychology, 5(), . https://doi.org/10.3389/fpsyg.2014.00405</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Edgin, J. O., Spanò, G., Kawa, K., &amp; Nadel, L.,  (2014). Remembering Things Without Context: Development Matters. Child Development, 85(4), 1491-1502. https://doi.org/10.1111/cdev.12232</t>
+          <t>Edgin, J. O., Spanò, G., Kawa, K., &amp; Nadel, L. (2014). Remembering Things Without Context: Development Matters. Child Development, 85(4), 1491-1502. https://doi.org/10.1111/cdev.12232</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Emmerich, H. J., &amp; Ackerman, B. P.,  (1978). Developmental differences in recall: Encoding or retrieval?. Journal of Experimental Child Psychology, 25(3), 514-525. https://doi.org/10.1016/0022-0965(78)90073-5</t>
+          <t>Emmerich, H. J., &amp; Ackerman, B. P. (1978). Developmental differences in recall: Encoding or retrieval?. Journal of Experimental Child Psychology, 25(3), 514-525. https://doi.org/10.1016/0022-0965(78)90073-5</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Emmerich, H. J., &amp; Ackerman, B. P,  (1979). The effect of orienting activity on memory for pictures and words in children and adults. Journal of Experimental Child Psychology, 28(3), 499-515. https://doi.org/10.1016/0022-0965(79)90077-8</t>
+          <t>Emmerich, H. J., &amp; Ackerman, B. P (1979). The effect of orienting activity on memory for pictures and words in children and adults. Journal of Experimental Child Psychology, 28(3), 499-515. https://doi.org/10.1016/0022-0965(79)90077-8</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Esposito, A. G., &amp; Bauer, P. J.,  (2017). Going beyond the lesson: Self-generating new factual knowledge in the classroom. Journal of Experimental Child Psychology, 153(), 110-125. https://doi.org/10.1016/j.jecp.2016.09.003</t>
+          <t>Esposito, A. G., &amp; Bauer, P. J. (2017). Going beyond the lesson: Self-generating new factual knowledge in the classroom. Journal of Experimental Child Psychology, 153(), 110-125. https://doi.org/10.1016/j.jecp.2016.09.003</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Esposito, A. G., &amp; Bauer, P. J.,  (2018). Building a knowledge base: Predicting self-derivation through integration in 6- to 10-year-olds. Journal of Experimental Child Psychology, 176(), 55-72. https://doi.org/10.1016/j.jecp.2018.07.011</t>
+          <t>Esposito, A. G., &amp; Bauer, P. J. (2018). Building a knowledge base: Predicting self-derivation through integration in 6- to 10-year-olds. Journal of Experimental Child Psychology, 176(), 55-72. https://doi.org/10.1016/j.jecp.2018.07.011</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Esposito, A. G., &amp; Bauer, P. J.,  (2019). Self-derivation through memory integration under low surface similarity conditions: The case of multiple languages. Journal of Experimental Child Psychology, 187(), 104661. https://doi.org/10.1016/j.jecp.2019.07.001</t>
+          <t>Esposito, A. G., &amp; Bauer, P. J. (2019). Self-derivation through memory integration under low surface similarity conditions: The case of multiple languages. Journal of Experimental Child Psychology, 187(), 104661. https://doi.org/10.1016/j.jecp.2019.07.001</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fandakova, Y., Shing, Y. L., &amp; Lindenberger, U.,  (2013). Differences in binding and monitoring mechanisms contribute to lifespan age differences in false memory. Developmental Psychology, 49(10), 1822-1832. https://doi.org/10.1037/a0031361</t>
+          <t>Fandakova, Y., Shing, Y. L., &amp; Lindenberger, U. (2013). Differences in binding and monitoring mechanisms contribute to lifespan age differences in false memory. Developmental Psychology, 49(10), 1822-1832. https://doi.org/10.1037/a0031361</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Fandakova, Y., Selmeczy, D., Leckey, S., Grimm, K. J., Wendelken, C., Bunge, S. A., &amp; Ghetti, S.,  (2017). Changes in ventromedial prefrontal and insular cortex support the development of metamemory from childhood into adolescence. Proceedings of the National Academy of Sciences, 114(29), 7582-7587. https://doi.org/10.1073/pnas.1703079114</t>
+          <t>Fandakova, Y., Selmeczy, D., Leckey, S., Grimm, K. J., Wendelken, C., Bunge, S. A., &amp; Ghetti, S. (2017). Changes in ventromedial prefrontal and insular cortex support the development of metamemory from childhood into adolescence. Proceedings of the National Academy of Sciences, 114(29), 7582-7587. https://doi.org/10.1073/pnas.1703079114</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Fandakova, Y., Bunge, S. A, Wendelken, C., Desautels, P., Hunter, L., Lee, J. K, &amp; Ghetti, S.,  (2018). The Importance of Knowing When You Don't Remember: Neural Signaling of Retrieval Failure Predicts Memory Improvement Over Time. Cerebral Cortex, 28(1), 90-102. https://doi.org/10.1093/cercor/bhw352</t>
+          <t>Fandakova, Y., Bunge, S. A, Wendelken, C., Desautels, P., Hunter, L., Lee, J. K, &amp; Ghetti, S. (2018). The Importance of Knowing When You Don't Remember: Neural Signaling of Retrieval Failure Predicts Memory Improvement Over Time. Cerebral Cortex, 28(1), 90-102. https://doi.org/10.1093/cercor/bhw352</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Fandakova, Y., Leckey, S., Driver, C. C., Bunge, S. A., &amp; Ghetti, S.,  (2019). Neural specificity of scene representations is related to memory performance in childhood. NeuroImage, 199(), 105-113. https://doi.org/10.1016/j.neuroimage.2019.05.050</t>
+          <t>Fandakova, Y., Leckey, S., Driver, C. C., Bunge, S. A., &amp; Ghetti, S. (2019). Neural specificity of scene representations is related to memory performance in childhood. NeuroImage, 199(), 105-113. https://doi.org/10.1016/j.neuroimage.2019.05.050</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Farrant, K., &amp; Reese, E.,  (2000). Maternal Style and Children's Participation in Reminiscing: Stepping Stones in Children's Autobiographical Memory Development. Journal of Cognition and Development, 1(2), 193-225. https://doi.org/10.1207/S15327647JCD010203</t>
+          <t>Farrant, K., &amp; Reese, E. (2000). Maternal Style and Children's Participation in Reminiscing: Stepping Stones in Children's Autobiographical Memory Development. Journal of Cognition and Development, 1(2), 193-225. https://doi.org/10.1207/S15327647JCD010203</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Farrar, M.J., &amp; Boyer-Pennington, M. E.,  (1999). Remembering Specific Episodes of a Scripted Event. Journal of Experimental Child Psychology, 73(4), 266-288. https://doi.org/10.1006/jecp.1999.2507</t>
+          <t>Farrar, M.J., &amp; Boyer-Pennington, M. E. (1999). Remembering Specific Episodes of a Scripted Event. Journal of Experimental Child Psychology, 73(4), 266-288. https://doi.org/10.1006/jecp.1999.2507</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Fazio, L. K., &amp; Marsh, E. J.,  (2008). Older, not younger, children learn more false facts from stories. Cognition, 106(2), 1081-1089. https://doi.org/10.1016/j.cognition.2007.04.012</t>
+          <t>Fazio, L. K., &amp; Marsh, E. J. (2008). Older, not younger, children learn more false facts from stories. Cognition, 106(2), 1081-1089. https://doi.org/10.1016/j.cognition.2007.04.012</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Finn, A. S., Kharitonova, M., Holtby, N., &amp; Sheridan, M. A.,  (2019). Prefrontal and Hippocampal Structure Predict Statistical Learning Ability in Early Childhood. Journal of Cognitive Neuroscience, 31(1), 126-137. https://doi.org/10.1162/jocn_a_01342</t>
+          <t>Finn, A. S., Kharitonova, M., Holtby, N., &amp; Sheridan, M. A. (2019). Prefrontal and Hippocampal Structure Predict Statistical Learning Ability in Early Childhood. Journal of Cognitive Neuroscience, 31(1), 126-137. https://doi.org/10.1162/jocn_a_01342</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Fischer, S., Wilhelm, I., &amp; Born, J.,  (2007). Developmental Differences in Sleep's Role for Implicit Off-line Learning: Comparing Children with Adults. Journal of Cognitive Neuroscience, 19(2), 214-227. https://doi.org/10.1162/jocn.2007.19.2.214</t>
+          <t>Fischer, S., Wilhelm, I., &amp; Born, J. (2007). Developmental Differences in Sleep's Role for Implicit Off-line Learning: Comparing Children with Adults. Journal of Cognitive Neuroscience, 19(2), 214-227. https://doi.org/10.1162/jocn.2007.19.2.214</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Fisher, A. V., &amp; Sloutsky, V. M.,  (2005). When Induction Meets Memory: Evidence for Gradual Transition From Similarity-Based to Category-Based Induction. Child Development, 76(3), 583-597. https://doi.org/10.1111/j.1467-8624.2005.00865.x</t>
+          <t>Fisher, A. V., &amp; Sloutsky, V. M. (2005). When Induction Meets Memory: Evidence for Gradual Transition From Similarity-Based to Category-Based Induction. Child Development, 76(3), 583-597. https://doi.org/10.1111/j.1467-8624.2005.00865.x</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Fisher, A. V., Matlen, B. J., &amp; Godwin, K. E.,  (2011). Semantic similarity of labels and inductive generalization: Taking a second look. Cognition, 118(3), 432-438. https://doi.org/10.1016/j.cognition.2010.12.008</t>
+          <t>Fisher, A. V., Matlen, B. J., &amp; Godwin, K. E. (2011). Semantic similarity of labels and inductive generalization: Taking a second look. Cognition, 118(3), 432-438. https://doi.org/10.1016/j.cognition.2010.12.008</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fisher, A. V.,  (2011). Processing of perceptual information is more robust than processing of conceptual information in preschool-age children: Evidence from costs of switching. Cognition, 119(2), 253-264. https://doi.org/10.1016/j.cognition.2011.01.015</t>
+          <t>Fisher, A. V. (2011). Processing of perceptual information is more robust than processing of conceptual information in preschool-age children: Evidence from costs of switching. Cognition, 119(2), 253-264. https://doi.org/10.1016/j.cognition.2011.01.015</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Fitzgerald, J. M.,  (1991). A Developmental Account of Early Childhood Amnesia. The Journal of Genetic Psychology, 152(2), 159-171. https://doi.org/10.1080/00221325.1991.9914663</t>
+          <t>Fitzgerald, J. M. (1991). A Developmental Account of Early Childhood Amnesia. The Journal of Genetic Psychology, 152(2), 159-171. https://doi.org/10.1080/00221325.1991.9914663</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fivush, R.,  (1984). Learning about School: The Development of Kindergartners' School Scripts. Child Development, 55(5), 1697. https://doi.org/10.2307/1129917</t>
+          <t>Fivush, R. (1984). Learning about School: The Development of Kindergartners' School Scripts. Child Development, 55(5), 1697. https://doi.org/10.2307/1129917</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Fivush, R., Hudson, J., &amp; Nelson, K.,  (1984). Children's Long-Term Memory for a Novel Event: An Exploratory Study. Merrill-Palmer Quarterly, 30(3), 303-316. https://doi.org/</t>
+          <t>Fivush, R., Hudson, J., &amp; Nelson, K. (1984). Children's Long-Term Memory for a Novel Event: An Exploratory Study. Merrill-Palmer Quarterly, 30(3), 303-316. https://doi.org/</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Fivush, R., &amp; Mandler, J. M.,  (1985). Developmental Changes in the Understanding of Temporal Sequence. Child Development, 56(6), 1437. https://doi.org/10.2307/1130463</t>
+          <t>Fivush, R., &amp; Mandler, J. M. (1985). Developmental Changes in the Understanding of Temporal Sequence. Child Development, 56(6), 1437. https://doi.org/10.2307/1130463</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Fivush, R., &amp; Hamond, N. R.,  (1989). Time and again: Effects of repetition and retention interval on 2 year olds' event recall. Journal of Experimental Child Psychology, 47(2), 259-273. https://doi.org/10.1016/0022-0965(89)90032-5</t>
+          <t>Fivush, R., &amp; Hamond, N. R. (1989). Time and again: Effects of repetition and retention interval on 2 year olds' event recall. Journal of Experimental Child Psychology, 47(2), 259-273. https://doi.org/10.1016/0022-0965(89)90032-5</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Fivush, R., Kuebli, J., &amp; Clubb, P. A.,  (1992). The Structure of Events and Event Representations: A Developmental Analysis. Child Development, 63(1), 188-201. https://doi.org/10.2307/1130912</t>
+          <t>Fivush, R., Kuebli, J., &amp; Clubb, P. A. (1992). The Structure of Events and Event Representations: A Developmental Analysis. Child Development, 63(1), 188-201. https://doi.org/10.2307/1130912</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Fivush, R., Haden, C., &amp; Adam, S.,  (1995). Structure and Coherence of Preschoolers′ Personal Narratives over Time: Implications for Childhood Amnesia. Journal of Experimental Child Psychology, 60(1), 32-56. https://doi.org/10.1006/jecp.1995.1030</t>
+          <t>Fivush, R., Haden, C., &amp; Adam, S. (1995). Structure and Coherence of Preschoolers′ Personal Narratives over Time: Implications for Childhood Amnesia. Journal of Experimental Child Psychology, 60(1), 32-56. https://doi.org/10.1006/jecp.1995.1030</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Fjell, A. M., Sneve, M. H., Sederevicius, D., Sørensen, Ø., Krogsrud, S. K., Mowinckel, A. M., &amp; Walhovd, K. B.,  (2019). Volumetric and microstructural regional changes of the hippocampus underlying development of recall performance after extended retention intervals. Developmental Cognitive Neuroscience, 40(), 100723. https://doi.org/10.1016/j.dcn.2019.100723</t>
+          <t>Fjell, A. M., Sneve, M. H., Sederevicius, D., Sørensen, Ø., Krogsrud, S. K., Mowinckel, A. M., &amp; Walhovd, K. B. (2019). Volumetric and microstructural regional changes of the hippocampus underlying development of recall performance after extended retention intervals. Developmental Cognitive Neuroscience, 40(), 100723. https://doi.org/10.1016/j.dcn.2019.100723</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Flavell, J. H, Friedrichs, A. G, &amp; Hoyt, J. D,  (1970). Developmental changes in memorization processes. Cognitive Psychology, 1(4), 324-340. https://doi.org/10.1016/0010-0285(70)90019-8</t>
+          <t>Flavell, J. H, Friedrichs, A. G, &amp; Hoyt, J. D (1970). Developmental changes in memorization processes. Cognitive Psychology, 1(4), 324-340. https://doi.org/10.1016/0010-0285(70)90019-8</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Foley, M. A., Johnson, M. K., &amp; Raye, C. L.,  (1983). Age-Related Changes in Confusion between Memories for Thoughts and Memories for Speech. Child Development, 54(1), 51-60. https://doi.org/10.2307/1129860</t>
+          <t>Foley, M. A., Johnson, M. K., &amp; Raye, C. L. (1983). Age-Related Changes in Confusion between Memories for Thoughts and Memories for Speech. Child Development, 54(1), 51-60. https://doi.org/10.2307/1129860</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Foley, M. A., &amp; Johnson, M. K.,  (1985). Confusions between Memories for Performed and Imagined Actions: A Developmental Comparison. Child Development, 56(5), 1145. https://doi.org/10.2307/1130229</t>
+          <t>Foley, M. A., &amp; Johnson, M. K. (1985). Confusions between Memories for Performed and Imagined Actions: A Developmental Comparison. Child Development, 56(5), 1145. https://doi.org/10.2307/1130229</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Foley, M. A., Aman, C., &amp; Gutch, D.,  (1987). Discriminating between action memories: Children's use of kinesthetic cues and visible consequences. Journal of Experimental Child Psychology, 44(3), 335-347. https://doi.org/10.1016/0022-0965(87)90038-5</t>
+          <t>Foley, M. A., Aman, C., &amp; Gutch, D. (1987). Discriminating between action memories: Children's use of kinesthetic cues and visible consequences. Journal of Experimental Child Psychology, 44(3), 335-347. https://doi.org/10.1016/0022-0965(87)90038-5</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Foley, M. A., Santini, C., &amp; Sopasakis, M.,  (1989). Discriminating between memories: Evidence for children's spontaneous elaborations. Journal of Experimental Child Psychology, 48(1), 146-169. https://doi.org/10.1016/0022-0965(89)90045-3</t>
+          <t>Foley, M. A., Santini, C., &amp; Sopasakis, M. (1989). Discriminating between memories: Evidence for children's spontaneous elaborations. Journal of Experimental Child Psychology, 48(1), 146-169. https://doi.org/10.1016/0022-0965(89)90045-3</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Foley, M. A., Durso, F. T., Wilder, A., &amp; Friedman, R.,  (1991). Developmental comparisons of explicit versus implicit imagery and reality monitoring. Journal of Experimental Child Psychology, 51(1), 1-13. https://doi.org/10.1016/0022-0965(91)90074-3</t>
+          <t>Foley, M. A., Durso, F. T., Wilder, A., &amp; Friedman, R. (1991). Developmental comparisons of explicit versus implicit imagery and reality monitoring. Journal of Experimental Child Psychology, 51(1), 1-13. https://doi.org/10.1016/0022-0965(91)90074-3</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Foley, M. A., Wilder, A., McCall, R., &amp; Van Vorst, R.,  (1993). The Consequences for Recall of Children′s Ability to Generate Interactive Imagery in the Absence of External Supports. Journal of Experimental Child Psychology, 56(2), 173-200. https://doi.org/10.1006/jecp.1993.1031</t>
+          <t>Foley, M. A., Wilder, A., McCall, R., &amp; Van Vorst, R. (1993). The Consequences for Recall of Children′s Ability to Generate Interactive Imagery in the Absence of External Supports. Journal of Experimental Child Psychology, 56(2), 173-200. https://doi.org/10.1006/jecp.1993.1031</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Foley, M. A., Harris, J. F., &amp; Hermann, S.,  (1994). Developmental comparisons of the ability to discriminate between memories for symbolic play enactments. Developmental Psychology, 30(2), 206-217. https://doi.org/10.1037/0012-1649.30.2.206</t>
+          <t>Foley, M. A., Harris, J. F., &amp; Hermann, S. (1994). Developmental comparisons of the ability to discriminate between memories for symbolic play enactments. Developmental Psychology, 30(2), 206-217. https://doi.org/10.1037/0012-1649.30.2.206</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Friedman, W. J., &amp; Lyon, T. D.,  (2005). Development of Temporal-Reconstructive Abilities. Child Development, 76(6), 1202-1216. https://doi.org/10.1111/j.1467-8624.2005.00844.x-i1</t>
+          <t>Friedman, W. J., &amp; Lyon, T. D. (2005). Development of Temporal-Reconstructive Abilities. Child Development, 76(6), 1202-1216. https://doi.org/10.1111/j.1467-8624.2005.00844.x-i1</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Friedman, D., de Chastelaine, M., Nessler, D., &amp; Malcolm, B.,  (2010). Changes in familiarity and recollection across the lifespan: An ERP perspective. Brain Research, 1310(), 124-141. https://doi.org/10.1016/j.brainres.2009.11.016</t>
+          <t>Friedman, D., de Chastelaine, M., Nessler, D., &amp; Malcolm, B. (2010). Changes in familiarity and recollection across the lifespan: An ERP perspective. Brain Research, 1310(), 124-141. https://doi.org/10.1016/j.brainres.2009.11.016</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Friedman, W. J., Reese, E., &amp; Dai, X.,  (2011). Children's memory for the times of events from the past years. Applied Cognitive Psychology, 25(1), 156-165. https://doi.org/10.1002/acp.1656</t>
+          <t>Friedman, W. J., Reese, E., &amp; Dai, X. (2011). Children's memory for the times of events from the past years. Applied Cognitive Psychology, 25(1), 156-165. https://doi.org/10.1002/acp.1656</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Gee, S., &amp; Pipe, M.-E.,  (1995). Helping children to remember: The influence of object cues on children's accounts of a real event. Developmental Psychology, 31(5), 746-758. https://doi.org/10.1037/0012-1649.31.5.746</t>
+          <t>Gee, S., &amp; Pipe, M.-E. (1995). Helping children to remember: The influence of object cues on children's accounts of a real event. Developmental Psychology, 31(5), 746-758. https://doi.org/10.1037/0012-1649.31.5.746</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Geng, F., Canada, K., &amp; Riggins, T.,  (2018). Age- and performance-related differences in encoding during early childhood: insights from event-related potentials. Memory, 26(4), 451-461. https://doi.org/10.1080/09658211.2017.1366526</t>
+          <t>Geng, F., Canada, K., &amp; Riggins, T. (2018). Age- and performance-related differences in encoding during early childhood: insights from event-related potentials. Memory, 26(4), 451-461. https://doi.org/10.1080/09658211.2017.1366526</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Geng, F., Redcay, E., &amp; Riggins, T.,  (2019). The influence of age and performance on hippocampal function and the encoding of contextual information in early childhood. NeuroImage, 195(), 433-443. https://doi.org/10.1016/j.neuroimage.2019.03.035</t>
+          <t>Geng, F., Redcay, E., &amp; Riggins, T. (2019). The influence of age and performance on hippocampal function and the encoding of contextual information in early childhood. NeuroImage, 195(), 433-443. https://doi.org/10.1016/j.neuroimage.2019.03.035</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ghatala, E. S., &amp; Levin, J. R.,  (1981). Children's incidental memory for pictures: Item processing versus list organization. Journal of Experimental Child Psychology, 31(2), 231-244. https://doi.org/10.1016/0022-0965(81)90014-X</t>
+          <t>Ghatala, E. S., &amp; Levin, J. R. (1981). Children's incidental memory for pictures: Item processing versus list organization. Journal of Experimental Child Psychology, 31(2), 231-244. https://doi.org/10.1016/0022-0965(81)90014-X</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ghetti, S., Qin, J., &amp; Goodman, G. S.,  (2002). False memories in children and adults: Age, distinctiveness, and subjective experience. Developmental Psychology, 38(5), 705-718. https://doi.org/10.1037/0012-1649.38.5.705</t>
+          <t>Ghetti, S., Qin, J., &amp; Goodman, G. S. (2002). False memories in children and adults: Age, distinctiveness, and subjective experience. Developmental Psychology, 38(5), 705-718. https://doi.org/10.1037/0012-1649.38.5.705</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ghetti, S., Lyons, K. E., Lazzarin, F., &amp; Cornoldi, C.,  (2008). The development of metamemory monitoring during retrieval: The case of memory strength and memory absence. Journal of Experimental Child Psychology, 99(3), 157-181. https://doi.org/10.1016/j.jecp.2007.11.001</t>
+          <t>Ghetti, S., Lyons, K. E., Lazzarin, F., &amp; Cornoldi, C. (2008). The development of metamemory monitoring during retrieval: The case of memory strength and memory absence. Journal of Experimental Child Psychology, 99(3), 157-181. https://doi.org/10.1016/j.jecp.2007.11.001</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ghetti, S., &amp; Angelini, L.,  (2008). The Development of Recollection and Familiarity in Childhood and Adolescence: Evidence From the Dual-Process Signal Detection Model. Child Development, 79(2), 339-358. https://doi.org/10.1111/j.1467-8624.2007.01129.x</t>
+          <t>Ghetti, S., &amp; Angelini, L. (2008). The Development of Recollection and Familiarity in Childhood and Adolescence: Evidence From the Dual-Process Signal Detection Model. Child Development, 79(2), 339-358. https://doi.org/10.1111/j.1467-8624.2007.01129.x</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ghetti, S., Castelli, P., &amp; Lyons, K. E.,  (2010). Knowing about not remembering: developmental dissociations in lack-of-memory monitoring. Developmental Science, 13(4), 611-621. https://doi.org/10.1111/j.1467-7687.2009.00908.x</t>
+          <t>Ghetti, S., Castelli, P., &amp; Lyons, K. E. (2010). Knowing about not remembering: developmental dissociations in lack-of-memory monitoring. Developmental Science, 13(4), 611-621. https://doi.org/10.1111/j.1467-7687.2009.00908.x</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ghetti, S., DeMaster, D. M., Yonelinas, A. P., &amp; Bunge, S. A.,  (2010). Developmental Differences in Medial Temporal Lobe Function during Memory Encoding. Journal of Neuroscience, 30(28), 9548-9556. https://doi.org/10.1523/JNEUROSCI.3500-09.2010</t>
+          <t>Ghetti, S., DeMaster, D. M., Yonelinas, A. P., &amp; Bunge, S. A. (2010). Developmental Differences in Medial Temporal Lobe Function during Memory Encoding. Journal of Neuroscience, 30(28), 9548-9556. https://doi.org/10.1523/JNEUROSCI.3500-09.2010</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ghetti, S., Lee, J. K., Sims, C. E., DeMaster, D. M., &amp; Glaser, N. S.,  (2010). Diabetic Ketoacidosis and Memory Dysfunction in Children with Type 1 Diabetes. The Journal of Pediatrics, 156(1), 109-114. https://doi.org/10.1016/j.jpeds.2009.07.054</t>
+          <t>Ghetti, S., Lee, J. K., Sims, C. E., DeMaster, D. M., &amp; Glaser, N. S. (2010). Diabetic Ketoacidosis and Memory Dysfunction in Children with Type 1 Diabetes. The Journal of Pediatrics, 156(1), 109-114. https://doi.org/10.1016/j.jpeds.2009.07.054</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ghetti, S., Mirandola, C., Angelini, L., Cornoldi, C., &amp; Ciaramelli, E.,  (2011). Development of Subjective Recollection: Understanding of and Introspection on Memory States. Child Development, 82(6), 1954-1969. https://doi.org/10.1111/j.1467-8624.2011.01645.x</t>
+          <t>Ghetti, S., Mirandola, C., Angelini, L., Cornoldi, C., &amp; Ciaramelli, E. (2011). Development of Subjective Recollection: Understanding of and Introspection on Memory States. Child Development, 82(6), 1954-1969. https://doi.org/10.1111/j.1467-8624.2011.01645.x</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Golarai, G., Ghahremani, D. G, Whitfield-Gabrieli, S, Reiss, A., Eberhardt, J. L, Gabrieli, J. D E, &amp; Grill-Spector, K.,  (2007). Differential development of high-level visual cortex correlates with category-specific recognition memory. Nature Neuroscience, 10(4), 512-522. https://doi.org/10.1038/nn1865</t>
+          <t>Golarai, G., Ghahremani, D. G, Whitfield-Gabrieli, S, Reiss, A., Eberhardt, J. L, Gabrieli, J. D E, &amp; Grill-Spector, K. (2007). Differential development of high-level visual cortex correlates with category-specific recognition memory. Nature Neuroscience, 10(4), 512-522. https://doi.org/10.1038/nn1865</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Goodman, G. S,  (1980). Picture memory: How the action schema affects retention. Cognitive Psychology, 12(4), 473-495. https://doi.org/10.1016/0010-0285(80)90017-1</t>
+          <t>Goodman, G. S (1980). Picture memory: How the action schema affects retention. Cognitive Psychology, 12(4), 473-495. https://doi.org/10.1016/0010-0285(80)90017-1</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Goodman, G. S., Hirschman, J. E., Hepps, D., &amp; Rudy, L.,  (1991). Children's Memory for Stressful Events. Merrill-Palmer Quarterly, 37(1), 109-157. https://doi.org/</t>
+          <t>Goodman, G. S., Hirschman, J. E., Hepps, D., &amp; Rudy, L. (1991). Children's Memory for Stressful Events. Merrill-Palmer Quarterly, 37(1), 109-157. https://doi.org/</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Gordon, B. N., Ornstein, P. A., Nida, R. E., Follmer, A., Crenshaw, M. C., &amp; Albert, G.,  (1993). Does the use of dolls facilitate children's memory of visits to the doctor?. Applied Cognitive Psychology, 7(6), 459-474. https://doi.org/10.1002/acp.2350070602</t>
+          <t>Gordon, B. N., Ornstein, P. A., Nida, R. E., Follmer, A., Crenshaw, M. C., &amp; Albert, G. (1993). Does the use of dolls facilitate children's memory of visits to the doctor?. Applied Cognitive Psychology, 7(6), 459-474. https://doi.org/10.1002/acp.2350070602</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Gosse, L. L., &amp; Roberts, K. P.,  (2014). Children’s Use of a ‘Time Line’ to Indicate When Events Occurred. Journal of Police and Criminal Psychology, 29(1), 36-43. https://doi.org/10.1007/s11896-013-9118-x</t>
+          <t>Gosse, L. L., &amp; Roberts, K. P. (2014). Children’s Use of a ‘Time Line’ to Indicate When Events Occurred. Journal of Police and Criminal Psychology, 29(1), 36-43. https://doi.org/10.1007/s11896-013-9118-x</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Grammer, J. K., Purtell, K. M., Coffman, J. L., &amp; Ornstein, P. A.,  (2011). Relations between children’s metamemory and strategic performance: Time-varying covariates in early elementary school. Journal of Experimental Child Psychology, 108(1), 139-155. https://doi.org/10.1016/j.jecp.2010.08.001</t>
+          <t>Grammer, J. K., Purtell, K. M., Coffman, J. L., &amp; Ornstein, P. A. (2011). Relations between children’s metamemory and strategic performance: Time-varying covariates in early elementary school. Journal of Experimental Child Psychology, 108(1), 139-155. https://doi.org/10.1016/j.jecp.2010.08.001</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Grammer, J., Coffman, J. L., &amp; Ornstein, P.,  (2013). The Effect of Teachers' Memory-Relevant Language on Children's Strategy Use and Knowledge. Child Development, 84(6), 1989-2002. https://doi.org/10.1111/cdev.12100</t>
+          <t>Grammer, J., Coffman, J. L., &amp; Ornstein, P. (2013). The Effect of Teachers' Memory-Relevant Language on Children's Strategy Use and Knowledge. Child Development, 84(6), 1989-2002. https://doi.org/10.1111/cdev.12100</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Greenbaum, J. L., &amp; Graf, P.,  (1989). Preschool period development of implicit and explicit remembering. Bulletin of the Psychonomic Society, 27(5), 417-420. https://doi.org/10.3758/BF03334643</t>
+          <t>Greenbaum, J. L., &amp; Graf, P. (1989). Preschool period development of implicit and explicit remembering. Bulletin of the Psychonomic Society, 27(5), 417-420. https://doi.org/10.3758/BF03334643</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Greenhoot, A. F., Tsethlikai, M., &amp; Wagoner, B. J.,  (2006). The Relations Between Children's Past Experiences, Social Knowledge, and Memories for Social Situations. Journal of Cognition and Development, 7(3), 313-340. https://doi.org/10.1207/s15327647jcd0703_6</t>
+          <t>Greenhoot, A. F., Tsethlikai, M., &amp; Wagoner, B. J. (2006). The Relations Between Children's Past Experiences, Social Knowledge, and Memories for Social Situations. Journal of Cognition and Development, 7(3), 313-340. https://doi.org/10.1207/s15327647jcd0703_6</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Gross, J., Gardiner, B., &amp; Hayne, H.,  (2016). Developmental reversals in recognition memory in children and adults. Developmental Psychobiology, 58(1), 52-59. https://doi.org/10.1002/dev.21344</t>
+          <t>Gross, J., Gardiner, B., &amp; Hayne, H. (2016). Developmental reversals in recognition memory in children and adults. Developmental Psychobiology, 58(1), 52-59. https://doi.org/10.1002/dev.21344</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Geurten, M., Willems, S., &amp; Lloyd, M.,  (2021). Too Much Familiarity! The Developmental Path of the Fluency Heuristic in Children. Child Development, 92(3), 919-936. https://doi.org/10.1111/cdev.13449</t>
+          <t>Geurten, M., Willems, S., &amp; Lloyd, M. (2021). Too Much Familiarity! The Developmental Path of the Fluency Heuristic in Children. Child Development, 92(3), 919-936. https://doi.org/10.1111/cdev.13449</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Güler, O. E., &amp; Thomas, K. M.,  (2013). Developmental differences in the neural correlates of relational encoding and recall in children: An event-related fMRI study. Developmental Cognitive Neuroscience, 3(), 106-116. https://doi.org/10.1016/j.dcn.2012.07.001</t>
+          <t>Güler, O. E., &amp; Thomas, K. M. (2013). Developmental differences in the neural correlates of relational encoding and recall in children: An event-related fMRI study. Developmental Cognitive Neuroscience, 3(), 106-116. https://doi.org/10.1016/j.dcn.2012.07.001</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Gulya, M., Rossi-George, A., Hartshorn, K., Vieira, A., Rovee-Collier, C., Johnson, M. K, &amp; Chalfonte, B. L,  (2002). The Development of Explicit Memory for Basic Perceptual Features. Journal of Experimental Child Psychology, 81(3), 276-297. https://doi.org/10.1006/jecp.2001.2654</t>
+          <t>Gulya, M., Rossi-George, A., Hartshorn, K., Vieira, A., Rovee-Collier, C., Johnson, M. K, &amp; Chalfonte, B. L (2002). The Development of Explicit Memory for Basic Perceptual Features. Journal of Experimental Child Psychology, 81(3), 276-297. https://doi.org/10.1006/jecp.2001.2654</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Guttentag, R., &amp; Dunn, J.,  (2003). Judgments of remembering: The revelation effect in children and adults. Journal of Experimental Child Psychology, 86(2), 153-167. https://doi.org/10.1016/S0022-0965(03)00135-8</t>
+          <t>Guttentag, R., &amp; Dunn, J. (2003). Judgments of remembering: The revelation effect in children and adults. Journal of Experimental Child Psychology, 86(2), 153-167. https://doi.org/10.1016/S0022-0965(03)00135-8</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Hala, S., Rasmussen, C., &amp; Henderson, A. M. E.,  (2005). Three Types of Source Monitoring by Children With and Without Autism: The Role of Executive Function. Journal of Autism and Developmental Disorders, 35(1), 75-89. https://doi.org/10.1007/s10803-004-1036-4</t>
+          <t>Hala, S., Rasmussen, C., &amp; Henderson, A. M. E. (2005). Three Types of Source Monitoring by Children With and Without Autism: The Role of Executive Function. Journal of Autism and Developmental Disorders, 35(1), 75-89. https://doi.org/10.1007/s10803-004-1036-4</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Halford, G., &amp; Galloway, W.,  (1977). Children who fail to make transitive inferences can remember comparisons. Australian Journal of Psychology, 29(1), 1-5. https://doi.org/10.1080/00049537708258721</t>
+          <t>Halford, G., &amp; Galloway, W. (1977). Children who fail to make transitive inferences can remember comparisons. Australian Journal of Psychology, 29(1), 1-5. https://doi.org/10.1080/00049537708258721</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Hammer, R., Diesendruck, G., Weinshall, D., &amp; Hochstein, S.,  (2009). The development of category learning strategies: What makes the difference?. Cognition, 112(1), 105-119. https://doi.org/10.1016/j.cognition.2009.03.012</t>
+          <t>Hammer, R., Diesendruck, G., Weinshall, D., &amp; Hochstein, S. (2009). The development of category learning strategies: What makes the difference?. Cognition, 112(1), 105-119. https://doi.org/10.1016/j.cognition.2009.03.012</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Harris, P. L., &amp; Bassett, E.,  (1975). Transitive inferences by 4-year-old children?. Developmental Psychology, 11(6), 875-876. https://doi.org/10.1037/0012-1649.11.6.875</t>
+          <t>Harris, P. L., &amp; Bassett, E. (1975). Transitive inferences by 4-year-old children?. Developmental Psychology, 11(6), 875-876. https://doi.org/10.1037/0012-1649.11.6.875</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Hashimoto, N.,  (1991). Memory Development in Early Childhood: Encoding Process in a Spatial Task. The Journal of Genetic Psychology, 152(1), 101-117. https://doi.org/10.1080/00221325.1991.9914682</t>
+          <t>Hashimoto, N. (1991). Memory Development in Early Childhood: Encoding Process in a Spatial Task. The Journal of Genetic Psychology, 152(1), 101-117. https://doi.org/10.1080/00221325.1991.9914682</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Hassevoort, K. M., Khan, N. A., Hillman, C. H., &amp; Cohen, N. J.,  (2020). Differential development of relational memory and pattern separation. Hippocampus, 30(3), 210-219. https://doi.org/10.1002/hipo.23146</t>
+          <t>Hassevoort, K. M., Khan, N. A., Hillman, C. H., &amp; Cohen, N. J. (2020). Differential development of relational memory and pattern separation. Hippocampus, 30(3), 210-219. https://doi.org/10.1002/hipo.23146</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Hayes, B. K., &amp; Hennessy, R.,  (1996). The Nature and Development of Nonverbal Implicit Memory. Journal of Experimental Child Psychology, 63(1), 22-43. https://doi.org/10.1006/jecp.1996.0041</t>
+          <t>Hayes, B. K., &amp; Hennessy, R. (1996). The Nature and Development of Nonverbal Implicit Memory. Journal of Experimental Child Psychology, 63(1), 22-43. https://doi.org/10.1006/jecp.1996.0041</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Hayes, B. K., Fritz, K., &amp; Heit, E.,  (2013). The relationship between memory and inductive reasoning: Does it develop?. Developmental Psychology, 49(5), 848-860. https://doi.org/10.1037/a0028891</t>
+          <t>Hayes, B. K., Fritz, K., &amp; Heit, E. (2013). The relationship between memory and inductive reasoning: Does it develop?. Developmental Psychology, 49(5), 848-860. https://doi.org/10.1037/a0028891</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Hayes, B. K., Dunn, J. C., Joubert, A., &amp; Taylor, R.,  (2017). Comparing single‐ and dual‐process models of memory development. Developmental Science, 20(6), . https://doi.org/10.1111/desc.12469</t>
+          <t>Hayes, B. K., Dunn, J. C., Joubert, A., &amp; Taylor, R. (2017). Comparing single‐ and dual‐process models of memory development. Developmental Science, 20(6), . https://doi.org/10.1111/desc.12469</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Hayne, H., &amp; Imuta, K.,  (2011). Episodic memory in 3- and 4-year-old children. Developmental Psychobiology, 53(3), 317-322. https://doi.org/10.1002/dev.20527</t>
+          <t>Hayne, H., &amp; Imuta, K. (2011). Episodic memory in 3- and 4-year-old children. Developmental Psychobiology, 53(3), 317-322. https://doi.org/10.1002/dev.20527</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hazen, N. L., &amp; Volk-Hudson, S.,  (1984). The Effect of Spatial Context on Young Children's Recall. Child Development, 55(5), 1835-1844. https://doi.org/10.2307/1129930</t>
+          <t>Hazen, N. L., &amp; Volk-Hudson, S. (1984). The Effect of Spatial Context on Young Children's Recall. Child Development, 55(5), 1835-1844. https://doi.org/10.2307/1129930</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Hembacher, E., &amp; Ghetti, S.,  (2014). Don’t Look at My Answer: Subjective Uncertainty Underlies Preschoolers’ Exclusion of Their Least Accurate Memories. Psychological Science, 25(9), 1768-1776. https://doi.org/10.1177/0956797614542273</t>
+          <t>Hembacher, E., &amp; Ghetti, S. (2014). Don’t Look at My Answer: Subjective Uncertainty Underlies Preschoolers’ Exclusion of Their Least Accurate Memories. Psychological Science, 25(9), 1768-1776. https://doi.org/10.1177/0956797614542273</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Holliday, R. E., &amp; Weekes, B. S.,  (2006). Dissociated developmental trajectories for semantic and phonological false memories. Memory, 14(5), 624-636. https://doi.org/10.1080/09658210600736525</t>
+          <t>Holliday, R. E., &amp; Weekes, B. S. (2006). Dissociated developmental trajectories for semantic and phonological false memories. Memory, 14(5), 624-636. https://doi.org/10.1080/09658210600736525</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Holliday, R. E., Reyna, V. F., &amp; Brainerd, C. J.,  (2008). Recall of details never experienced: Effects of age, repetition, and semantic cues. Cognitive Development, 23(1), 67-78. https://doi.org/10.1016/j.cogdev.2007.05.002</t>
+          <t>Holliday, R. E., Reyna, V. F., &amp; Brainerd, C. J. (2008). Recall of details never experienced: Effects of age, repetition, and semantic cues. Cognitive Development, 23(1), 67-78. https://doi.org/10.1016/j.cogdev.2007.05.002</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Hömberg, V., Bickmann, U., &amp; Müller, K.,  (1993). Ontogeny is different for explicit and implicit memory in humans. Neuroscience Letters, 150(2), 187-190. https://doi.org/10.1016/0304-3940(93)90532-P</t>
+          <t>Hömberg, V., Bickmann, U., &amp; Müller, K. (1993). Ontogeny is different for explicit and implicit memory in humans. Neuroscience Letters, 150(2), 187-190. https://doi.org/10.1016/0304-3940(93)90532-P</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Horn, S. S., Bayen, U. J., &amp; Michalkiewicz, M.,  (2021). The Development of Clustering in Episodic Memory: A Cognitive‐Modeling Approach. Child Development, 92(1), 239-257. https://doi.org/10.1111/cdev.13407</t>
+          <t>Horn, S. S., Bayen, U. J., &amp; Michalkiewicz, M. (2021). The Development of Clustering in Episodic Memory: A Cognitive‐Modeling Approach. Child Development, 92(1), 239-257. https://doi.org/10.1111/cdev.13407</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Horton, M. S., &amp; Markman, E. M.,  (1980). Developmental Differences in the Acquisition of Basic and Superordinate Categories. Child Development, 51(3), 708-719. https://doi.org/10.2307/1129456</t>
+          <t>Horton, M. S., &amp; Markman, E. M. (1980). Developmental Differences in the Acquisition of Basic and Superordinate Categories. Child Development, 51(3), 708-719. https://doi.org/10.2307/1129456</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Hoving, K. L., &amp; Choi, K.,  (1972). Some necessary conditions for producing reinstatement effects in children. Developmental Psychology, 7(2), 214-217. https://doi.org/10.1037/h0034674</t>
+          <t>Hoving, K. L., &amp; Choi, K. (1972). Some necessary conditions for producing reinstatement effects in children. Developmental Psychology, 7(2), 214-217. https://doi.org/10.1037/h0034674</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Howard, L. H., Riggins, T., &amp; Woodward, A. L.,  (2020). Learning From Others: The Effects of Agency on Event Memory in Young Children. Child Development, 91(4), 1317-1335. https://doi.org/10.1111/cdev.13303</t>
+          <t>Howard, L. H., Riggins, T., &amp; Woodward, A. L. (2020). Learning From Others: The Effects of Agency on Event Memory in Young Children. Child Development, 91(4), 1317-1335. https://doi.org/10.1111/cdev.13303</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Howe, M. L., Brainerd, C. J., &amp; Kingma, J.,  (1985). Development of organization in recall: A stages-of-learning analysis. Journal of Experimental Child Psychology, 39(2), 230-251. https://doi.org/10.1016/0022-0965(85)90039-6</t>
+          <t>Howe, M. L., Brainerd, C. J., &amp; Kingma, J. (1985). Development of organization in recall: A stages-of-learning analysis. Journal of Experimental Child Psychology, 39(2), 230-251. https://doi.org/10.1016/0022-0965(85)90039-6</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Howe, M. L.,  (1991). Misleading children's story recall: Forgetting and reminiscence of the facts. Developmental Psychology, 27(5), 746-762. https://doi.org/10.1037/0012-1649.27.5.746</t>
+          <t>Howe, M. L. (1991). Misleading children's story recall: Forgetting and reminiscence of the facts. Developmental Psychology, 27(5), 746-762. https://doi.org/10.1037/0012-1649.27.5.746</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Howe, M. L., Courage, M. L., &amp; Bryant-Brown, L.,  (1993). Reinstating preschoolers' memories. Developmental Psychology, 29(5), 854-869. https://doi.org/10.1037/0012-1649.29.5.854</t>
+          <t>Howe, M. L., Courage, M. L., &amp; Bryant-Brown, L. (1993). Reinstating preschoolers' memories. Developmental Psychology, 29(5), 854-869. https://doi.org/10.1037/0012-1649.29.5.854</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Howe, M. L., Cicchetti, D., Toth, S. L., &amp; Cerrito, B. M.,  (2004). True and False Memories in Maltreated Children. Child Development, 75(5), 1402-1417. https://doi.org/10.1111/j.1467-8624.2004.00748.x</t>
+          <t>Howe, M. L., Cicchetti, D., Toth, S. L., &amp; Cerrito, B. M. (2004). True and False Memories in Maltreated Children. Child Development, 75(5), 1402-1417. https://doi.org/10.1111/j.1467-8624.2004.00748.x</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Howe, M. L.,  (2005). Children (but Not Adults) Can Inhibit False Memories. Psychological Science, 16(12), 927-931. https://doi.org/10.1111/j.1467-9280.2005.01638.x</t>
+          <t>Howe, M. L. (2005). Children (but Not Adults) Can Inhibit False Memories. Psychological Science, 16(12), 927-931. https://doi.org/10.1111/j.1467-9280.2005.01638.x</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Howe, M. L.,  (2006). Developmentally Invariant Dissociations in Children's True and False Memories: Not All Relatedness Is Created Equal. Child Development, 77(4), 1112-1123. https://doi.org/10.1111/j.1467-8624.2006.00922.x</t>
+          <t>Howe, M. L. (2006). Developmentally Invariant Dissociations in Children's True and False Memories: Not All Relatedness Is Created Equal. Child Development, 77(4), 1112-1123. https://doi.org/10.1111/j.1467-8624.2006.00922.x</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Howe, M. L.,  (2008). Visual Distinctiveness and the Development of Children’s False Memories. Child Development, 79(1), 65-79. https://doi.org/10.1111/j.1467-8624.2007.01111.x</t>
+          <t>Howe, M. L. (2008). Visual Distinctiveness and the Development of Children’s False Memories. Child Development, 79(1), 65-79. https://doi.org/10.1111/j.1467-8624.2007.01111.x</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Howe, M. L., Wimmer, M. C., &amp; Blease, K.,  (2009). The role of associative strength in children's false memory illusions. Memory, 17(1), 8-16. https://doi.org/10.1080/09658210802438474</t>
+          <t>Howe, M. L., Wimmer, M. C., &amp; Blease, K. (2009). The role of associative strength in children's false memory illusions. Memory, 17(1), 8-16. https://doi.org/10.1080/09658210802438474</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Howe, M. L., &amp; Wilkinson, S.,  (2011). Using story contexts to bias children’s true and false memories. Journal of Experimental Child Psychology, 108(1), 77-95. https://doi.org/10.1016/j.jecp.2010.06.009</t>
+          <t>Howe, M. L., &amp; Wilkinson, S. (2011). Using story contexts to bias children’s true and false memories. Journal of Experimental Child Psychology, 108(1), 77-95. https://doi.org/10.1016/j.jecp.2010.06.009</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Hudson, J., &amp; Nelson, K.,  (1983). Effects of script structure on children's story recall. Developmental Psychology, 19(4), 625-635. https://doi.org/10.1037/0012-1649.19.4.625</t>
+          <t>Hudson, J., &amp; Nelson, K. (1983). Effects of script structure on children's story recall. Developmental Psychology, 19(4), 625-635. https://doi.org/10.1037/0012-1649.19.4.625</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Hudson, J., &amp; Nelson, K.,  (1986). Repeated encounters of a similar kind: Effects of familiarity on children's autobiographic memory. Cognitive Development, 1(3), 253-271. https://doi.org/10.1016/S0885-2014(86)80004-1</t>
+          <t>Hudson, J., &amp; Nelson, K. (1986). Repeated encounters of a similar kind: Effects of familiarity on children's autobiographic memory. Cognitive Development, 1(3), 253-271. https://doi.org/10.1016/S0885-2014(86)80004-1</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Hudson, J. A.,  (1990). Constructive processing in children's event memory. Developmental Psychology, 26(2), 180-187. https://doi.org/10.1037/0012-1649.26.2.180</t>
+          <t>Hudson, J. A. (1990). Constructive processing in children's event memory. Developmental Psychology, 26(2), 180-187. https://doi.org/10.1037/0012-1649.26.2.180</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Hupbach, A., Gomez, R., &amp; Nadel, L.,  (2011). Episodic memory updating: The role of context familiarity. Psychonomic Bulletin &amp; Review, 18(4), 787-797. https://doi.org/10.3758/s13423-011-0117-6</t>
+          <t>Hupbach, A., Gomez, R., &amp; Nadel, L. (2011). Episodic memory updating: The role of context familiarity. Psychonomic Bulletin &amp; Review, 18(4), 787-797. https://doi.org/10.3758/s13423-011-0117-6</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Huttenlocher, J., &amp; Newcombe, N.,  (1976). Semantic effects on ordered recall. Journal of Verbal Learning and Verbal Behavior, 15(4), 387-399. https://doi.org/10.1016/S0022-5371(76)90034-7</t>
+          <t>Huttenlocher, J., &amp; Newcombe, N. (1976). Semantic effects on ordered recall. Journal of Verbal Learning and Verbal Behavior, 15(4), 387-399. https://doi.org/10.1016/S0022-5371(76)90034-7</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Imai, M., Gentner, D., &amp; Uchida, N.,  (1994). Children's theories of word meaning: The role of shape similarity in early acquisition. Cognitive Development, 9(1), 45-75. https://doi.org/10.1016/0885-2014(94)90019-1</t>
+          <t>Imai, M., Gentner, D., &amp; Uchida, N. (1994). Children's theories of word meaning: The role of shape similarity in early acquisition. Cognitive Development, 9(1), 45-75. https://doi.org/10.1016/0885-2014(94)90019-1</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Imuta, K., Scarf, D., &amp; Hayne, H.,  (2013). The effect of verbal reminders on memory reactivation in 2-, 3-, and 4-year-old children. Developmental Psychology, 49(6), 1058-1065. https://doi.org/10.1037/a0029432</t>
+          <t>Imuta, K., Scarf, D., &amp; Hayne, H. (2013). The effect of verbal reminders on memory reactivation in 2-, 3-, and 4-year-old children. Developmental Psychology, 49(6), 1058-1065. https://doi.org/10.1037/a0029432</t>
         </is>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Jack, F., Simcock, G., &amp; Hayne, H.,  (2012). Magic Memories: Young Children’s Verbal Recall After a 6-Year Delay. Child Development, 83(1), 159-172. https://doi.org/10.1111/j.1467-8624.2011.01699.x</t>
+          <t>Jack, F., Simcock, G., &amp; Hayne, H. (2012). Magic Memories: Young Children’s Verbal Recall After a 6-Year Delay. Child Development, 83(1), 159-172. https://doi.org/10.1111/j.1467-8624.2011.01699.x</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>James, E., Ong, G., Henderson, L. M., &amp; Horner, A. J.,  (2021). The Formation and Retrieval of Holistic Event Memories Across Development. Journal of Cognition, 4(1), 13. https://doi.org/10.5334/joc.149</t>
+          <t>James, E., Ong, G., Henderson, L. M., &amp; Horner, A. J. (2021). The Formation and Retrieval of Holistic Event Memories Across Development. Journal of Cognition, 4(1), 13. https://doi.org/10.5334/joc.149</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Janacsek, K., Fiser, Jó., &amp; Nemeth, D.,  (2012). The best time to acquire new skills: age-related differences in implicit sequence learning across the human lifespan. Developmental Science, 15(4), 496-505. https://doi.org/10.1111/j.1467-7687.2012.01150.x</t>
+          <t>Janacsek, K., Fiser, Jó., &amp; Nemeth, D. (2012). The best time to acquire new skills: age-related differences in implicit sequence learning across the human lifespan. Developmental Science, 15(4), 496-505. https://doi.org/10.1111/j.1467-7687.2012.01150.x</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Jarrold, C., Cocksey, J., &amp; Dockerill, E.,  (2008). Phonological Similarity and Lexicality Effects in Children's Verbal Short-Term Memory: Concerns about the Interpretation of Probed Recall Data. Quarterly Journal of Experimental Psychology, 61(2), 324-340. https://doi.org/10.1080/17470210701202210</t>
+          <t>Jarrold, C., Cocksey, J., &amp; Dockerill, E. (2008). Phonological Similarity and Lexicality Effects in Children's Verbal Short-Term Memory: Concerns about the Interpretation of Probed Recall Data. Quarterly Journal of Experimental Psychology, 61(2), 324-340. https://doi.org/10.1080/17470210701202210</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Jarrold, C., Hall, D., Harvey, C. E., Tam, H., Towse, J. N., &amp; Zarandi, A. L.,  (2015). What can we learn about immediate memory from the development of children's free recall?. Quarterly Journal of Experimental Psychology, 68(9), 1871-1894. https://doi.org/10.1080/17470218.2014.995110</t>
+          <t>Jarrold, C., Hall, D., Harvey, C. E., Tam, H., Towse, J. N., &amp; Zarandi, A. L. (2015). What can we learn about immediate memory from the development of children's free recall?. Quarterly Journal of Experimental Psychology, 68(9), 1871-1894. https://doi.org/10.1080/17470218.2014.995110</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Jobson, L., Burford, K., Burns, B., Baldry, A., &amp; Wu, Y.,  (2018). Investigating whether maternal memory specificity is indirectly associated with child memory specificity through maternal reminiscing. Memory, 26(10), 1335-1343. https://doi.org/10.1080/09658211.2018.1474929</t>
+          <t>Jobson, L., Burford, K., Burns, B., Baldry, A., &amp; Wu, Y. (2018). Investigating whether maternal memory specificity is indirectly associated with child memory specificity through maternal reminiscing. Memory, 26(10), 1335-1343. https://doi.org/10.1080/09658211.2018.1474929</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Joechner, A.‐K., Wehmeier, S., &amp; Werkle‐Bergner, M.,  (2021). Electrophysiological indicators of sleep‐associated memory consolidation in 5‐ to 6‐year‐old children. Psychophysiology, 58(8), . https://doi.org/10.1111/psyp.13829</t>
+          <t>Joechner, A.‐K., Wehmeier, S., &amp; Werkle‐Bergner, M. (2021). Electrophysiological indicators of sleep‐associated memory consolidation in 5‐ to 6‐year‐old children. Psychophysiology, 58(8), . https://doi.org/10.1111/psyp.13829</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Jordan, C. M., Johnson, A. L., Hughes, S. J., &amp; Shapiro, E. G.,  (2008). The Color Object Association Test (COAT): the development of a new measure of declarative memory for 18- to 36-month-old toddlers. Child Neuropsychology: A Journal on Normal and Abnormal Development in Childhood and Adolescence, 14(1), 21-41. https://doi.org/10.1080/09297040601100430</t>
+          <t>Jordan, C. M., Johnson, A. L., Hughes, S. J., &amp; Shapiro, E. G. (2008). The Color Object Association Test (COAT): the development of a new measure of declarative memory for 18- to 36-month-old toddlers. Child Neuropsychology: A Journal on Normal and Abnormal Development in Childhood and Adolescence, 14(1), 21-41. https://doi.org/10.1080/09297040601100430</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Jost, E., Conway, C., Purdy, J., &amp; Hendricks, M.,  (2011). Neurophysiological Correlates of Visual Statistical Learning in Adults and Children. Proceedings of the Annual Meeting of the Cognitive Science Society, 33(33), . https://doi.org/</t>
+          <t>Jost, E., Conway, C., Purdy, J., &amp; Hendricks, M. (2011). Neurophysiological Correlates of Visual Statistical Learning in Adults and Children. Proceedings of the Annual Meeting of the Cognitive Science Society, 33(33), . https://doi.org/</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Jung, Y., Walther, D. B., &amp; Finn, A. S.,  (2021). Children automatically abstract categorical regularities during statistical learning. Developmental Science, 24(5), . https://doi.org/10.1111/desc.13072</t>
+          <t>Jung, Y., Walther, D. B., &amp; Finn, A. S. (2021). Children automatically abstract categorical regularities during statistical learning. Developmental Science, 24(5), . https://doi.org/10.1111/desc.13072</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Kallio, K. D,  (1982). Developmental change on a five-term transitive inference. Journal of Experimental Child Psychology, 33(1), 142-164. https://doi.org/10.1016/0022-0965(82)90011-X</t>
+          <t>Kallio, K. D (1982). Developmental change on a five-term transitive inference. Journal of Experimental Child Psychology, 33(1), 142-164. https://doi.org/10.1016/0022-0965(82)90011-X</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Kee, D. W., &amp; Bell, T. S.,  (1981). The Development of Organizational Strategies in the Storage and Retrieval of Categorical Items in Free-Recall Learning. Child Development, 52(4), 1163. https://doi.org/10.2307/1129502</t>
+          <t>Kee, D. W., &amp; Bell, T. S. (1981). The Development of Organizational Strategies in the Storage and Retrieval of Categorical Items in Free-Recall Learning. Child Development, 52(4), 1163. https://doi.org/10.2307/1129502</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Kee, D. W., &amp; Davies, L.,  (1990). Mental effort and elaboration: Effects of accessibility and instruction. Journal of Experimental Child Psychology, 49(2), 264-274. https://doi.org/10.1016/0022-0965(90)90058-G</t>
+          <t>Kee, D. W., &amp; Davies, L. (1990). Mental effort and elaboration: Effects of accessibility and instruction. Journal of Experimental Child Psychology, 49(2), 264-274. https://doi.org/10.1016/0022-0965(90)90058-G</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Keresztes, A., Bender, A. R., Bodammer, N. C., Lindenberger, U., Shing, Y. L., &amp; Werkle-Bergner, M.,  (2017). Hippocampal maturity promotes memory distinctiveness in childhood and adolescence. Proceedings of the National Academy of Sciences, 114(34), 9212-9217. https://doi.org/10.1073/pnas.1710654114</t>
+          <t>Keresztes, A., Bender, A. R., Bodammer, N. C., Lindenberger, U., Shing, Y. L., &amp; Werkle-Bergner, M. (2017). Hippocampal maturity promotes memory distinctiveness in childhood and adolescence. Proceedings of the National Academy of Sciences, 114(34), 9212-9217. https://doi.org/10.1073/pnas.1710654114</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Keresztes, A., Raffington, L., Bender, A. R., Bögl, K., Heim, C., &amp; Shing, Y. L.,  (2020). Hair cortisol concentrations are associated with hippocampal subregional volumes in children. Scientific Reports, 10(1), 4865. https://doi.org/10.1038/s41598-020-61131-x</t>
+          <t>Keresztes, A., Raffington, L., Bender, A. R., Bögl, K., Heim, C., &amp; Shing, Y. L. (2020). Hair cortisol concentrations are associated with hippocampal subregional volumes in children. Scientific Reports, 10(1), 4865. https://doi.org/10.1038/s41598-020-61131-x</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Kingo, O. S., Staugaard, Sø. R.ø., &amp; Krøjgaard, P.,  (2014). Three-year-olds’ memory for a person met only once at the age of 12months: Very long-term memory revealed by a late-manifesting novelty preference. Consciousness and Cognition, 24(), 49-56. https://doi.org/10.1016/j.concog.2013.12.011</t>
+          <t>Kingo, O. S., Staugaard, Sø. R.ø., &amp; Krøjgaard, P. (2014). Three-year-olds’ memory for a person met only once at the age of 12months: Very long-term memory revealed by a late-manifesting novelty preference. Consciousness and Cognition, 24(), 49-56. https://doi.org/10.1016/j.concog.2013.12.011</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Kliegl, O., Wallner, L., &amp; Bäuml, K.-H. T.,  (2018). Selective directed forgetting in children. Journal of Experimental Child Psychology, 167(), 433-440. https://doi.org/10.1016/j.jecp.2017.11.002</t>
+          <t>Kliegl, O., Wallner, L., &amp; Bäuml, K.-H. T. (2018). Selective directed forgetting in children. Journal of Experimental Child Psychology, 167(), 433-440. https://doi.org/10.1016/j.jecp.2017.11.002</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Kloos, H., &amp; Sloutsky, V. M.,  (2008). What's behind different kinds of kinds: Effects of statistical density on learning and representation of categories. Journal of Experimental Psychology: General, 137(1), 52-72. https://doi.org/10.1037/0096-3445.137.1.52</t>
+          <t>Kloos, H., &amp; Sloutsky, V. M. (2008). What's behind different kinds of kinds: Effects of statistical density on learning and representation of categories. Journal of Experimental Psychology: General, 137(1), 52-72. https://doi.org/10.1037/0096-3445.137.1.52</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Knott, L. M., Howe, M. L., Wimmer, M. C., &amp; Dewhurst, S. A.,  (2011). The development of automatic and controlled inhibitory retrieval processes in true and false recall. Journal of Experimental Child Psychology, 109(1), 91-108. https://doi.org/10.1016/j.jecp.2011.01.001</t>
+          <t>Knott, L. M., Howe, M. L., Wimmer, M. C., &amp; Dewhurst, S. A. (2011). The development of automatic and controlled inhibitory retrieval processes in true and false recall. Journal of Experimental Child Psychology, 109(1), 91-108. https://doi.org/10.1016/j.jecp.2011.01.001</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Kobasigawa, A.,  (1974). Utilization of Retrieval Cues by Children in Recall. Child Development, 45(1), 127. https://doi.org/10.2307/1127758</t>
+          <t>Kobasigawa, A. (1974). Utilization of Retrieval Cues by Children in Recall. Child Development, 45(1), 127. https://doi.org/10.2307/1127758</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Komatsu, S.-., Naito, M., &amp; Fuke, T.,  (1996). Age-Related and Intelligence-Related Differences in Implicit Memory: Effects of Generation on a Word-Fragment Completion Test. Journal of Experimental Child Psychology, 62(2), 151-172. https://doi.org/10.1006/jecp.1996.0026</t>
+          <t>Komatsu, S.-., Naito, M., &amp; Fuke, T. (1996). Age-Related and Intelligence-Related Differences in Implicit Memory: Effects of Generation on a Word-Fragment Completion Test. Journal of Experimental Child Psychology, 62(2), 151-172. https://doi.org/10.1006/jecp.1996.0026</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Koppenol-Gonzalez, G. V., Bouwmeester, S., &amp; Vermunt, J. K.,  (2014). Short-term memory development: Differences in serial position curves between age groups and latent classes. Journal of Experimental Child Psychology, 126(), 138-151. https://doi.org/10.1016/j.jecp.2014.04.002</t>
+          <t>Koppenol-Gonzalez, G. V., Bouwmeester, S., &amp; Vermunt, J. K. (2014). Short-term memory development: Differences in serial position curves between age groups and latent classes. Journal of Experimental Child Psychology, 126(), 138-151. https://doi.org/10.1016/j.jecp.2014.04.002</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Koski, J., Olson, I. R., &amp; Newcombe, N. S.,  (2013). Tracking the eyes to see what children remember. Memory, 21(3), 396-407. https://doi.org/10.1080/09658211.2012.735241</t>
+          <t>Koski, J., Olson, I. R., &amp; Newcombe, N. S. (2013). Tracking the eyes to see what children remember. Memory, 21(3), 396-407. https://doi.org/10.1080/09658211.2012.735241</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Kreindel, E., &amp; Intraub, H.,  (2017). Anticipatory scene representation in preschool children's recall and recognition memory. Developmental Science, 20(5), e12444. https://doi.org/10.1111/desc.12444</t>
+          <t>Kreindel, E., &amp; Intraub, H. (2017). Anticipatory scene representation in preschool children's recall and recognition memory. Developmental Science, 20(5), e12444. https://doi.org/10.1111/desc.12444</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Krøjgaard, P., Kingo, O. S., Dahl, J. J., &amp; Berntsen, D.,  (2014). “That one makes things small”: Experimentally induced spontaneous memories in 3.5-year-olds. Consciousness and Cognition, 30(), 24-35. https://doi.org/10.1016/j.concog.2014.07.017</t>
+          <t>Krøjgaard, P., Kingo, O. S., Dahl, J. J., &amp; Berntsen, D. (2014). “That one makes things small”: Experimentally induced spontaneous memories in 3.5-year-olds. Consciousness and Cognition, 30(), 24-35. https://doi.org/10.1016/j.concog.2014.07.017</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Krøjgaard, P., Kingo, O. S., Jensen, T. S., &amp; Berntsen, D.,  (2017). By-passing strategic retrieval: Experimentally induced spontaneous episodic memories in 35- and 46-month-old children. Consciousness and Cognition, 55(), 91-105. https://doi.org/10.1016/j.concog.2017.08.001</t>
+          <t>Krøjgaard, P., Kingo, O. S., Jensen, T. S., &amp; Berntsen, D. (2017). By-passing strategic retrieval: Experimentally induced spontaneous episodic memories in 35- and 46-month-old children. Consciousness and Cognition, 55(), 91-105. https://doi.org/10.1016/j.concog.2017.08.001</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Kron-Sperl, V., Schneider, W., &amp; Hasselhorn, M.,  (2008). The development and effectiveness of memory strategies in kindergarten and elementary school: Findings from the Würzburg and Göttingen longitudinal memory studies. Cognitive Development, 23(1), 79-104. https://doi.org/10.1016/j.cogdev.2007.08.011</t>
+          <t>Kron-Sperl, V., Schneider, W., &amp; Hasselhorn, M. (2008). The development and effectiveness of memory strategies in kindergarten and elementary school: Findings from the Würzburg and Göttingen longitudinal memory studies. Cognitive Development, 23(1), 79-104. https://doi.org/10.1016/j.cogdev.2007.08.011</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Kulkofsky, S., &amp; Klemfuss, J. Z.,  (2008). What the stories children tell can tell about their memory: Narrative skill and young children's suggestibility. Developmental Psychology, 44(5), 1442-1456. https://doi.org/10.1037/a0012849</t>
+          <t>Kulkofsky, S., &amp; Klemfuss, J. Z. (2008). What the stories children tell can tell about their memory: Narrative skill and young children's suggestibility. Developmental Psychology, 44(5), 1442-1456. https://doi.org/10.1037/a0012849</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ribordy Lambert, F., Lavenex, P., &amp; Banta Lavenex, P.,  (2017). The “when” and the “where” of single-trial allocentric spatial memory performance in young children: Insights into the development of episodic memory. Developmental Psychobiology, 59(2), 185-196. https://doi.org/10.1002/dev.21479</t>
+          <t>Ribordy Lambert, F., Lavenex, P., &amp; Banta Lavenex, P. (2017). The “when” and the “where” of single-trial allocentric spatial memory performance in young children: Insights into the development of episodic memory. Developmental Psychobiology, 59(2), 185-196. https://doi.org/10.1002/dev.21479</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Lambert, H. K., Peverill, M., Sambrook, K. A., Rosen, M. L., Sheridan, M. A., &amp; McLaughlin, K. A.,  (2019). Altered development of hippocampus-dependent associative learning following early-life adversity. Developmental Cognitive Neuroscience, 38(), 100666. https://doi.org/10.1016/j.dcn.2019.100666</t>
+          <t>Lambert, H. K., Peverill, M., Sambrook, K. A., Rosen, M. L., Sheridan, M. A., &amp; McLaughlin, K. A. (2019). Altered development of hippocampus-dependent associative learning following early-life adversity. Developmental Cognitive Neuroscience, 38(), 100666. https://doi.org/10.1016/j.dcn.2019.100666</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Langnes, E., Vidal-Piñeiro, D., Sneve, M. H, Amlien, I. K, Walhovd, K. B, &amp; Fjell, A. M,  (2019). Development and Decline of the Hippocampal Long-Axis Specialization and Differentiation During Encoding and Retrieval of Episodic Memories. Cerebral Cortex, 29(8), 3398-3414. https://doi.org/10.1093/cercor/bhy209</t>
+          <t>Langnes, E., Vidal-Piñeiro, D., Sneve, M. H, Amlien, I. K, Walhovd, K. B, &amp; Fjell, A. M (2019). Development and Decline of the Hippocampal Long-Axis Specialization and Differentiation During Encoding and Retrieval of Episodic Memories. Cerebral Cortex, 29(8), 3398-3414. https://doi.org/10.1093/cercor/bhy209</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Larkina, M., &amp; Bauer, P. J.,  (2010). The role of maternal verbal, affective, and behavioral support in preschool children's independent and collaborative autobiographical memory reports. Cognitive Development, 25(4), 309-324. https://doi.org/10.1016/j.cogdev.2010.08.008</t>
+          <t>Larkina, M., &amp; Bauer, P. J. (2010). The role of maternal verbal, affective, and behavioral support in preschool children's independent and collaborative autobiographical memory reports. Cognitive Development, 25(4), 309-324. https://doi.org/10.1016/j.cogdev.2010.08.008</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Lee, C. P., &amp; Obrzut, J. E.,  (1994). Taxonomic Clustering and Frequency Associations as Features of Semantic Memory Development in Children with Learning Disabilities. Journal of Learning Disabilities, 27(7), 454-462. https://doi.org/10.1177/002221949402700705</t>
+          <t>Lee, C. P., &amp; Obrzut, J. E. (1994). Taxonomic Clustering and Frequency Associations as Features of Semantic Memory Development in Children with Learning Disabilities. Journal of Learning Disabilities, 27(7), 454-462. https://doi.org/10.1177/002221949402700705</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Lee, J. K., Ekstrom, A. D., &amp; Ghetti, S.,  (2014). Volume of hippocampal subfields and episodic memory in childhood and adolescence. NeuroImage, 94(), 162-171. https://doi.org/10.1016/j.neuroimage.2014.03.019</t>
+          <t>Lee, J. K., Ekstrom, A. D., &amp; Ghetti, S. (2014). Volume of hippocampal subfields and episodic memory in childhood and adolescence. NeuroImage, 94(), 162-171. https://doi.org/10.1016/j.neuroimage.2014.03.019</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Lee, J. K., Wendelken, C., Bunge, S. A., &amp; Ghetti, S.,  (2016). A Time and Place for Everything: Developmental Differences in the Building Blocks of Episodic Memory. Child Development, 87(1), 194-210. https://doi.org/10.1111/cdev.12447</t>
+          <t>Lee, J. K., Wendelken, C., Bunge, S. A., &amp; Ghetti, S. (2016). A Time and Place for Everything: Developmental Differences in the Building Blocks of Episodic Memory. Child Development, 87(1), 194-210. https://doi.org/10.1111/cdev.12447</t>
         </is>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Lee, J. K., Fandakova, Y., Johnson, E. G., Cohen, N. J., Bunge, S. A., &amp; Ghetti, S.,  (2020). Changes in anterior and posterior hippocampus differentially predict item-space, item-time, and item-item memory improvement. Developmental Cognitive Neuroscience, 41(), 100741. https://doi.org/10.1016/j.dcn.2019.100741</t>
+          <t>Lee, J. K., Fandakova, Y., Johnson, E. G., Cohen, N. J., Bunge, S. A., &amp; Ghetti, S. (2020). Changes in anterior and posterior hippocampus differentially predict item-space, item-time, and item-item memory improvement. Developmental Cognitive Neuroscience, 41(), 100741. https://doi.org/10.1016/j.dcn.2019.100741</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Leichtman, M. D., Steiner, K. L., Camilleri, K. A., Pillemer, D. B., &amp; Thomsen, D. K.,  (2019). What happened in kindergarten? Mother-child conversations about life story chapters. Memory, 27(1), 49-62. https://doi.org/10.1080/09658211.2018.1483515</t>
+          <t>Leichtman, M. D., Steiner, K. L., Camilleri, K. A., Pillemer, D. B., &amp; Thomsen, D. K. (2019). What happened in kindergarten? Mother-child conversations about life story chapters. Memory, 27(1), 49-62. https://doi.org/10.1080/09658211.2018.1483515</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Leventon, J. S., Stevens, J. S., &amp; Bauer, P. J.,  (2014). Development in the neurophysiology of emotion processing and memory in school-age children. Developmental Cognitive Neuroscience, 10(), 21-33. https://doi.org/10.1016/j.dcn.2014.07.007</t>
+          <t>Leventon, J. S., Stevens, J. S., &amp; Bauer, P. J. (2014). Development in the neurophysiology of emotion processing and memory in school-age children. Developmental Cognitive Neuroscience, 10(), 21-33. https://doi.org/10.1016/j.dcn.2014.07.007</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Lewis, K. D.,  (1999). Maternal Style in Reminiscing: Relations to Child Individual Differences. Cognitive Development, 14(3), 381-399. https://doi.org/10.1016/S0885-2014(99)00011-8</t>
+          <t>Lewis, K. D. (1999). Maternal Style in Reminiscing: Relations to Child Individual Differences. Cognitive Development, 14(3), 381-399. https://doi.org/10.1016/S0885-2014(99)00011-8</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Leyva, D., Reese, E., Grolnick, W., &amp; Price, C.,  (2009). Elaboration and Autonomy Support in Low-Income Mothers' Reminiscing: Links to Children's Autobiographical Narratives. Journal of Cognition and Development, 9(4), 363-389. https://doi.org/10.1080/15248370802678158</t>
+          <t>Leyva, D., Reese, E., Grolnick, W., &amp; Price, C. (2009). Elaboration and Autonomy Support in Low-Income Mothers' Reminiscing: Links to Children's Autobiographical Narratives. Journal of Cognition and Development, 9(4), 363-389. https://doi.org/10.1080/15248370802678158</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Lindberg, M. A,  (1980). Is knowledge base development a necessary and sufficient condition for memory development?. Journal of Experimental Child Psychology, 30(3), 401-410. https://doi.org/10.1016/0022-0965(80)90046-6</t>
+          <t>Lindberg, M. A (1980). Is knowledge base development a necessary and sufficient condition for memory development?. Journal of Experimental Child Psychology, 30(3), 401-410. https://doi.org/10.1016/0022-0965(80)90046-6</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Lindsay, D.S., Johnson, M. K, &amp; Kwon, P.,  (1991). Developmental changes in memory source monitoring. Journal of Experimental Child Psychology, 52(3), 297-318. https://doi.org/10.1016/0022-0965(91)90065-Z</t>
+          <t>Lindsay, D.S., Johnson, M. K, &amp; Kwon, P. (1991). Developmental changes in memory source monitoring. Journal of Experimental Child Psychology, 52(3), 297-318. https://doi.org/10.1016/0022-0965(91)90065-Z</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Lloyd, M. E., Doydum, A. O., &amp; Newcombe, N. S.,  (2009). Memory Binding in Early Childhood: Evidence for a Retrieval Deficit. Child Development, 80(5), 1321-1328. https://doi.org/10.1111/j.1467-8624.2009.01353.x</t>
+          <t>Lloyd, M. E., Doydum, A. O., &amp; Newcombe, N. S. (2009). Memory Binding in Early Childhood: Evidence for a Retrieval Deficit. Child Development, 80(5), 1321-1328. https://doi.org/10.1111/j.1467-8624.2009.01353.x</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Lorsbach, T. C., &amp; Reimer, J. F.,  (2005). Feature Binding in Children and Young Adults. The Journal of Genetic Psychology, 166(3), 313-328. https://doi.org/10.3200/GNTP.166.3.313-328</t>
+          <t>Lorsbach, T. C., &amp; Reimer, J. F. (2005). Feature Binding in Children and Young Adults. The Journal of Genetic Psychology, 166(3), 313-328. https://doi.org/10.3200/GNTP.166.3.313-328</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Loucks, J., Mutschler, C., &amp; Meltzoff, A. N.,  (2017). Children's Representation and Imitation of Events: How Goal Organization Influences 3-Year-Old Children's Memory for Action Sequences. Cognitive Science, 41(7), 1904-1933. https://doi.org/10.1111/cogs.12446</t>
+          <t>Loucks, J., Mutschler, C., &amp; Meltzoff, A. N. (2017). Children's Representation and Imitation of Events: How Goal Organization Influences 3-Year-Old Children's Memory for Action Sequences. Cognitive Science, 41(7), 1904-1933. https://doi.org/10.1111/cogs.12446</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Loucks, J., &amp; Price, H. L.,  (2019). Memory for temporal order in action is slow developing, sensitive to deviant input, and supported by foundational cognitive processes. Developmental Psychology, 55(2), 263-273. https://doi.org/10.1037/dev0000637</t>
+          <t>Loucks, J., &amp; Price, H. L. (2019). Memory for temporal order in action is slow developing, sensitive to deviant input, and supported by foundational cognitive processes. Developmental Psychology, 55(2), 263-273. https://doi.org/10.1037/dev0000637</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Lucariello, J., Kyratzis, A., &amp; Nelson, K.,  (1992). Taxonomic Knowledge: What Kind and When?. Child Development, 63(4), 978-998. https://doi.org/10.1111/j.1467-8624.1992.tb01676.x</t>
+          <t>Lucariello, J., Kyratzis, A., &amp; Nelson, K. (1992). Taxonomic Knowledge: What Kind and When?. Child Development, 63(4), 978-998. https://doi.org/10.1111/j.1467-8624.1992.tb01676.x</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Lyons, K. E., Ghetti, S., &amp; Cornoldi, C.,  (2010). Age differences in the contribution of recollection and familiarity to false-memory formation: a new paradigm to examine developmental reversals. Developmental Science, 13(2), 355-362. https://doi.org/10.1111/j.1467-7687.2009.00889.x</t>
+          <t>Lyons, K. E., Ghetti, S., &amp; Cornoldi, C. (2010). Age differences in the contribution of recollection and familiarity to false-memory formation: a new paradigm to examine developmental reversals. Developmental Science, 13(2), 355-362. https://doi.org/10.1111/j.1467-7687.2009.00889.x</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Mandler, J. M.,  (1978). A code in the node: The use of a story schema in retrieval. Discourse Processes, 1(1), 14-35. https://doi.org/10.1080/01638537809544426</t>
+          <t>Mandler, J. M. (1978). A code in the node: The use of a story schema in retrieval. Discourse Processes, 1(1), 14-35. https://doi.org/10.1080/01638537809544426</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Mandler, J. M, &amp; Robinson, C. A,  (1978). Developmental changes in picture recognition. Journal of Experimental Child Psychology, 26(1), 122-136. https://doi.org/10.1016/0022-0965(78)90114-5</t>
+          <t>Mandler, J. M, &amp; Robinson, C. A (1978). Developmental changes in picture recognition. Journal of Experimental Child Psychology, 26(1), 122-136. https://doi.org/10.1016/0022-0965(78)90114-5</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Maril, A., Davis, P. E., Koo, J. J., Reggev, N., Zuckerman, M., Ehrenfeld, L., Mulkern, R. V., Waber, D. P., &amp; Rivkin, M. J.,  (2010). Developmental fMRI study of episodic verbal memory encoding in children. Neurology, 75(23), 2110-2116. https://doi.org/10.1212/WNL.0b013e318201526e</t>
+          <t>Maril, A., Davis, P. E., Koo, J. J., Reggev, N., Zuckerman, M., Ehrenfeld, L., Mulkern, R. V., Waber, D. P., &amp; Rivkin, M. J. (2010). Developmental fMRI study of episodic verbal memory encoding in children. Neurology, 75(23), 2110-2116. https://doi.org/10.1212/WNL.0b013e318201526e</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Maril, A., Avital, R., Reggev, N., Zuckerman, M., Sadeh, T., Sira, L. B., &amp; Livneh, N.,  (2011). Event congruency and episodic encoding: A developmental fMRI study. Neuropsychologia, 49(11), 3036-3045. https://doi.org/10.1016/j.neuropsychologia.2011.07.004</t>
+          <t>Maril, A., Avital, R., Reggev, N., Zuckerman, M., Sadeh, T., Sira, L. B., &amp; Livneh, N. (2011). Event congruency and episodic encoding: A developmental fMRI study. Neuropsychologia, 49(11), 3036-3045. https://doi.org/10.1016/j.neuropsychologia.2011.07.004</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Markham, R.,  (1991). Development of Reality Monitoring for Performed and Imagined Actions. Perceptual and Motor Skills, 72(3_suppl), 1347-1354. https://doi.org/10.2466/pms.1991.72.3c.1347</t>
+          <t>Markham, R. (1991). Development of Reality Monitoring for Performed and Imagined Actions. Perceptual and Motor Skills, 72(3_suppl), 1347-1354. https://doi.org/10.2466/pms.1991.72.3c.1347</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Martin-Ordas, G., Atance, C. M., &amp; Caza, J.,  (2017). Did the popsicle melt? Preschoolers’ performance in an episodic-like memory task. Memory, 25(9), 1260-1271. https://doi.org/10.1080/09658211.2017.1285940</t>
+          <t>Martin-Ordas, G., Atance, C. M., &amp; Caza, J. (2017). Did the popsicle melt? Preschoolers’ performance in an episodic-like memory task. Memory, 25(9), 1260-1271. https://doi.org/10.1080/09658211.2017.1285940</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Mastrogiuseppe, M., Bertelsen, N., Bedeschi, M. F., &amp; Lee, S. A.,  (2019). The spatiotemporal organization of episodic memory and its disruption in a neurodevelopmental disorder. Scientific Reports, 9(1), 18447. https://doi.org/10.1038/s41598-019-53823-w</t>
+          <t>Mastrogiuseppe, M., Bertelsen, N., Bedeschi, M. F., &amp; Lee, S. A. (2019). The spatiotemporal organization of episodic memory and its disruption in a neurodevelopmental disorder. Scientific Reports, 9(1), 18447. https://doi.org/10.1038/s41598-019-53823-w</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Matlen, B. J., Fisher, A. V., &amp; Godwin, K. E.,  (2015). The influence of label co-occurrence and semantic similarity on children’s inductive generalization. Frontiers in Psychology, 6(), . https://doi.org/10.3389/fpsyg.2015.01146</t>
+          <t>Matlen, B. J., Fisher, A. V., &amp; Godwin, K. E. (2015). The influence of label co-occurrence and semantic similarity on children’s inductive generalization. Frontiers in Psychology, 6(), . https://doi.org/10.3389/fpsyg.2015.01146</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Maylor, E. A., &amp; Logie, R. H.,  (2010). A large-scale comparison of prospective and retrospective memory development from childhood to middle age. Quarterly Journal of Experimental Psychology, 63(3), 442-451. https://doi.org/10.1080/17470210903469872</t>
+          <t>Maylor, E. A., &amp; Logie, R. H. (2010). A large-scale comparison of prospective and retrospective memory development from childhood to middle age. Quarterly Journal of Experimental Psychology, 63(3), 442-451. https://doi.org/10.1080/17470210903469872</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>McCartney, K. A., &amp; Nelson, K.,  (1981). Children's use of scripts in story recall. Discourse Processes, 4(1), 59-70. https://doi.org/10.1080/01638538109544506</t>
+          <t>McCartney, K. A., &amp; Nelson, K. (1981). Children's use of scripts in story recall. Discourse Processes, 4(1), 59-70. https://doi.org/10.1080/01638538109544506</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>McCormack, T., Brown, G. D.A., Vousden, J. I., &amp; Henson, R. N.A.,  (2000). Children's Serial Recall Errors: Implications for Theories of Short-Term Memory Development. Journal of Experimental Child Psychology, 76(3), 222-252. https://doi.org/10.1006/jecp.1999.2550</t>
+          <t>McCormack, T., Brown, G. D.A., Vousden, J. I., &amp; Henson, R. N.A. (2000). Children's Serial Recall Errors: Implications for Theories of Short-Term Memory Development. Journal of Experimental Child Psychology, 76(3), 222-252. https://doi.org/10.1006/jecp.1999.2550</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>McDonnell, C. G., Valentino, K., Comas, M., &amp; Nuttall, A. K.,  (2016). Mother–child reminiscing at risk: Maternal attachment, elaboration, and child autobiographical memory specificity. Journal of Experimental Child Psychology, 143(), 65-84. https://doi.org/10.1016/j.jecp.2015.10.012</t>
+          <t>McDonnell, C. G., Valentino, K., Comas, M., &amp; Nuttall, A. K. (2016). Mother–child reminiscing at risk: Maternal attachment, elaboration, and child autobiographical memory specificity. Journal of Experimental Child Psychology, 143(), 65-84. https://doi.org/10.1016/j.jecp.2015.10.012</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>McGeown, S. P., Gray, E. A., Robinson, J. L., &amp; Dewhurst, S. A.,  (2014). What factors underlie children’s susceptibility to semantic and phonological false memories? Investigating the roles of language skills and auditory short-term memory. Cognition, 131(3), 323-329. https://doi.org/10.1016/j.cognition.2014.02.005</t>
+          <t>McGeown, S. P., Gray, E. A., Robinson, J. L., &amp; Dewhurst, S. A. (2014). What factors underlie children’s susceptibility to semantic and phonological false memories? Investigating the roles of language skills and auditory short-term memory. Cognition, 131(3), 323-329. https://doi.org/10.1016/j.cognition.2014.02.005</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>McGuigan, F., &amp; Salmon, K.,  (2006). The influence of talking on showing and telling: adult-child talk and children's verbal and nonverbal event recall. Applied Cognitive Psychology, 20(3), 365-381. https://doi.org/10.1002/acp.1183</t>
+          <t>McGuigan, F., &amp; Salmon, K. (2006). The influence of talking on showing and telling: adult-child talk and children's verbal and nonverbal event recall. Applied Cognitive Psychology, 20(3), 365-381. https://doi.org/10.1002/acp.1183</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Mecklenbräuker, S., Hupbach, A., &amp; Wippich, W.,  (2003). Age-related improvements in a conceptual implicit memory test. Memory &amp; Cognition, 31(8), 1208-1217. https://doi.org/10.3758/BF03195804</t>
+          <t>Mecklenbräuker, S., Hupbach, A., &amp; Wippich, W. (2003). Age-related improvements in a conceptual implicit memory test. Memory &amp; Cognition, 31(8), 1208-1217. https://doi.org/10.3758/BF03195804</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Mecklinger, A., Brunnemann, N., &amp; Kipp, K.,  (2011). Two Processes for Recognition Memory in Children of Early School Age: An Event-related Potential Study. Journal of Cognitive Neuroscience, 23(2), 435-446. https://doi.org/10.1162/jocn.2010.21455</t>
+          <t>Mecklinger, A., Brunnemann, N., &amp; Kipp, K. (2011). Two Processes for Recognition Memory in Children of Early School Age: An Event-related Potential Study. Journal of Cognitive Neuroscience, 23(2), 435-446. https://doi.org/10.1162/jocn.2010.21455</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Melinder, A., Endestad, T., &amp; Magnussen, S.,  (2006). Relations between episodic memory, suggestibility, theory of mind, and cognitive inhibition in the preschool child. Scandinavian Journal of Psychology, 47(6), 485-495. https://doi.org/10.1111/j.1467-9450.2006.00542.x</t>
+          <t>Melinder, A., Endestad, T., &amp; Magnussen, S. (2006). Relations between episodic memory, suggestibility, theory of mind, and cognitive inhibition in the preschool child. Scandinavian Journal of Psychology, 47(6), 485-495. https://doi.org/10.1111/j.1467-9450.2006.00542.x</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Metzger, R. L., Warren, A. R., Shelton, J. T., Price, J., Reed, A. W., &amp; Williams, D.,  (2008). Do children "DRM" like adults? False memory production in children. Developmental Psychology, 44(1), 169-181. https://doi.org/10.1037/0012-1649.44.1.169</t>
+          <t>Metzger, R. L., Warren, A. R., Shelton, J. T., Price, J., Reed, A. W., &amp; Williams, D. (2008). Do children "DRM" like adults? False memory production in children. Developmental Psychology, 44(1), 169-181. https://doi.org/10.1037/0012-1649.44.1.169</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Meulemans, T., Van der Linden, M., &amp; Perruchet, P.,  (1998). Implicit Sequence Learning in Children. Journal of Experimental Child Psychology, 69(3), 199-221. https://doi.org/10.1006/jecp.1998.2442</t>
+          <t>Meulemans, T., Van der Linden, M., &amp; Perruchet, P. (1998). Implicit Sequence Learning in Children. Journal of Experimental Child Psychology, 69(3), 199-221. https://doi.org/10.1006/jecp.1998.2442</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Miller, H. E., Patterson, R., &amp; Simmering, V. R.,  (2016). Language supports young children’s use of spatial relations to remember locations. Cognition, 150(), 170-180. https://doi.org/10.1016/j.cognition.2016.02.006</t>
+          <t>Miller, H. E., Patterson, R., &amp; Simmering, V. R. (2016). Language supports young children’s use of spatial relations to remember locations. Cognition, 150(), 170-180. https://doi.org/10.1016/j.cognition.2016.02.006</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Minda, J. P., Desroches, A. S., &amp; Church, B. A.,  (2008). Learning rule-described and non-rule-described categories: A comparison of children and adults. Journal of Experimental Psychology: Learning, Memory, and Cognition, 34(6), 1518-1533. https://doi.org/10.1037/a0013355</t>
+          <t>Minda, J. P., Desroches, A. S., &amp; Church, B. A. (2008). Learning rule-described and non-rule-described categories: A comparison of children and adults. Journal of Experimental Psychology: Learning, Memory, and Cognition, 34(6), 1518-1533. https://doi.org/10.1037/a0013355</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Mirandola, C., Losito, N., Ghetti, S., &amp; Cornoldi, C.,  (2014). Emotional false memories in children with learning disabilities. Research in Developmental Disabilities, 35(2), 261-268. https://doi.org/10.1016/j.ridd.2013.11.004</t>
+          <t>Mirandola, C., Losito, N., Ghetti, S., &amp; Cornoldi, C. (2014). Emotional false memories in children with learning disabilities. Research in Developmental Disabilities, 35(2), 261-268. https://doi.org/10.1016/j.ridd.2013.11.004</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Monti, J. M., Hillman, C. H., &amp; Cohen, N. J.,  (2012). Aerobic fitness enhances relational memory in preadolescent children: The FITKids randomized control trial. Hippocampus, 22(9), 1876-1882. https://doi.org/10.1002/hipo.22023</t>
+          <t>Monti, J. M., Hillman, C. H., &amp; Cohen, N. J. (2012). Aerobic fitness enhances relational memory in preadolescent children: The FITKids randomized control trial. Hippocampus, 22(9), 1876-1882. https://doi.org/10.1002/hipo.22023</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Morgan, K., &amp; Hayne, H.,  (2011). Age-related changes in visual recognition memory during infancy and early childhood. Developmental Psychobiology, 53(2), 157-165. https://doi.org/10.1002/dev.20503</t>
+          <t>Morgan, K., &amp; Hayne, H. (2011). Age-related changes in visual recognition memory during infancy and early childhood. Developmental Psychobiology, 53(2), 157-165. https://doi.org/10.1002/dev.20503</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Morris, G., Baker-Ward, L., &amp; Bauer, P. J.,  (2010). What remains of that day: The survival of children's autobiographical memories across time. Applied Cognitive Psychology, 24(4), 527-544. https://doi.org/</t>
+          <t>Morris, G., Baker-Ward, L., &amp; Bauer, P. J. (2010). What remains of that day: The survival of children's autobiographical memories across time. Applied Cognitive Psychology, 24(4), 527-544. https://doi.org/</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Müller, N. C. J., Kohn, N., Buuren, M.ë., Klijn, N., Emmen, H., Berkers, R. M. W. J., Dresler, M., Janzen, G., &amp; Fernández, G.é.,  (2021). Differences in executive abilities rather than associative processes contribute to memory development. Human Brain Mapping, 42(18), 6000-6013. https://doi.org/10.1002/hbm.25665</t>
+          <t>Müller, N. C. J., Kohn, N., Buuren, M.ë., Klijn, N., Emmen, H., Berkers, R. M. W. J., Dresler, M., Janzen, G., &amp; Fernández, G.é. (2021). Differences in executive abilities rather than associative processes contribute to memory development. Human Brain Mapping, 42(18), 6000-6013. https://doi.org/10.1002/hbm.25665</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Murphy, K., McKone, E., &amp; Slee, J.,  (2003). Dissociations between implicit and explicit memory in children: The role of strategic processing and the knowledge base. Journal of Experimental Child Psychology, 84(2), 124-165. https://doi.org/10.1016/S0022-0965(03)00002-X</t>
+          <t>Murphy, K., McKone, E., &amp; Slee, J. (2003). Dissociations between implicit and explicit memory in children: The role of strategic processing and the knowledge base. Journal of Experimental Child Psychology, 84(2), 124-165. https://doi.org/10.1016/S0022-0965(03)00002-X</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Myles-Worsley, M., Cromer, C. C., &amp; Dodd, D. H.,  (1986). Children's preschool script reconstruction: Reliance on general knowledge as memory fades. Developmental Psychology, 22(1), 22-30. https://doi.org/10.1037/0012-1649.22.1.22</t>
+          <t>Myles-Worsley, M., Cromer, C. C., &amp; Dodd, D. H. (1986). Children's preschool script reconstruction: Reliance on general knowledge as memory fades. Developmental Psychology, 22(1), 22-30. https://doi.org/10.1037/0012-1649.22.1.22</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Naito, M.,  (1990). Repetition priming in children and adults: Age-related dissociation between implicit and explicit memory. Journal of Experimental Child Psychology, 50(3), 462-484. https://doi.org/10.1016/0022-0965(90)90081-I</t>
+          <t>Naito, M. (1990). Repetition priming in children and adults: Age-related dissociation between implicit and explicit memory. Journal of Experimental Child Psychology, 50(3), 462-484. https://doi.org/10.1016/0022-0965(90)90081-I</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Naito, M.,  (2003). The relationship between theory of mind and episodic memory: Evidence for the development of autonoetic consciousness. Journal of Experimental Child Psychology, 85(4), 312-336. https://doi.org/10.1016/S0022-0965(03)00075-4</t>
+          <t>Naito, M. (2003). The relationship between theory of mind and episodic memory: Evidence for the development of autonoetic consciousness. Journal of Experimental Child Psychology, 85(4), 312-336. https://doi.org/10.1016/S0022-0965(03)00075-4</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Namy, L. L., &amp; Gentner, D.,  (2002). Making a silk purse out of two sow's ears: Young children's use of comparison in category learning. Journal of Experimental Psychology: General, 131(1), 5-15. https://doi.org/10.1037/0096-3445.131.1.5</t>
+          <t>Namy, L. L., &amp; Gentner, D. (2002). Making a silk purse out of two sow's ears: Young children's use of comparison in category learning. Journal of Experimental Psychology: General, 131(1), 5-15. https://doi.org/10.1037/0096-3445.131.1.5</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Naus, M. J., Ornstein, P. A., &amp; Kreshtool, K.,  (1977). Developmental differences in recall and recognition: The relationship between rehearsal and memory as test expectation changes. Journal of Experimental Child Psychology, 23(2), 252-265. https://doi.org/10.1016/0022-0965(77)90103-5</t>
+          <t>Naus, M. J., Ornstein, P. A., &amp; Kreshtool, K. (1977). Developmental differences in recall and recognition: The relationship between rehearsal and memory as test expectation changes. Journal of Experimental Child Psychology, 23(2), 252-265. https://doi.org/10.1016/0022-0965(77)90103-5</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Newcombe, N., Rogoff, B., &amp; Kagan, J.,  (1977). Developmental changes in recognition memory for pictures of objects and scenes. Developmental Psychology, 13(4), 337-341. https://doi.org/10.1037/0012-1649.13.4.337</t>
+          <t>Newcombe, N., Rogoff, B., &amp; Kagan, J. (1977). Developmental changes in recognition memory for pictures of objects and scenes. Developmental Psychology, 13(4), 337-341. https://doi.org/10.1037/0012-1649.13.4.337</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Newcombe, N., &amp; Lie, E.,  (1995). Overt and Covert Recognition of Faces in Children and Adults. Psychological Science, 6(4), 241-245. https://doi.org/10.1111/j.1467-9280.1995.tb00599.x</t>
+          <t>Newcombe, N., &amp; Lie, E. (1995). Overt and Covert Recognition of Faces in Children and Adults. Psychological Science, 6(4), 241-245. https://doi.org/10.1111/j.1467-9280.1995.tb00599.x</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Newcombe, N. S., Balcomb, F., Ferrara, K., Hansen, M., &amp; Koski, J.,  (2014). Two rooms, two representations? Episodic-like memory in toddlers and preschoolers. Developmental Science, 17(5), 743-756. https://doi.org/10.1111/desc.12162</t>
+          <t>Newcombe, N. S., Balcomb, F., Ferrara, K., Hansen, M., &amp; Koski, J. (2014). Two rooms, two representations? Episodic-like memory in toddlers and preschoolers. Developmental Science, 17(5), 743-756. https://doi.org/10.1111/desc.12162</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ngo, C. T., Alm, K. H., Metoki, A., Hampton, W., Riggins, T., Newcombe, N. S., &amp; Olson, I. R.,  (2017). White matter structural connectivity and episodic memory in early childhood. Developmental Cognitive Neuroscience, 28(), 41-53. https://doi.org/10.1016/j.dcn.2017.11.001</t>
+          <t>Ngo, C. T., Alm, K. H., Metoki, A., Hampton, W., Riggins, T., Newcombe, N. S., &amp; Olson, I. R. (2017). White matter structural connectivity and episodic memory in early childhood. Developmental Cognitive Neuroscience, 28(), 41-53. https://doi.org/10.1016/j.dcn.2017.11.001</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Ngo, C. T., Newcombe, N. S., &amp; Olson, I. R.,  (2018). The ontogeny of relational memory and pattern separation. Developmental Science, 21(2), e12556. https://doi.org/10.1111/desc.12556</t>
+          <t>Ngo, C. T., Newcombe, N. S., &amp; Olson, I. R. (2018). The ontogeny of relational memory and pattern separation. Developmental Science, 21(2), e12556. https://doi.org/10.1111/desc.12556</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Ngo, C. T., Horner, A. J., Newcombe, N. S., &amp; Olson, I. R.,  (2019). Development of Holistic Episodic Recollection. Psychological Science, 30(12), 1696-1706. https://doi.org/10.1177/0956797619879441</t>
+          <t>Ngo, C. T., Horner, A. J., Newcombe, N. S., &amp; Olson, I. R. (2019). Development of Holistic Episodic Recollection. Psychological Science, 30(12), 1696-1706. https://doi.org/10.1177/0956797619879441</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Ngo, C. T., Lin, Y., Newcombe, N. S., &amp; Olson, I. R.,  (2019). Building up and wearing down episodic memory: Mnemonic discrimination and relational binding. Journal of Experimental Psychology: General, 148(9), 1463-1479. https://doi.org/10.1037/xge0000583</t>
+          <t>Ngo, C. T., Lin, Y., Newcombe, N. S., &amp; Olson, I. R. (2019). Building up and wearing down episodic memory: Mnemonic discrimination and relational binding. Journal of Experimental Psychology: General, 148(9), 1463-1479. https://doi.org/10.1037/xge0000583</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Ngo, C. T., Newcombe, N. S., &amp; Olson, I. R.,  (2019). Gain‐Loss Framing Enhances Mnemonic Discrimination in Preschoolers. Child Development, 90(5), 1569-1578. https://doi.org/10.1111/cdev.13297</t>
+          <t>Ngo, C. T., Newcombe, N. S., &amp; Olson, I. R. (2019). Gain‐Loss Framing Enhances Mnemonic Discrimination in Preschoolers. Child Development, 90(5), 1569-1578. https://doi.org/10.1111/cdev.13297</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ngo, C. T., Benear, S. L., Popal, H., Olson, I. R., &amp; Newcombe, N. S.,  (2021). Contingency of semantic generalization on episodic specificity varies across development. Current Biology, 31(12), 2690-2697.e5. https://doi.org/10.1016/j.cub.2021.03.088</t>
+          <t>Ngo, C. T., Benear, S. L., Popal, H., Olson, I. R., &amp; Newcombe, N. S. (2021). Contingency of semantic generalization on episodic specificity varies across development. Current Biology, 31(12), 2690-2697.e5. https://doi.org/10.1016/j.cub.2021.03.088</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Nguyen, S. P.,  (2007). Cross-classification and category representation in children's concepts. Developmental Psychology, 43(3), 719-731. https://doi.org/10.1037/0012-1649.43.3.719</t>
+          <t>Nguyen, S. P. (2007). Cross-classification and category representation in children's concepts. Developmental Psychology, 43(3), 719-731. https://doi.org/10.1037/0012-1649.43.3.719</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Nolden, S., Brod, G., Meyer, A.-K., Fandakova, Y., &amp; Shing, Y. L.,  (2021). Neural Correlates of Successful Memory Encoding in Kindergarten and Early Elementary School Children: Longitudinal Trends and Effects of Schooling. Cerebral Cortex, 31(8), 3764-3779. https://doi.org/10.1093/cercor/bhab046</t>
+          <t>Nolden, S., Brod, G., Meyer, A.-K., Fandakova, Y., &amp; Shing, Y. L. (2021). Neural Correlates of Successful Memory Encoding in Kindergarten and Early Elementary School Children: Longitudinal Trends and Effects of Schooling. Cerebral Cortex, 31(8), 3764-3779. https://doi.org/10.1093/cercor/bhab046</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Nuttall, A. K., Valentino, K., Comas, M., McNeill, A. T., &amp; Stey, P. C.,  (2014). Autobiographical memory specificity among preschool-aged children. Developmental Psychology, 50(7), 1963-1972. https://doi.org/10.1037/a0036988</t>
+          <t>Nuttall, A. K., Valentino, K., Comas, M., McNeill, A. T., &amp; Stey, P. C. (2014). Autobiographical memory specificity among preschool-aged children. Developmental Psychology, 50(7), 1963-1972. https://doi.org/10.1037/a0036988</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Ofen, N., Kao, Y.-C., Sokol-Hessner, P., Kim, H., Whitfield-Gabrieli, S., &amp; Gabrieli, J. D E,  (2007). Development of the declarative memory system in the human brain. Nature Neuroscience, 10(9), 1198-1205. https://doi.org/10.1038/nn1950</t>
+          <t>Ofen, N., Kao, Y.-C., Sokol-Hessner, P., Kim, H., Whitfield-Gabrieli, S., &amp; Gabrieli, J. D E (2007). Development of the declarative memory system in the human brain. Nature Neuroscience, 10(9), 1198-1205. https://doi.org/10.1038/nn1950</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Ofen, N., Chai, X. J., Schuil, K. D. I., Whitfield-Gabrieli, S., &amp; Gabrieli, J. D. E.,  (2012). The Development of Brain Systems Associated with Successful Memory Retrieval of Scenes. Journal of Neuroscience, 32(29), 10012-10020. https://doi.org/10.1523/JNEUROSCI.1082-11.2012</t>
+          <t>Ofen, N., Chai, X. J., Schuil, K. D. I., Whitfield-Gabrieli, S., &amp; Gabrieli, J. D. E. (2012). The Development of Brain Systems Associated with Successful Memory Retrieval of Scenes. Journal of Neuroscience, 32(29), 10012-10020. https://doi.org/10.1523/JNEUROSCI.1082-11.2012</t>
         </is>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ornstein, P. A., Gordon, B. N., &amp; Larus, D. M.,  (1992). Children's memory for a personally experienced event: Implications for testimony. Applied Cognitive Psychology, 6(1), 49-60. https://doi.org/10.1002/acp.2350060103</t>
+          <t>Ornstein, P. A., Gordon, B. N., &amp; Larus, D. M. (1992). Children's memory for a personally experienced event: Implications for testimony. Applied Cognitive Psychology, 6(1), 49-60. https://doi.org/10.1002/acp.2350060103</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Otgaar, H., Howe, M. L., Peters, M., Sauerland, M., &amp; Raymaekers, L.,  (2013). Developmental Trends in Different Types of Spontaneous False Memories: Implications for the Legal Field. Behavioral Sciences &amp; the Law, 31(5), 666-682. https://doi.org/10.1002/bsl.2076</t>
+          <t>Otgaar, H., Howe, M. L., Peters, M., Sauerland, M., &amp; Raymaekers, L. (2013). Developmental Trends in Different Types of Spontaneous False Memories: Implications for the Legal Field. Behavioral Sciences &amp; the Law, 31(5), 666-682. https://doi.org/10.1002/bsl.2076</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Otgaar, H., Howe, M. L., Peters, M., Smeets, T., &amp; Moritz, S.,  (2014). The production of spontaneous false memories across childhood. Journal of Experimental Child Psychology, 121(), 28-41. https://doi.org/10.1016/j.jecp.2013.11.019</t>
+          <t>Otgaar, H., Howe, M. L., Peters, M., Smeets, T., &amp; Moritz, S. (2014). The production of spontaneous false memories across childhood. Journal of Experimental Child Psychology, 121(), 28-41. https://doi.org/10.1016/j.jecp.2013.11.019</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Otgaar, H., Howe, M. L., Brackmann, N., &amp; van Helvoort, D.ë. H. J.,  (2017). Eliminating age differences in children’s and adults’ suggestibility and memory conformity effects. Developmental Psychology, 53(5), 962-970. https://doi.org/10.1037/dev0000298</t>
+          <t>Otgaar, H., Howe, M. L., Brackmann, N., &amp; van Helvoort, D.ë. H. J. (2017). Eliminating age differences in children’s and adults’ suggestibility and memory conformity effects. Developmental Psychology, 53(5), 962-970. https://doi.org/10.1037/dev0000298</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ouwehand, K., Dijkstra, K., Gog, T., &amp; Paas, F.,  (2019). Effects of Pointing Gestures on Memory for (In)Congruent Stimuli in Children and Young Adults. Mind, Brain, and Education, 13(2), 92-99. https://doi.org/10.1111/mbe.12194</t>
+          <t>Ouwehand, K., Dijkstra, K., Gog, T., &amp; Paas, F. (2019). Effects of Pointing Gestures on Memory for (In)Congruent Stimuli in Children and Young Adults. Mind, Brain, and Education, 13(2), 92-99. https://doi.org/10.1111/mbe.12194</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Owings, R. A., &amp; Baumeister, A. A.,  (1979). Levels of processing, encoding strategies, and memory development. Journal of Experimental Child Psychology, 28(1), 100-118. https://doi.org/10.1016/0022-0965(79)90105-X</t>
+          <t>Owings, R. A., &amp; Baumeister, A. A. (1979). Levels of processing, encoding strategies, and memory development. Journal of Experimental Child Psychology, 28(1), 100-118. https://doi.org/10.1016/0022-0965(79)90105-X</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Paris, S. G, &amp; Lindauer, B. K,  (1976). The role of inference in children's comprehension and memory for sentences. Cognitive Psychology, 8(2), 217-227. https://doi.org/10.1016/0010-0285(76)90024-4</t>
+          <t>Paris, S. G, &amp; Lindauer, B. K (1976). The role of inference in children's comprehension and memory for sentences. Cognitive Psychology, 8(2), 217-227. https://doi.org/10.1016/0010-0285(76)90024-4</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Parkin, A. J., &amp; Streete, S.,  (1988). Implicit and explicit memory in young children and adults. British Journal of Psychology, 79(3), 361-369. https://doi.org/10.1111/j.2044-8295.1988.tb02295.x</t>
+          <t>Parkin, A. J., &amp; Streete, S. (1988). Implicit and explicit memory in young children and adults. British Journal of Psychology, 79(3), 361-369. https://doi.org/10.1111/j.2044-8295.1988.tb02295.x</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Pathman, T., Samson, Z., Dugas, K., Cabeza, R., &amp; Bauer, P. J.,  (2011). A “snapshot” of declarative memory: Differing developmental trajectories in episodic and autobiographical memory. Memory, 19(8), 825-835. https://doi.org/10.1080/09658211.2011.613839</t>
+          <t>Pathman, T., Samson, Z., Dugas, K., Cabeza, R., &amp; Bauer, P. J. (2011). A “snapshot” of declarative memory: Differing developmental trajectories in episodic and autobiographical memory. Memory, 19(8), 825-835. https://doi.org/10.1080/09658211.2011.613839</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Pathman, T., Larkina, M., Burch, M. M., &amp; Bauer, P. J.,  (2013). Young Children's Memory for the Times of Personal Past Events. Journal of Cognition and Development, 14(1), 120-140. https://doi.org/10.1080/15248372.2011.641185</t>
+          <t>Pathman, T., Larkina, M., Burch, M. M., &amp; Bauer, P. J. (2013). Young Children's Memory for the Times of Personal Past Events. Journal of Cognition and Development, 14(1), 120-140. https://doi.org/10.1080/15248372.2011.641185</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Pathman, T., Doydum, A., &amp; Bauer, P. J.,  (2013). Bringing order to life events: Memory for the temporal order of autobiographical events over an extended period in school-aged children and adults. Journal of Experimental Child Psychology, 115(2), 309-325. https://doi.org/10.1016/j.jecp.2013.01.011</t>
+          <t>Pathman, T., Doydum, A., &amp; Bauer, P. J. (2013). Bringing order to life events: Memory for the temporal order of autobiographical events over an extended period in school-aged children and adults. Journal of Experimental Child Psychology, 115(2), 309-325. https://doi.org/10.1016/j.jecp.2013.01.011</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Pathman, T., &amp; Ghetti, S.,  (2014). The Eyes Know Time: A Novel Paradigm to Reveal the Development of Temporal Memory. Child Development, 85(2), 792-807. https://doi.org/10.1111/cdev.12152</t>
+          <t>Pathman, T., &amp; Ghetti, S. (2014). The Eyes Know Time: A Novel Paradigm to Reveal the Development of Temporal Memory. Child Development, 85(2), 792-807. https://doi.org/10.1111/cdev.12152</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Pathman, T., Coughlin, C., &amp; Ghetti, S.,  (2018). Space and time in episodic memory: Effects of linearity and directionality on memory for spatial location and temporal order in children and adults. PLOS ONE, 13(11), e0206999. https://doi.org/10.1371/journal.pone.0206999</t>
+          <t>Pathman, T., Coughlin, C., &amp; Ghetti, S. (2018). Space and time in episodic memory: Effects of linearity and directionality on memory for spatial location and temporal order in children and adults. PLOS ONE, 13(11), e0206999. https://doi.org/10.1371/journal.pone.0206999</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Paulus, M., Proust, J., &amp; Sodian, B.,  (2013). Examining implicit metacognition in 3.5-year-old children: an eye-tracking and pupillometric study. Frontiers in Psychology, 4(), . https://doi.org/10.3389/fpsyg.2013.00145</t>
+          <t>Paulus, M., Proust, J., &amp; Sodian, B. (2013). Examining implicit metacognition in 3.5-year-old children: an eye-tracking and pupillometric study. Frontiers in Psychology, 4(), . https://doi.org/10.3389/fpsyg.2013.00145</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Paz-Alonso, P. M., Ghetti, S., Donohue, S. E., Goodman, G. S., &amp; Bunge, S. A.,  (2008). Neurodevelopmental Correlates of True and False Recognition. Cerebral Cortex, 18(9), 2208-2216. https://doi.org/10.1093/cercor/bhm246</t>
+          <t>Paz-Alonso, P. M., Ghetti, S., Donohue, S. E., Goodman, G. S., &amp; Bunge, S. A. (2008). Neurodevelopmental Correlates of True and False Recognition. Cerebral Cortex, 18(9), 2208-2216. https://doi.org/10.1093/cercor/bhm246</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Paz-Alonso, P.,  (2009). Memory suppression is an active process that improves over childhood. Frontiers in Human Neuroscience, 3(), . https://doi.org/10.3389/neuro.09.024.2009</t>
+          <t>Paz-Alonso, P. (2009). Memory suppression is an active process that improves over childhood. Frontiers in Human Neuroscience, 3(), . https://doi.org/10.3389/neuro.09.024.2009</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Paz-Alonso, P. M., Bunge, S. A., Anderson, M. C., &amp; Ghetti, S.,  (2013). Strength of Coupling within a Mnemonic Control Network Differentiates Those Who Can and Cannot Suppress Memory Retrieval. Journal of Neuroscience, 33(11), 5017-5026. https://doi.org/10.1523/JNEUROSCI.3459-12.2013</t>
+          <t>Paz-Alonso, P. M., Bunge, S. A., Anderson, M. C., &amp; Ghetti, S. (2013). Strength of Coupling within a Mnemonic Control Network Differentiates Those Who Can and Cannot Suppress Memory Retrieval. Journal of Neuroscience, 33(11), 5017-5026. https://doi.org/10.1523/JNEUROSCI.3459-12.2013</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Paz-Alonso, P. M., Gallego, P., &amp; Ghetti, S.,  (2013). Age Differences in Hippocampus-Cortex Connectivity during True and False Memory Retrieval. Journal of the International Neuropsychological Society, 19(10), 1031-1041. https://doi.org/10.1017/S1355617713001069</t>
+          <t>Paz-Alonso, P. M., Gallego, P., &amp; Ghetti, S. (2013). Age Differences in Hippocampus-Cortex Connectivity during True and False Memory Retrieval. Journal of the International Neuropsychological Society, 19(10), 1031-1041. https://doi.org/10.1017/S1355617713001069</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Pentland, L. M, Anderson, V. A, Dye, S., &amp; Wood, S. J,  (2003). The Nine Box Maze Test: A measure of spatial memory development in children. Brain and Cognition, 52(2), 144-154. https://doi.org/10.1016/S0278-2626(03)00079-4</t>
+          <t>Pentland, L. M, Anderson, V. A, Dye, S., &amp; Wood, S. J (2003). The Nine Box Maze Test: A measure of spatial memory development in children. Brain and Cognition, 52(2), 144-154. https://doi.org/10.1016/S0278-2626(03)00079-4</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Perez, L. A., Peynircioğlu, Z. F., &amp; Blaxton, T. A.,  (1998). Developmental Differences in Implicit and Explicit Memory Performance. Journal of Experimental Child Psychology, 70(3), 167-185. https://doi.org/10.1006/jecp.1998.2449</t>
+          <t>Perez, L. A., Peynircioğlu, Z. F., &amp; Blaxton, T. A. (1998). Developmental Differences in Implicit and Explicit Memory Performance. Journal of Experimental Child Psychology, 70(3), 167-185. https://doi.org/10.1006/jecp.1998.2449</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Perlmutter, M., Sophian, C., Mitchell, D. B., &amp; Cavanaugh, J. C.,  (1981). Semantic and Contextual Cuing of Preschool Children's Recall. Child Development, 52(3), 873. https://doi.org/10.2307/1129089</t>
+          <t>Perlmutter, M., Sophian, C., Mitchell, D. B., &amp; Cavanaugh, J. C. (1981). Semantic and Contextual Cuing of Preschool Children's Recall. Child Development, 52(3), 873. https://doi.org/10.2307/1129089</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Perner, J., Steiner, G., &amp; Staehelin, C.,  (1981). Mental representation of length and weight series and transitive inferences in young children. Journal of Experimental Child Psychology, 31(2), 177-192. https://doi.org/10.1016/0022-0965(81)90011-4</t>
+          <t>Perner, J., Steiner, G., &amp; Staehelin, C. (1981). Mental representation of length and weight series and transitive inferences in young children. Journal of Experimental Child Psychology, 31(2), 177-192. https://doi.org/10.1016/0022-0965(81)90011-4</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Perner, J., &amp; Ruffman, T.,  (1995). Episodic Memory and Autonoetic Conciousness: Developmental Evidence and a Theory of Childhood Amnesia. Journal of Experimental Child Psychology, 59(3), 516-548. https://doi.org/10.1006/jecp.1995.1024</t>
+          <t>Perner, J., &amp; Ruffman, T. (1995). Episodic Memory and Autonoetic Conciousness: Developmental Evidence and a Theory of Childhood Amnesia. Journal of Experimental Child Psychology, 59(3), 516-548. https://doi.org/10.1006/jecp.1995.1024</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Perruchet, P., Frazier, N., &amp; Lautrey, J.,  (1995). Conceptual implicit memory: A developmental study. Psychological Research, 57(3-4), 220-228. https://doi.org/10.1007/BF00431283</t>
+          <t>Perruchet, P., Frazier, N., &amp; Lautrey, J. (1995). Conceptual implicit memory: A developmental study. Psychological Research, 57(3-4), 220-228. https://doi.org/10.1007/BF00431283</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Peterson, C., Grant, V., &amp; Boland, L.,  (2005). Childhood amnesia in children and adolescents: Their earliest memories. Memory, 13(6), 622-637. https://doi.org/10.1080/09658210444000278</t>
+          <t>Peterson, C., Grant, V., &amp; Boland, L. (2005). Childhood amnesia in children and adolescents: Their earliest memories. Memory, 13(6), 622-637. https://doi.org/10.1080/09658210444000278</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Picard, L., Cousin, S., Guillery-Girard, Bé.è., Eustache, F., &amp; Piolino, P.,  (2012). How Do the Different Components of Episodic Memory Develop? Role of Executive Functions and Short-Term Feature-Binding Abilities. Child Development, 83(3), 1037-1050. https://doi.org/10.1111/j.1467-8624.2012.01736.x</t>
+          <t>Picard, L., Cousin, S., Guillery-Girard, Bé.è., Eustache, F., &amp; Piolino, P. (2012). How Do the Different Components of Episodic Memory Develop? Role of Executive Functions and Short-Term Feature-Binding Abilities. Child Development, 83(3), 1037-1050. https://doi.org/10.1111/j.1467-8624.2012.01736.x</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Pierce, S. H., &amp; Lange, G.,  (1996). The Experiential Facilitation of Memory Development in the Home Environment. The Journal of Genetic Psychology, 157(3), 331-347. https://doi.org/10.1080/00221325.1996.9914870</t>
+          <t>Pierce, S. H., &amp; Lange, G. (1996). The Experiential Facilitation of Memory Development in the Home Environment. The Journal of Genetic Psychology, 157(3), 331-347. https://doi.org/10.1080/00221325.1996.9914870</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Piolino, P., Hisland, M., Ruffeveille, I., Matuszewski, V., Jambaqué, I., &amp; Eustache, F.,  (2007). Do school-age children remember or know the personal past?. Consciousness and Cognition, 16(1), 84-101. https://doi.org/10.1016/j.concog.2005.09.010</t>
+          <t>Piolino, P., Hisland, M., Ruffeveille, I., Matuszewski, V., Jambaqué, I., &amp; Eustache, F. (2007). Do school-age children remember or know the personal past?. Consciousness and Cognition, 16(1), 84-101. https://doi.org/10.1016/j.concog.2005.09.010</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Pipe, M.-E., &amp; Wilson, J. C.,  (1994). Cues and secrets: Influences on children's event reports. Developmental Psychology, 30(4), 515-525. https://doi.org/10.1037/0012-1649.30.4.515</t>
+          <t>Pipe, M.-E., &amp; Wilson, J. C. (1994). Cues and secrets: Influences on children's event reports. Developmental Psychology, 30(4), 515-525. https://doi.org/10.1037/0012-1649.30.4.515</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Pipe, M.-E., Gee, S., Wilson, J. C., &amp; Egerton, J. M.,  (1999). Children's recall 1 or 2 years after an event. Developmental Psychology, 35(3), 781-789. https://doi.org/10.1037/0012-1649.35.3.781</t>
+          <t>Pipe, M.-E., Gee, S., Wilson, J. C., &amp; Egerton, J. M. (1999). Children's recall 1 or 2 years after an event. Developmental Psychology, 35(3), 781-789. https://doi.org/10.1037/0012-1649.35.3.781</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Pirogovsky, E., Murphy, C., &amp; Gilbert, P. E.,  (2009). Developmental differences in memory for cross-modal associations. Developmental Science, 12(6), 1054-1059. https://doi.org/10.1111/j.1467-7687.2009.00857.x</t>
+          <t>Pirogovsky, E., Murphy, C., &amp; Gilbert, P. E. (2009). Developmental differences in memory for cross-modal associations. Developmental Science, 12(6), 1054-1059. https://doi.org/10.1111/j.1467-7687.2009.00857.x</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Powell, M. B., Roberts, K. P., Ceci, S. J., &amp; Hembrooke, H.,  (1999). The effects of repeated experience on children's suggestibility. Developmental Psychology, 35(6), 1462-1477. https://doi.org/10.1037/0012-1649.35.6.1462</t>
+          <t>Powell, M. B., Roberts, K. P., Ceci, S. J., &amp; Hembrooke, H. (1999). The effects of repeated experience on children's suggestibility. Developmental Psychology, 35(6), 1462-1477. https://doi.org/10.1037/0012-1649.35.6.1462</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Powell, M. B., &amp; Roberts, K. P.,  (2002). The effect of repeated experience on children's suggestibility across two question types. Applied Cognitive Psychology, 16(4), 367-386. https://doi.org/10.1002/acp.801</t>
+          <t>Powell, M. B., &amp; Roberts, K. P. (2002). The effect of repeated experience on children's suggestibility across two question types. Applied Cognitive Psychology, 16(4), 367-386. https://doi.org/10.1002/acp.801</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Prabhakar, J., &amp; Ghetti, S.,  (2020). Connecting the Dots Between Past and Future: Constraints in Episodic Future Thinking in Early Childhood. Child Development, 91(2), . https://doi.org/10.1111/cdev.13212</t>
+          <t>Prabhakar, J., &amp; Ghetti, S. (2020). Connecting the Dots Between Past and Future: Constraints in Episodic Future Thinking in Early Childhood. Child Development, 91(2), . https://doi.org/10.1111/cdev.13212</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Del Prete, F., Mirandola, C., Konishi, M., Cornoldi, C., &amp; Ghetti, S.,  (2014). Paradoxical Effects of Warning in the Production of Children's False Memories. Journal of Cognition and Development, 15(1), 94-109. https://doi.org/10.1080/15248372.2012.721036</t>
+          <t>Del Prete, F., Mirandola, C., Konishi, M., Cornoldi, C., &amp; Ghetti, S. (2014). Paradoxical Effects of Warning in the Production of Children's False Memories. Journal of Cognition and Development, 15(1), 94-109. https://doi.org/10.1080/15248372.2012.721036</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Price, D. W. W., &amp; Goodman, G. S.,  (1990). Visiting the Wizard: Children's Memory for a Recurring Event. Child Development, 61(3), 664-680. https://doi.org/10.1111/j.1467-8624.1990.tb02810.x</t>
+          <t>Price, D. W. W., &amp; Goodman, G. S. (1990). Visiting the Wizard: Children's Memory for a Recurring Event. Child Development, 61(3), 664-680. https://doi.org/10.1111/j.1467-8624.1990.tb02810.x</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Price, H. L., &amp; Connolly, D. A.,  (2004). Event frequency and children's suggestibility: a study of cued recall responses. Applied Cognitive Psychology, 18(7), 809-821. https://doi.org/10.1002/acp.1059</t>
+          <t>Price, H. L., &amp; Connolly, D. A. (2004). Event frequency and children's suggestibility: a study of cued recall responses. Applied Cognitive Psychology, 18(7), 809-821. https://doi.org/10.1002/acp.1059</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Price, H. L., &amp; Connolly, D. A.,  (2006). BatMon II: Children’s category norms for 33 categories. Behavior Research Methods, 38(3), 529-531. https://doi.org/10.3758/BF03192808</t>
+          <t>Price, H. L., &amp; Connolly, D. A. (2006). BatMon II: Children’s category norms for 33 categories. Behavior Research Methods, 38(3), 529-531. https://doi.org/10.3758/BF03192808</t>
         </is>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Price, H. L., &amp; Connolly, D. A.,  (2007). Anxious and nonanxious children’s recall of a repeated or unique event. Journal of Experimental Child Psychology, 98(2), 94-112. https://doi.org/10.1016/j.jecp.2007.05.002</t>
+          <t>Price, H. L., &amp; Connolly, D. A. (2007). Anxious and nonanxious children’s recall of a repeated or unique event. Journal of Experimental Child Psychology, 98(2), 94-112. https://doi.org/10.1016/j.jecp.2007.05.002</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Price, H. L., &amp; Connolly, D. A.,  (2013). Suggestibility effects persist after one year in children who experienced a single or repeated event. Journal of Applied Research in Memory and Cognition, 2(2), 89-94. https://doi.org/10.1016/j.jarmac.2013.03.001</t>
+          <t>Price, H. L., &amp; Connolly, D. A. (2013). Suggestibility effects persist after one year in children who experienced a single or repeated event. Journal of Applied Research in Memory and Cognition, 2(2), 89-94. https://doi.org/10.1016/j.jarmac.2013.03.001</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Priestley, G., Roberts, S., &amp; Pipe, M.-E.,  (1999). Returning to the scene: Reminders and context reinstatement enhance children's recall. Developmental Psychology, 35(4), 1006-1019. https://doi.org/10.1037/0012-1649.35.4.1006</t>
+          <t>Priestley, G., Roberts, S., &amp; Pipe, M.-E. (1999). Returning to the scene: Reminders and context reinstatement enhance children's recall. Developmental Psychology, 35(4), 1006-1019. https://doi.org/10.1037/0012-1649.35.4.1006</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Pudhiyidath, A., Roome, H. E., Coughlin, C., Nguyen, K. V., &amp; Preston, A. R.,  (2020). Developmental differences in temporal schema acquisition impact reasoning decisions. Cognitive Neuropsychology, 37(1-2), 25-45. https://doi.org/10.1080/02643294.2019.1667316</t>
+          <t>Pudhiyidath, A., Roome, H. E., Coughlin, C., Nguyen, K. V., &amp; Preston, A. R. (2020). Developmental differences in temporal schema acquisition impact reasoning decisions. Cognitive Neuropsychology, 37(1-2), 25-45. https://doi.org/10.1080/02643294.2019.1667316</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Rabi, R., &amp; Minda, J. P.,  (2014). Rule-Based Category Learning in Children: The Role of Age and Executive Functioning. PLoS ONE, 9(1), e85316. https://doi.org/10.1371/journal.pone.0085316</t>
+          <t>Rabi, R., &amp; Minda, J. P. (2014). Rule-Based Category Learning in Children: The Role of Age and Executive Functioning. PLoS ONE, 9(1), e85316. https://doi.org/10.1371/journal.pone.0085316</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Rabi, R., Miles, S. J., &amp; Minda, J. P.,  (2015). Learning categories via rules and similarity: Comparing adults and children. Journal of Experimental Child Psychology, 131(), 149-169. https://doi.org/10.1016/j.jecp.2014.10.007</t>
+          <t>Rabi, R., Miles, S. J., &amp; Minda, J. P. (2015). Learning categories via rules and similarity: Comparing adults and children. Journal of Experimental Child Psychology, 131(), 149-169. https://doi.org/10.1016/j.jecp.2014.10.007</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Raffington, L., Prindle, J., Keresztes, A., Binder, J., Heim, C., &amp; Shing, Y. L.,  (2018). Blunted cortisol stress reactivity in low–income children relates to lower memory function. Psychoneuroendocrinology, 90(), 110-121. https://doi.org/10.1016/j.psyneuen.2018.02.002</t>
+          <t>Raffington, L., Prindle, J., Keresztes, A., Binder, J., Heim, C., &amp; Shing, Y. L. (2018). Blunted cortisol stress reactivity in low–income children relates to lower memory function. Psychoneuroendocrinology, 90(), 110-121. https://doi.org/10.1016/j.psyneuen.2018.02.002</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Raffington, L., Czamara, D., Mohn, J. J., Falck, J., Schmoll, V., Heim, C., Binder, E. B., &amp; Shing, Y. L.,  (2019). Stable longitudinal associations of family income with children’s hippocampal volume and memory persist after controlling for polygenic scores of educational attainment. Developmental Cognitive Neuroscience, 40(), 100720. https://doi.org/10.1016/j.dcn.2019.100720</t>
+          <t>Raffington, L., Czamara, D., Mohn, J. J., Falck, J., Schmoll, V., Heim, C., Binder, E. B., &amp; Shing, Y. L. (2019). Stable longitudinal associations of family income with children’s hippocampal volume and memory persist after controlling for polygenic scores of educational attainment. Developmental Cognitive Neuroscience, 40(), 100720. https://doi.org/10.1016/j.dcn.2019.100720</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Ratner, H. H.,  (1984). Memory Demands and the Development of Young Children's Memory. Child Development, 55(6), 2173. https://doi.org/10.2307/1129790</t>
+          <t>Ratner, H. H. (1984). Memory Demands and the Development of Young Children's Memory. Child Development, 55(6), 2173. https://doi.org/10.2307/1129790</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Ratner, H. H., Smith, B. S., &amp; Dion, S. A.,  (1986). Development of memory for events. Journal of Experimental Child Psychology, 41(3), 411-428. https://doi.org/10.1016/0022-0965(86)90002-0</t>
+          <t>Ratner, H. H., Smith, B. S., &amp; Dion, S. A. (1986). Development of memory for events. Journal of Experimental Child Psychology, 41(3), 411-428. https://doi.org/10.1016/0022-0965(86)90002-0</t>
         </is>
       </c>
     </row>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Reese, E., Haden, C. A., &amp; Fivush, R.,  (1993). Mother-child conversations about the past: Relationships of style and memory over time. Cognitive Development, 8(4), 403-430. https://doi.org/10.1016/S0885-2014(05)80002-4</t>
+          <t>Reese, E., Haden, C. A., &amp; Fivush, R. (1993). Mother-child conversations about the past: Relationships of style and memory over time. Cognitive Development, 8(4), 403-430. https://doi.org/10.1016/S0885-2014(05)80002-4</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Reese, E., &amp; Newcombe, R.,  (2007). Training Mothers in Elaborative Reminiscing Enhances Children?s Autobiographical Memory and Narrative. Child Development, 78(4), 1153-1170. https://doi.org/10.1111/j.1467-8624.2007.01058.x</t>
+          <t>Reese, E., &amp; Newcombe, R. (2007). Training Mothers in Elaborative Reminiscing Enhances Children?s Autobiographical Memory and Narrative. Child Development, 78(4), 1153-1170. https://doi.org/10.1111/j.1467-8624.2007.01058.x</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Peggy Renner, NA, Laura Grofer Klinger, NA, &amp; Mark R. Klinger, NA,  (2000). Implicit and Explicit Memory in Autism: Is Autism an Amnesic Disorder?. Journal of Autism and Developmental Disorders, 30(1), 3-14. https://doi.org/10.1023/A:1005487009889</t>
+          <t>Peggy Renner, NA, Laura Grofer Klinger, NA, &amp; Mark R. Klinger, NA (2000). Implicit and Explicit Memory in Autism: Is Autism an Amnesic Disorder?. Journal of Autism and Developmental Disorders, 30(1), 3-14. https://doi.org/10.1023/A:1005487009889</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Reyna, V. F., &amp; Kiernan, B.,  (1994). Development of gist versus verbatim memory in sentence recognition: Effects of lexical familiarity, semantic content, encoding instructions, and retention interval. Developmental Psychology, 30(2), 178-191. https://doi.org/10.1037/0012-1649.30.2.178</t>
+          <t>Reyna, V. F., &amp; Kiernan, B. (1994). Development of gist versus verbatim memory in sentence recognition: Effects of lexical familiarity, semantic content, encoding instructions, and retention interval. Developmental Psychology, 30(2), 178-191. https://doi.org/10.1037/0012-1649.30.2.178</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Ribordy, F., Jabès, A., Banta Lavenex, P., &amp; Lavenex, P.,  (2013). Development of allocentric spatial memory abilities in children from 18 months to 5 years of age. Cognitive Psychology, 66(1), 1-29. https://doi.org/10.1016/j.cogpsych.2012.08.001</t>
+          <t>Ribordy, F., Jabès, A., Banta Lavenex, P., &amp; Lavenex, P. (2013). Development of allocentric spatial memory abilities in children from 18 months to 5 years of age. Cognitive Psychology, 66(1), 1-29. https://doi.org/10.1016/j.cogpsych.2012.08.001</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Lambert, F. R., Lavenex, P., &amp; Lavenex, P. B.,  (2015). Improvement of allocentric spatial memory resolution in children from 2 to 4 years of age. International Journal of Behavioral Development, 39(4), 318-331. https://doi.org/10.1177/0165025415584808</t>
+          <t>Lambert, F. R., Lavenex, P., &amp; Lavenex, P. B. (2015). Improvement of allocentric spatial memory resolution in children from 2 to 4 years of age. International Journal of Behavioral Development, 39(4), 318-331. https://doi.org/10.1177/0165025415584808</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Richmond, J. L., &amp; Pan, R.,  (2013). Thinking about the future early in life: The role of relational memory. Journal of Experimental Child Psychology, 114(4), 510-521. https://doi.org/10.1016/j.jecp.2012.11.002</t>
+          <t>Richmond, J. L., &amp; Pan, R. (2013). Thinking about the future early in life: The role of relational memory. Journal of Experimental Child Psychology, 114(4), 510-521. https://doi.org/10.1016/j.jecp.2012.11.002</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Riggins, T., Miller, N. C., Bauer, P. J., Georgieff, M. K., &amp; Nelson, C. A.,  (2009). Electrophysiological indices of memory for temporal order in early childhood: implications for the development of recollection. Developmental Science, 12(2), 209-219. https://doi.org/10.1111/j.1467-7687.2008.00757.x</t>
+          <t>Riggins, T., Miller, N. C., Bauer, P. J., Georgieff, M. K., &amp; Nelson, C. A. (2009). Electrophysiological indices of memory for temporal order in early childhood: implications for the development of recollection. Developmental Science, 12(2), 209-219. https://doi.org/10.1111/j.1467-7687.2008.00757.x</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Riggins, T.,  (2014). Longitudinal investigation of source memory reveals different developmental trajectories for item memory and binding. Developmental Psychology, 50(2), 449-459. https://doi.org/10.1037/a0033622</t>
+          <t>Riggins, T. (2014). Longitudinal investigation of source memory reveals different developmental trajectories for item memory and binding. Developmental Psychology, 50(2), 449-459. https://doi.org/10.1037/a0033622</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Riggins, T., &amp; Rollins, L.,  (2015). Developmental Differences in Memory During Early Childhood: Insights From Event-Related Potentials. Child Development, 86(3), 889-902. https://doi.org/10.1111/cdev.12351</t>
+          <t>Riggins, T., &amp; Rollins, L. (2015). Developmental Differences in Memory During Early Childhood: Insights From Event-Related Potentials. Child Development, 86(3), 889-902. https://doi.org/10.1111/cdev.12351</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Riggins, T., Blankenship, S. L., Mulligan, E., Rice, K., &amp; Redcay, E.,  (2015). Developmental Differences in Relations Between Episodic Memory and Hippocampal Subregion Volume During Early Childhood. Child Development, 86(6), 1710-1718. https://doi.org/10.1111/cdev.12445</t>
+          <t>Riggins, T., Blankenship, S. L., Mulligan, E., Rice, K., &amp; Redcay, E. (2015). Developmental Differences in Relations Between Episodic Memory and Hippocampal Subregion Volume During Early Childhood. Child Development, 86(6), 1710-1718. https://doi.org/10.1111/cdev.12445</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Riggins, T., Geng, F., Blankenship, S. L., &amp; Redcay, E.,  (2016). Hippocampal functional connectivity and episodic memory in early childhood. Developmental Cognitive Neuroscience, 19(), 58-69. https://doi.org/10.1016/j.dcn.2016.02.002</t>
+          <t>Riggins, T., Geng, F., Blankenship, S. L., &amp; Redcay, E. (2016). Hippocampal functional connectivity and episodic memory in early childhood. Developmental Cognitive Neuroscience, 19(), 58-69. https://doi.org/10.1016/j.dcn.2016.02.002</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Riggins, T., Geng, F., Botdorf, M., Canada, K., Cox, L., &amp; Hancock, G. R.,  (2018). Protracted hippocampal development is associated with age-related improvements in memory during early childhood. NeuroImage, 174(), 127-137. https://doi.org/10.1016/j.neuroimage.2018.03.009</t>
+          <t>Riggins, T., Geng, F., Botdorf, M., Canada, K., Cox, L., &amp; Hancock, G. R. (2018). Protracted hippocampal development is associated with age-related improvements in memory during early childhood. NeuroImage, 174(), 127-137. https://doi.org/10.1016/j.neuroimage.2018.03.009</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Roberts, K. P., &amp; Blades, M.,  (1995). Children's discrimination of memories for actual and pretend actions in a hiding task. British Journal of Developmental Psychology, 13(4), 321-333. https://doi.org/10.1111/j.2044-835X.1995.tb00683.x</t>
+          <t>Roberts, K. P., &amp; Blades, M. (1995). Children's discrimination of memories for actual and pretend actions in a hiding task. British Journal of Developmental Psychology, 13(4), 321-333. https://doi.org/10.1111/j.2044-835X.1995.tb00683.x</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Roberts, K. P., &amp; Blades, M.,  (1998). The effects of interacting in repeated events on children's eyewitness memory and source monitoring. Applied Cognitive Psychology, 12(5), 489-503. https://doi.org/10.1002/(SICI)1099-0720(199810)12:5&lt;489::AID-ACP535&gt;3.0.CO;2-#</t>
+          <t>Roberts, K. P., &amp; Blades, M. (1998). The effects of interacting in repeated events on children's eyewitness memory and source monitoring. Applied Cognitive Psychology, 12(5), 489-503. https://doi.org/10.1002/(SICI)1099-0720(199810)12:5&lt;489::AID-ACP535&gt;3.0.CO;2-#</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Roberts, K. P., &amp; Powell, M. B.,  (2006). The consistency of false suggestions moderates children’s reports of a single instance of a repeated event: Predicting increases and decreases in suggestibility. Journal of Experimental Child Psychology, 94(1), 68-89. https://doi.org/10.1016/j.jecp.2005.12.003</t>
+          <t>Roberts, K. P., &amp; Powell, M. B. (2006). The consistency of false suggestions moderates children’s reports of a single instance of a repeated event: Predicting increases and decreases in suggestibility. Journal of Experimental Child Psychology, 94(1), 68-89. https://doi.org/10.1016/j.jecp.2005.12.003</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Roberts, K. P., &amp; Powell, M. B.,  (2007). The Roles of Prior Experience and the Timing of Misinformation Presentation on Young Children?s Event Memories. Child Development, 78(4), 1137-1152. https://doi.org/10.1111/j.1467-8624.2007.01057.x</t>
+          <t>Roberts, K. P., &amp; Powell, M. B. (2007). The Roles of Prior Experience and the Timing of Misinformation Presentation on Young Children?s Event Memories. Child Development, 78(4), 1137-1152. https://doi.org/10.1111/j.1467-8624.2007.01057.x</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Roberts, K. P., Brubacher, S. P., Drohan-Jennings, D., Glisic, U., Powell, M. B., &amp; Friedman, W. J.,  (2015). Developmental Differences in the Ability to Provide Temporal Information About Repeated Events. Applied Cognitive Psychology, 29(3), 407-417. https://doi.org/10.1002/acp.3118</t>
+          <t>Roberts, K. P., Brubacher, S. P., Drohan-Jennings, D., Glisic, U., Powell, M. B., &amp; Friedman, W. J. (2015). Developmental Differences in the Ability to Provide Temporal Information About Repeated Events. Applied Cognitive Psychology, 29(3), 407-417. https://doi.org/10.1002/acp.3118</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Roberts, K. P., Evans, A. D., &amp; Duncanson, S.,  (2016). Binding an event to its source at encoding improves children’s source monitoring. Developmental Psychology, 52(12), 2191-2201. https://doi.org/10.1037/dev0000213</t>
+          <t>Roberts, K. P., Evans, A. D., &amp; Duncanson, S. (2016). Binding an event to its source at encoding improves children’s source monitoring. Developmental Psychology, 52(12), 2191-2201. https://doi.org/10.1037/dev0000213</t>
         </is>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Robey, A., &amp; Riggins, T.,  (2016). Event-related potential study of intentional and incidental retrieval of item and source memory during early childhood. Developmental Psychobiology, 58(5), 556-567. https://doi.org/10.1002/dev.21401</t>
+          <t>Robey, A., &amp; Riggins, T. (2016). Event-related potential study of intentional and incidental retrieval of item and source memory during early childhood. Developmental Psychobiology, 58(5), 556-567. https://doi.org/10.1002/dev.21401</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Robey, A., &amp; Riggins, T.,  (2018). Increasing relational memory in childhood with unitization strategies. Memory &amp; Cognition, 46(1), 100-111. https://doi.org/10.3758/s13421-017-0748-6</t>
+          <t>Robey, A., &amp; Riggins, T. (2018). Increasing relational memory in childhood with unitization strategies. Memory &amp; Cognition, 46(1), 100-111. https://doi.org/10.3758/s13421-017-0748-6</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Robinson, C. W., &amp; Sloutsky, V. M.,  (2019). Two mechanisms underlying auditory dominance: Overshadowing and response competition. Journal of Experimental Child Psychology, 178(), 317-340. https://doi.org/10.1016/j.jecp.2018.10.001</t>
+          <t>Robinson, C. W., &amp; Sloutsky, V. M. (2019). Two mechanisms underlying auditory dominance: Overshadowing and response competition. Journal of Experimental Child Psychology, 178(), 317-340. https://doi.org/10.1016/j.jecp.2018.10.001</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Rollins, L., &amp; Riggins, T.,  (2013). Developmental changes in memory encoding: insights from event-related potentials. Developmental Science, 16(4), 599-609. https://doi.org/10.1111/desc.12072</t>
+          <t>Rollins, L., &amp; Riggins, T. (2013). Developmental changes in memory encoding: insights from event-related potentials. Developmental Science, 16(4), 599-609. https://doi.org/10.1111/desc.12072</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Rollins, L., &amp; Cloude, E. B.,  (2018). Development of mnemonic discrimination during childhood. Learning &amp; Memory, 25(6), 294-297. https://doi.org/10.1101/lm.047142.117</t>
+          <t>Rollins, L., &amp; Cloude, E. B. (2018). Development of mnemonic discrimination during childhood. Learning &amp; Memory, 25(6), 294-297. https://doi.org/10.1101/lm.047142.117</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Rollins, L., &amp; Riggins, T.,  (2018). Age-related differences in subjective recollection: ERP studies of encoding and retrieval. Developmental Science, 21(3), e12583. https://doi.org/10.1111/desc.12583</t>
+          <t>Rollins, L., &amp; Riggins, T. (2018). Age-related differences in subjective recollection: ERP studies of encoding and retrieval. Developmental Science, 21(3), e12583. https://doi.org/10.1111/desc.12583</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Rosen, M. L., Sheridan, M. A., Sambrook, K. A., Peverill, M. R., Meltzoff, A. N., &amp; McLaughlin, K. A.,  (2018). The Role of Visual Association Cortex in Associative Memory Formation across Development. Journal of Cognitive Neuroscience, 30(3), 365-380. https://doi.org/10.1162/jocn_a_01202</t>
+          <t>Rosen, M. L., Sheridan, M. A., Sambrook, K. A., Peverill, M. R., Meltzoff, A. N., &amp; McLaughlin, K. A. (2018). The Role of Visual Association Cortex in Associative Memory Formation across Development. Journal of Cognitive Neuroscience, 30(3), 365-380. https://doi.org/10.1162/jocn_a_01202</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Rosen, M. L., Meltzoff, A. N., Sheridan, M. A., &amp; McLaughlin, K. A.,  (2019). Distinct aspects of the early environment contribute to associative memory, cued attention, and memory-guided attention: Implications for academic achievement. Developmental Cognitive Neuroscience, 40(), 100731. https://doi.org/10.1016/j.dcn.2019.100731</t>
+          <t>Rosen, M. L., Meltzoff, A. N., Sheridan, M. A., &amp; McLaughlin, K. A. (2019). Distinct aspects of the early environment contribute to associative memory, cued attention, and memory-guided attention: Implications for academic achievement. Developmental Cognitive Neuroscience, 40(), 100731. https://doi.org/10.1016/j.dcn.2019.100731</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ruffman, T., Rustin, C., Garnham, W., &amp; Parkin, A. J.,  (2001). Source Monitoring and False Memories in Children: Relation to Certainty and Executive Functioning. Journal of Experimental Child Psychology, 80(2), 95-111. https://doi.org/10.1006/jecp.2001.2632</t>
+          <t>Ruffman, T., Rustin, C., Garnham, W., &amp; Parkin, A. J. (2001). Source Monitoring and False Memories in Children: Relation to Certainty and Executive Functioning. Journal of Experimental Child Psychology, 80(2), 95-111. https://doi.org/10.1006/jecp.2001.2632</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ruggeri, A., Markant, D. B., Gureckis, T. M., Bretzke, M., &amp; Xu, F.,  (2019). Memory enhancements from active control of learning emerge across development. Cognition, 186(), 82-94. https://doi.org/10.1016/j.cognition.2019.01.010</t>
+          <t>Ruggeri, A., Markant, D. B., Gureckis, T. M., Bretzke, M., &amp; Xu, F. (2019). Memory enhancements from active control of learning emerge across development. Cognition, 186(), 82-94. https://doi.org/10.1016/j.cognition.2019.01.010</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Russell, J., &amp; Thompson, D.,  (2003). Memory development in the second year: for events or locations?. Cognition, 87(3), B97-B105. https://doi.org/10.1016/S0010-0277(02)00238-X</t>
+          <t>Russell, J., &amp; Thompson, D. (2003). Memory development in the second year: for events or locations?. Cognition, 87(3), B97-B105. https://doi.org/10.1016/S0010-0277(02)00238-X</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Russo, R., Nichelli, P., Gibertoni, M., &amp; Cornia C., NA,  (1995). Developmental Trends in Implicit and Explicit Memory: A Picture Completion Study. Journal of Experimental Child Psychology, 59(3), 566-578. https://doi.org/10.1006/jecp.1995.1026</t>
+          <t>Russo, R., Nichelli, P., Gibertoni, M., &amp; Cornia C., NA (1995). Developmental Trends in Implicit and Explicit Memory: A Picture Completion Study. Journal of Experimental Child Psychology, 59(3), 566-578. https://doi.org/10.1006/jecp.1995.1026</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Rybash, J. M., &amp; Colilla, J. L.,  (1994). Source memory deficits and frontal lobe functioning in children. Developmental Neuropsychology, 10(1), 67-73. https://doi.org/10.1080/87565649409540567</t>
+          <t>Rybash, J. M., &amp; Colilla, J. L. (1994). Source memory deficits and frontal lobe functioning in children. Developmental Neuropsychology, 10(1), 67-73. https://doi.org/10.1080/87565649409540567</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Saffran, J. R,  (2002). Constraints on Statistical Language Learning. Journal of Memory and Language, 47(1), 172-196. https://doi.org/10.1006/jmla.2001.2839</t>
+          <t>Saffran, J. R (2002). Constraints on Statistical Language Learning. Journal of Memory and Language, 47(1), 172-196. https://doi.org/10.1006/jmla.2001.2839</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Saragosa‐Harris, N. M., Cohen, A. O., Shen, X., Sardar, H., Alberini, C. M., &amp; Hartley, C. A.,  (2021). Associative memory persistence in 3‐ to 5‐year‐olds. Developmental Science, 24(5), . https://doi.org/10.1111/desc.13105</t>
+          <t>Saragosa‐Harris, N. M., Cohen, A. O., Shen, X., Sardar, H., Alberini, C. M., &amp; Hartley, C. A. (2021). Associative memory persistence in 3‐ to 5‐year‐olds. Developmental Science, 24(5), . https://doi.org/10.1111/desc.13105</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Sastre, M., Wendelken, C., Lee, J. K., Bunge, S. A., &amp; Ghetti, S.,  (2016). Age- and performance-related differences in hippocampal contributions to episodic retrieval. Developmental Cognitive Neuroscience, 19(), 42-50. https://doi.org/10.1016/j.dcn.2016.01.003</t>
+          <t>Sastre, M., Wendelken, C., Lee, J. K., Bunge, S. A., &amp; Ghetti, S. (2016). Age- and performance-related differences in hippocampal contributions to episodic retrieval. Developmental Cognitive Neuroscience, 19(), 42-50. https://doi.org/10.1016/j.dcn.2016.01.003</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Sauzéon, Hé.è., Déjos, M., Lestage, P., Arvind Pala, P., &amp; N'Kaoua, B.,  (2012). Developmental differences in explicit and implicit conceptual memory tests: A processing view account. Child Neuropsychology, 18(1), 23-49. https://doi.org/10.1080/09297049.2011.557652</t>
+          <t>Sauzéon, Hé.è., Déjos, M., Lestage, P., Arvind Pala, P., &amp; N'Kaoua, B. (2012). Developmental differences in explicit and implicit conceptual memory tests: A processing view account. Child Neuropsychology, 18(1), 23-49. https://doi.org/10.1080/09297049.2011.557652</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Savic, O., &amp; Sloutsky, V. M.,  (2019). Assimilation of exceptions? Examining representations of regular and exceptional category members across development. Journal of Experimental Psychology: General, 148(6), 1071-1090. https://doi.org/10.1037/xge0000611</t>
+          <t>Savic, O., &amp; Sloutsky, V. M. (2019). Assimilation of exceptions? Examining representations of regular and exceptional category members across development. Journal of Experimental Psychology: General, 148(6), 1071-1090. https://doi.org/10.1037/xge0000611</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Scales, M. L., &amp; Pathman, T.,  (2021). Flexible retrieval of semantic knowledge predicts temporal memory, but not memory for other types of context, in 4-6-year-olds. Cognitive Development, 59(), 101080. https://doi.org/10.1016/j.cogdev.2021.101080</t>
+          <t>Scales, M. L., &amp; Pathman, T. (2021). Flexible retrieval of semantic knowledge predicts temporal memory, but not memory for other types of context, in 4-6-year-olds. Cognitive Development, 59(), 101080. https://doi.org/10.1016/j.cogdev.2021.101080</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Scarf, D., Gross, J., Colombo, M., &amp; Hayne, H.,  (2013). To have and to hold: Episodic memory in 3- and 4-year-old children. Developmental Psychobiology, 55(2), 125-132. https://doi.org/10.1002/dev.21004</t>
+          <t>Scarf, D., Gross, J., Colombo, M., &amp; Hayne, H. (2013). To have and to hold: Episodic memory in 3- and 4-year-old children. Developmental Psychobiology, 55(2), 125-132. https://doi.org/10.1002/dev.21004</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Schlagmüller, M., &amp; Schneider, W.,  (2002). The Development of Organizational Strategies in Children: Evidence from a Microgenetic Longitudinal Study. Journal of Experimental Child Psychology, 81(3), 298-319. https://doi.org/10.1006/jecp.2002.2655</t>
+          <t>Schlagmüller, M., &amp; Schneider, W. (2002). The Development of Organizational Strategies in Children: Evidence from a Microgenetic Longitudinal Study. Journal of Experimental Child Psychology, 81(3), 298-319. https://doi.org/10.1006/jecp.2002.2655</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>M. J. Schleepen, T., &amp; M. Jonkman, L.,  (2014). A Longitudinal Study of Semantic Grouping Strategy Use in 6–11-Year-Old Children: Investigating Developmental Phases, the Role of Working Memory, and Strategy Transfer. The Journal of Genetic Psychology, 175(6), 451-471. https://doi.org/10.1080/00221325.2014.958126</t>
+          <t>M. J. Schleepen, T., &amp; M. Jonkman, L. (2014). A Longitudinal Study of Semantic Grouping Strategy Use in 6–11-Year-Old Children: Investigating Developmental Phases, the Role of Working Memory, and Strategy Transfer. The Journal of Genetic Psychology, 175(6), 451-471. https://doi.org/10.1080/00221325.2014.958126</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Schlichting, M. L., Guarino, K. F., Schapiro, A. C., Turk-Browne, N. B., &amp; Preston, A. R.,  (2017). Hippocampal Structure Predicts Statistical Learning and Associative Inference Abilities during Development. Journal of Cognitive Neuroscience, 29(1), 37-51. https://doi.org/10.1162/jocn_a_01028</t>
+          <t>Schlichting, M. L., Guarino, K. F., Schapiro, A. C., Turk-Browne, N. B., &amp; Preston, A. R. (2017). Hippocampal Structure Predicts Statistical Learning and Associative Inference Abilities during Development. Journal of Cognitive Neuroscience, 29(1), 37-51. https://doi.org/10.1162/jocn_a_01028</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Schneider, W., Körkel, J., &amp; Weinert, F. E.,  (1989). Domain-specific knowledge and memory performance: A comparison of high- and low-aptitude children. Journal of Educational Psychology, 81(3), 306-312. https://doi.org/10.1037/0022-0663.81.3.306</t>
+          <t>Schneider, W., Körkel, J., &amp; Weinert, F. E. (1989). Domain-specific knowledge and memory performance: A comparison of high- and low-aptitude children. Journal of Educational Psychology, 81(3), 306-312. https://doi.org/10.1037/0022-0663.81.3.306</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Schneider, W., Gruber, H., Gold, A., &amp; Opwis, K.,  (1993). Chess expertise and memory for chess positions in children and adults. Journal of Experimental Child Psychology, 56(3), 328-349. https://doi.org/10.1006/jecp.1993.1038</t>
+          <t>Schneider, W., Gruber, H., Gold, A., &amp; Opwis, K. (1993). Chess expertise and memory for chess positions in children and adults. Journal of Experimental Child Psychology, 56(3), 328-349. https://doi.org/10.1006/jecp.1993.1038</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Schneider, W., Knopf, M., &amp; Stefanek, J.,  (2002). The development of verbal memory in childhood and adolescence: Findings from the Munich Longitudinal Study. Journal of Educational Psychology, 94(4), 751-761. https://doi.org/10.1037/0022-0663.94.4.751</t>
+          <t>Schneider, W., Knopf, M., &amp; Stefanek, J. (2002). The development of verbal memory in childhood and adolescence: Findings from the Munich Longitudinal Study. Journal of Educational Psychology, 94(4), 751-761. https://doi.org/10.1037/0022-0663.94.4.751</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Schneider, W., Kron, V., Hünnerkopf, M., &amp; Krajewski, K.,  (2004). The development of young children’s memory strategies: First findings from the Würzburg Longitudinal Memory Study. Journal of Experimental Child Psychology, 88(2), 193-209. https://doi.org/10.1016/j.jecp.2004.02.004</t>
+          <t>Schneider, W., Kron, V., Hünnerkopf, M., &amp; Krajewski, K. (2004). The development of young children’s memory strategies: First findings from the Würzburg Longitudinal Memory Study. Journal of Experimental Child Psychology, 88(2), 193-209. https://doi.org/10.1016/j.jecp.2004.02.004</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Schneider, W., Kron-Sperl, V., &amp; Hünnerkopf, M.,  (2009). The development of young children's memory strategies: Evidence from the Würzburg Longitudinal Memory Study. European Journal of Developmental Psychology, 6(1), 70-99. https://doi.org/10.1080/17405620701336802</t>
+          <t>Schneider, W., Kron-Sperl, V., &amp; Hünnerkopf, M. (2009). The development of young children's memory strategies: Evidence from the Würzburg Longitudinal Memory Study. European Journal of Developmental Psychology, 6(1), 70-99. https://doi.org/10.1080/17405620701336802</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Schneider, W., Knopf, M., &amp; Sodian, B.,  (2009). Verbal memory development from early childhood to early adulthood. In Human development from early childhood to early adulthood: Findings from a 20 year longitudinal study (S. 63-90). Psychology Press</t>
+          <t>Schneider, W., Knopf, M., &amp; Sodian, B. (2009). Verbal memory development from early childhood to early adulthood. In Human development from early childhood to early adulthood: Findings from a 20 year longitudinal study (S. 63-90). Psychology Press</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Schröder, L., Kärtner, J., Keller, H., &amp; Chaudhary, N.,  (2012). Sticking out and fitting in: Culture-specific predictors of 3-year-olds’ autobiographical memories during joint reminiscing. Infant Behavior and Development, 35(4), 627-634. https://doi.org/10.1016/j.infbeh.2012.06.002</t>
+          <t>Schröder, L., Kärtner, J., Keller, H., &amp; Chaudhary, N. (2012). Sticking out and fitting in: Culture-specific predictors of 3-year-olds’ autobiographical memories during joint reminiscing. Infant Behavior and Development, 35(4), 627-634. https://doi.org/10.1016/j.infbeh.2012.06.002</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Schröder, L., Keller, H., Kärtner, J., Kleis, A., Abels, M., Yovsi, R. D., Chaudhary, N., Jensen, H., &amp; Papaligoura, Z.,  (2013). Early Reminiscing in Cultural Contexts: Cultural Models, Maternal Reminiscing Styles, and Children's Memories. Journal of Cognition and Development, 14(1), 10-34. https://doi.org/10.1080/15248372.2011.638690</t>
+          <t>Schröder, L., Keller, H., Kärtner, J., Kleis, A., Abels, M., Yovsi, R. D., Chaudhary, N., Jensen, H., &amp; Papaligoura, Z. (2013). Early Reminiscing in Cultural Contexts: Cultural Models, Maternal Reminiscing Styles, and Children's Memories. Journal of Cognition and Development, 14(1), 10-34. https://doi.org/10.1080/15248372.2011.638690</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Selmeczy, D., &amp; Ghetti, S.,  (2019). Here is a hint! How children integrate reliable recommendations in their memory decisions. Journal of Experimental Child Psychology, 177(), 222-239. https://doi.org/10.1016/j.jecp.2018.08.004</t>
+          <t>Selmeczy, D., &amp; Ghetti, S. (2019). Here is a hint! How children integrate reliable recommendations in their memory decisions. Journal of Experimental Child Psychology, 177(), 222-239. https://doi.org/10.1016/j.jecp.2018.08.004</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Selmeczy, D., Fandakova, Y., Grimm, K. J., Bunge, S. A., &amp; Ghetti, S.,  (2019). Longitudinal trajectories of hippocampal and prefrontal contributions to episodic retrieval: Effects of age and puberty. Developmental Cognitive Neuroscience, 36(), 100599. https://doi.org/10.1016/j.dcn.2018.10.003</t>
+          <t>Selmeczy, D., Fandakova, Y., Grimm, K. J., Bunge, S. A., &amp; Ghetti, S. (2019). Longitudinal trajectories of hippocampal and prefrontal contributions to episodic retrieval: Effects of age and puberty. Developmental Cognitive Neuroscience, 36(), 100599. https://doi.org/10.1016/j.dcn.2018.10.003</t>
         </is>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Shing, Y. L., Werkle-Bergner, M., Li, S.-C., &amp; Lindenberger, U.,  (2008). Associative and strategic components of episodic memory: A life-span dissociation. Journal of Experimental Psychology: General, 137(3), 495-513. https://doi.org/10.1037/0096-3445.137.3.495</t>
+          <t>Shing, Y. L., Werkle-Bergner, M., Li, S.-C., &amp; Lindenberger, U. (2008). Associative and strategic components of episodic memory: A life-span dissociation. Journal of Experimental Psychology: General, 137(3), 495-513. https://doi.org/10.1037/0096-3445.137.3.495</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Shing, Y. L., Werkle-Bergner, M., Li, S.-C., &amp; Lindenberger, U.,  (2009). Committing memory errors with high confidence: Older adults do but children don't. Memory, 17(2), 169-179. https://doi.org/10.1080/09658210802190596</t>
+          <t>Shing, Y. L., Werkle-Bergner, M., Li, S.-C., &amp; Lindenberger, U. (2009). Committing memory errors with high confidence: Older adults do but children don't. Memory, 17(2), 169-179. https://doi.org/10.1080/09658210802190596</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Shing, Y. L., Brehmer, Y., Heekeren, H. R., Bäckman, L., &amp; Lindenberger, U.,  (2016). Neural activation patterns of successful episodic encoding: Reorganization during childhood, maintenance in old age. Developmental Cognitive Neuroscience, 20(), 59-69. https://doi.org/10.1016/j.dcn.2016.06.003</t>
+          <t>Shing, Y. L., Brehmer, Y., Heekeren, H. R., Bäckman, L., &amp; Lindenberger, U. (2016). Neural activation patterns of successful episodic encoding: Reorganization during childhood, maintenance in old age. Developmental Cognitive Neuroscience, 20(), 59-69. https://doi.org/10.1016/j.dcn.2016.06.003</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Shing, Y. L., Finke, C., Hoffmann, M., Pajkert, A., Heekeren, H. R., &amp; Ploner, C. J.,  (2019). Integrating across memory episodes: Developmental trends. PLOS ONE, 14(4), e0215848. https://doi.org/10.1371/journal.pone.0215848</t>
+          <t>Shing, Y. L., Finke, C., Hoffmann, M., Pajkert, A., Heekeren, H. R., &amp; Ploner, C. J. (2019). Integrating across memory episodes: Developmental trends. PLOS ONE, 14(4), e0215848. https://doi.org/10.1371/journal.pone.0215848</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Shufaniya, A., &amp; Arnon, I.,  (2018). Statistical Learning Is Not Age-Invariant During Childhood: Performance Improves With Age Across Modality. Cognitive Science, 42(8), 3100-3115. https://doi.org/10.1111/cogs.12692</t>
+          <t>Shufaniya, A., &amp; Arnon, I. (2018). Statistical Learning Is Not Age-Invariant During Childhood: Performance Improves With Age Across Modality. Cognitive Science, 42(8), 3100-3115. https://doi.org/10.1111/cogs.12692</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Simcock, G., &amp; Hayne, H.,  (2002). Breaking the Barrier? Children Fail to Translate Their Preverbal Memories into Language. Psychological Science, 13(3), 225-231. https://doi.org/10.1111/1467-9280.00442</t>
+          <t>Simcock, G., &amp; Hayne, H. (2002). Breaking the Barrier? Children Fail to Translate Their Preverbal Memories into Language. Psychological Science, 13(3), 225-231. https://doi.org/10.1111/1467-9280.00442</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Simcock, G., &amp; Hayne, H.,  (2003). Age-related changes in verbal and nonverbal memory during early childhood. Developmental Psychology, 39(5), 805-814. https://doi.org/10.1037/0012-1649.39.5.805</t>
+          <t>Simcock, G., &amp; Hayne, H. (2003). Age-related changes in verbal and nonverbal memory during early childhood. Developmental Psychology, 39(5), 805-814. https://doi.org/10.1037/0012-1649.39.5.805</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Slackman, E., &amp; Nelson, K.,  (1984). Acquisition of an Unfamiliar Script in Story Form by Young Children. Child Development, 55(2), 329. https://doi.org/10.2307/1129946</t>
+          <t>Slackman, E., &amp; Nelson, K. (1984). Acquisition of an Unfamiliar Script in Story Form by Young Children. Child Development, 55(2), 329. https://doi.org/10.2307/1129946</t>
         </is>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Slone, L. K., &amp; Sandhofer, C. M.,  (2017). Consider the category: The effect of spacing depends on individual learning histories. Journal of Experimental Child Psychology, 159(), 34-49. https://doi.org/10.1016/j.jecp.2017.01.010</t>
+          <t>Slone, L. K., &amp; Sandhofer, C. M. (2017). Consider the category: The effect of spacing depends on individual learning histories. Journal of Experimental Child Psychology, 159(), 34-49. https://doi.org/10.1016/j.jecp.2017.01.010</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Sloutsky, V. M., Lo, Y.-F., &amp; Fisher, A. V.,  (2001). How Much Does a Shared Name Make Things Similar? Linguistic Labels, Similarity, and the Development of Inductive Inference. Child Development, 72(6), 1695-1709. https://doi.org/10.1111/1467-8624.00373</t>
+          <t>Sloutsky, V. M., Lo, Y.-F., &amp; Fisher, A. V. (2001). How Much Does a Shared Name Make Things Similar? Linguistic Labels, Similarity, and the Development of Inductive Inference. Child Development, 72(6), 1695-1709. https://doi.org/10.1111/1467-8624.00373</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Sloutsky, V. M., &amp; Fisher, A. V.,  (2004). When Development and Learning Decrease Memory: Evidence Against Category-Based Induction in Children. Psychological Science, 15(8), 553-558. https://doi.org/10.1111/j.0956-7976.2004.00718.x</t>
+          <t>Sloutsky, V. M., &amp; Fisher, A. V. (2004). When Development and Learning Decrease Memory: Evidence Against Category-Based Induction in Children. Psychological Science, 15(8), 553-558. https://doi.org/10.1111/j.0956-7976.2004.00718.x</t>
         </is>
       </c>
     </row>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Sloutsky, V. M., &amp; Fisher, A. V.,  (2004). Induction and Categorization in Young Children: A Similarity-Based Model. Journal of Experimental Psychology: General, 133(2), 166-188. https://doi.org/10.1037/0096-3445.133.2.166</t>
+          <t>Sloutsky, V. M., &amp; Fisher, A. V. (2004). Induction and Categorization in Young Children: A Similarity-Based Model. Journal of Experimental Psychology: General, 133(2), 166-188. https://doi.org/10.1037/0096-3445.133.2.166</t>
         </is>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Sloutsky, V. M., &amp; Spino, M. A.,  (2004). Naive theory and transfer of learning: When less is more and more is less. Psychonomic Bulletin &amp; Review, 11(3), 528-535. https://doi.org/10.3758/BF03196606</t>
+          <t>Sloutsky, V. M., &amp; Spino, M. A. (2004). Naive theory and transfer of learning: When less is more and more is less. Psychonomic Bulletin &amp; Review, 11(3), 528-535. https://doi.org/10.3758/BF03196606</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Sloutsky, V. M., Kloos, H., &amp; Fisher, A. V.,  (2007). When Looks Are Everything: Appearance Similarity Versus Kind Information in Early Induction. Psychological Science, 18(2), 179-185. https://doi.org/10.1111/j.1467-9280.2007.01869.x</t>
+          <t>Sloutsky, V. M., Kloos, H., &amp; Fisher, A. V. (2007). When Looks Are Everything: Appearance Similarity Versus Kind Information in Early Induction. Psychological Science, 18(2), 179-185. https://doi.org/10.1111/j.1467-9280.2007.01869.x</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Sloutsky, V. M., &amp; Fisher, A. V.,  (2008). Attentional Learning and Flexible Induction: How Mundane Mechanisms Give Rise to Smart Behaviors. Child Development, 79(3), 639-651. https://doi.org/10.1111/j.1467-8624.2008.01148.x</t>
+          <t>Sloutsky, V. M., &amp; Fisher, A. V. (2008). Attentional Learning and Flexible Induction: How Mundane Mechanisms Give Rise to Smart Behaviors. Child Development, 79(3), 639-651. https://doi.org/10.1111/j.1467-8624.2008.01148.x</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Sloutsky, V. M., (Sophia) Deng, W., Fisher, A. V., &amp; Kloos, H.,  (2015). Conceptual influences on induction: A case for a late onset. Cognitive Psychology, 82(), 1-31. https://doi.org/10.1016/j.cogpsych.2015.08.005</t>
+          <t>Sloutsky, V. M., (Sophia) Deng, W., Fisher, A. V., &amp; Kloos, H. (2015). Conceptual influences on induction: A case for a late onset. Cognitive Psychology, 82(), 1-31. https://doi.org/10.1016/j.cogpsych.2015.08.005</t>
         </is>
       </c>
     </row>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Sloutsky, V. M., Yim, H., Yao, X., &amp; Dennis, S.,  (2017). An associative account of the development of word learning. Cognitive Psychology, 97(), 1-30. https://doi.org/10.1016/j.cogpsych.2017.06.001</t>
+          <t>Sloutsky, V. M., Yim, H., Yao, X., &amp; Dennis, S. (2017). An associative account of the development of word learning. Cognitive Psychology, 97(), 1-30. https://doi.org/10.1016/j.cogpsych.2017.06.001</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Sluzenski, J., Newcombe, N., &amp; Ottinger, W.,  (2004). Changes in reality monitoring and episodic memory in early childhood. Developmental Science, 7(2), 225-245. https://doi.org/10.1111/j.1467-7687.2004.00341.x</t>
+          <t>Sluzenski, J., Newcombe, N., &amp; Ottinger, W. (2004). Changes in reality monitoring and episodic memory in early childhood. Developmental Science, 7(2), 225-245. https://doi.org/10.1111/j.1467-7687.2004.00341.x</t>
         </is>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Sluzenski, J., Newcombe, N. S., &amp; Kovacs, S. L.,  (2006). Binding, relational memory, and recall of naturalistic events: A developmental perspective. Journal of Experimental Psychology: Learning, Memory, and Cognition, 32(1), 89-100. https://doi.org/10.1037/0278-7393.32.1.89</t>
+          <t>Sluzenski, J., Newcombe, N. S., &amp; Kovacs, S. L. (2006). Binding, relational memory, and recall of naturalistic events: A developmental perspective. Journal of Experimental Psychology: Learning, Memory, and Cognition, 32(1), 89-100. https://doi.org/10.1037/0278-7393.32.1.89</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Smalle, E. H.M., Page, M. P.A., Duyck, W., Edwards, M., &amp; Szmalec, A.,  (2018). Children retain implicitly learned phonological sequences better than adults: a longitudinal study. Developmental Science, 21(5), e12634. https://doi.org/10.1111/desc.12634</t>
+          <t>Smalle, E. H.M., Page, M. P.A., Duyck, W., Edwards, M., &amp; Szmalec, A. (2018). Children retain implicitly learned phonological sequences better than adults: a longitudinal study. Developmental Science, 21(5), e12634. https://doi.org/10.1111/desc.12634</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Smiley, S. S., &amp; Brown, A. L.,  (1979). Conceptual preference for thematic or taxonomic relations: A nonmonotonic age trend from preschool to old age. Journal of Experimental Child Psychology, 28(2), 249-257. https://doi.org/10.1016/0022-0965(79)90087-0</t>
+          <t>Smiley, S. S., &amp; Brown, A. L. (1979). Conceptual preference for thematic or taxonomic relations: A nonmonotonic age trend from preschool to old age. Journal of Experimental Child Psychology, 28(2), 249-257. https://doi.org/10.1016/0022-0965(79)90087-0</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Smith, B. S., Ratner, H. H., &amp; Hobart, C. J.,  (1987). The role of cuing and organization in children's memory for events. Journal of Experimental Child Psychology, 44(1), 1-24. https://doi.org/10.1016/0022-0965(87)90019-1</t>
+          <t>Smith, B. S., Ratner, H. H., &amp; Hobart, C. J. (1987). The role of cuing and organization in children's memory for events. Journal of Experimental Child Psychology, 44(1), 1-24. https://doi.org/10.1016/0022-0965(87)90019-1</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Sodian, B., Schneider, W., &amp; Perlmutter, M.,  (1986). Recall, clustering, and metamemory in young children. Journal of Experimental Child Psychology, 41(3), 395-410. https://doi.org/10.1016/0022-0965(86)90001-9</t>
+          <t>Sodian, B., Schneider, W., &amp; Perlmutter, M. (1986). Recall, clustering, and metamemory in young children. Journal of Experimental Child Psychology, 41(3), 395-410. https://doi.org/10.1016/0022-0965(86)90001-9</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Sommer, V. R., Mount, L., Weigelt, S., Werkle-Bergner, M., &amp; Sander, M. C.,  (2021). Memory specificity is linked to repetition effects in event-related potentials across the lifespan. Developmental Cognitive Neuroscience, 48(), 100926. https://doi.org/10.1016/j.dcn.2021.100926</t>
+          <t>Sommer, V. R., Mount, L., Weigelt, S., Werkle-Bergner, M., &amp; Sander, M. C. (2021). Memory specificity is linked to repetition effects in event-related potentials across the lifespan. Developmental Cognitive Neuroscience, 48(), 100926. https://doi.org/10.1016/j.dcn.2021.100926</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Sonne, T., Kingo, O. S., Berntsen, D., &amp; Krøjgaard, P.,  (2019). Thirty-five-month-old children have spontaneous memories despite change of context for retrieval. Memory, 27(1), 38-48. https://doi.org/10.1080/09658211.2017.1363243</t>
+          <t>Sonne, T., Kingo, O. S., Berntsen, D., &amp; Krøjgaard, P. (2019). Thirty-five-month-old children have spontaneous memories despite change of context for retrieval. Memory, 27(1), 38-48. https://doi.org/10.1080/09658211.2017.1363243</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Sprondel, V., Kipp, K. H., &amp; Mecklinger, A.,  (2011). Developmental Changes in Item and Source Memory: Evidence From an ERP Recognition Memory Study With Children, Adolescents, and Adults. Child Development, 82(6), 1638-1953. https://doi.org/10.1111/j.1467-8624.2011.01642.x</t>
+          <t>Sprondel, V., Kipp, K. H., &amp; Mecklinger, A. (2011). Developmental Changes in Item and Source Memory: Evidence From an ERP Recognition Memory Study With Children, Adolescents, and Adults. Child Development, 82(6), 1638-1953. https://doi.org/10.1111/j.1467-8624.2011.01642.x</t>
         </is>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Strange, D., &amp; Hayne, H.,  (2013). The devil is in the detail: Children's recollection of details about their prior experiences. Memory, 21(4), 431-443. https://doi.org/10.1080/09658211.2012.732722</t>
+          <t>Strange, D., &amp; Hayne, H. (2013). The devil is in the detail: Children's recollection of details about their prior experiences. Memory, 21(4), 431-443. https://doi.org/10.1080/09658211.2012.732722</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sugrue, K., &amp; Hayne, H.,  (2006). False memories produced by children and adults in the DRM paradigm. Applied Cognitive Psychology, 20(5), 625-631. https://doi.org/10.1002/acp.1214</t>
+          <t>Sugrue, K., &amp; Hayne, H. (2006). False memories produced by children and adults in the DRM paradigm. Applied Cognitive Psychology, 20(5), 625-631. https://doi.org/10.1002/acp.1214</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Sykes, D. H.,  (1976). Stimulus Processing and Recognition Memory in Children. British Journal of Psychology, 67(3), 429-438. https://doi.org/10.1111/j.2044-8295.1976.tb01530.x</t>
+          <t>Sykes, D. H. (1976). Stimulus Processing and Recognition Memory in Children. British Journal of Psychology, 67(3), 429-438. https://doi.org/10.1111/j.2044-8295.1976.tb01530.x</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Tamnes, C. K., Walhovd, K. B., Engvig, A., Grydeland, Hå., Krogsrud, S. K., Østby, Y., Holland, D., Dale, A. M., &amp; Fjell, A. M.,  (2014). Regional Hippocampal Volumes and Development Predict Learning and Memory. Developmental Neuroscience, 36(3-4), 161-174. https://doi.org/10.1159/000362445</t>
+          <t>Tamnes, C. K., Walhovd, K. B., Engvig, A., Grydeland, Hå., Krogsrud, S. K., Østby, Y., Holland, D., Dale, A. M., &amp; Fjell, A. M. (2014). Regional Hippocampal Volumes and Development Predict Learning and Memory. Developmental Neuroscience, 36(3-4), 161-174. https://doi.org/10.1159/000362445</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tang, L., Shafer, A. T, &amp; Ofen, N.,  (2018). Prefrontal Cortex Contributions to the Development of Memory Formation. Cerebral Cortex, 28(9), 3295-3308. https://doi.org/10.1093/cercor/bhx200</t>
+          <t>Tang, L., Shafer, A. T, &amp; Ofen, N. (2018). Prefrontal Cortex Contributions to the Development of Memory Formation. Cerebral Cortex, 28(9), 3295-3308. https://doi.org/10.1093/cercor/bhx200</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Thomas, K. M., &amp; Nelson, C. A.,  (2001). Serial Reaction Time Learning in Preschool- and School-Age Children. Journal of Experimental Child Psychology, 79(4), 364-387. https://doi.org/10.1006/jecp.2000.2613</t>
+          <t>Thomas, K. M., &amp; Nelson, C. A. (2001). Serial Reaction Time Learning in Preschool- and School-Age Children. Journal of Experimental Child Psychology, 79(4), 364-387. https://doi.org/10.1006/jecp.2000.2613</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Thomas, K. M., Hunt, R. H., Vizueta, N., Sommer, T., Durston, S., Yang, Y., &amp; Worden, M. S.,  (2004). Evidence of Developmental Differences in Implicit Sequence Learning: An fMRI Study of Children and Adults. Journal of Cognitive Neuroscience, 16(8), 1339-1351. https://doi.org/10.1162/0898929042304688</t>
+          <t>Thomas, K. M., Hunt, R. H., Vizueta, N., Sommer, T., Durston, S., Yang, Y., &amp; Worden, M. S. (2004). Evidence of Developmental Differences in Implicit Sequence Learning: An fMRI Study of Children and Adults. Journal of Cognitive Neuroscience, 16(8), 1339-1351. https://doi.org/10.1162/0898929042304688</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Townsend, E. L., Richmond, J. L., Vogel-Farley, V. K., &amp; Thomas, K.,  (2010). Medial temporal lobe memory in childhood: developmental transitions. Developmental Science, 13(5), 738-751. https://doi.org/10.1111/j.1467-7687.2009.00935.x</t>
+          <t>Townsend, E. L., Richmond, J. L., Vogel-Farley, V. K., &amp; Thomas, K. (2010). Medial temporal lobe memory in childhood: developmental transitions. Developmental Science, 13(5), 738-751. https://doi.org/10.1111/j.1467-7687.2009.00935.x</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tustin, K., &amp; Hayne, H.,  (2010). Defining the boundary: Age-related changes in childhood amnesia. Developmental Psychology, 46(5), 1049-1061. https://doi.org/10.1037/a0020105</t>
+          <t>Tustin, K., &amp; Hayne, H. (2010). Defining the boundary: Age-related changes in childhood amnesia. Developmental Psychology, 46(5), 1049-1061. https://doi.org/10.1037/a0020105</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tustin, K., &amp; Hayne, H.,  (2016). Early memories come in small packages: episodic memory in young children and adults. Developmental Psychobiology, 58(7), 852-865. https://doi.org/10.1002/dev.21423</t>
+          <t>Tustin, K., &amp; Hayne, H. (2016). Early memories come in small packages: episodic memory in young children and adults. Developmental Psychobiology, 58(7), 852-865. https://doi.org/10.1002/dev.21423</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tustin, K., &amp; Hayne, H.,  (2019). Recollection improves with age: children’s and adults’ accounts of their childhood experiences. Memory, 27(1), 92-102. https://doi.org/10.1080/09658211.2018.1432661</t>
+          <t>Tustin, K., &amp; Hayne, H. (2019). Recollection improves with age: children’s and adults’ accounts of their childhood experiences. Memory, 27(1), 92-102. https://doi.org/10.1080/09658211.2018.1432661</t>
         </is>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tversky, B.,  (1985). Development of taxonomic organization of named and pictured categories. Developmental Psychology, 21(6), 1111-1119. https://doi.org/10.1037/0012-1649.21.6.1111</t>
+          <t>Tversky, B. (1985). Development of taxonomic organization of named and pictured categories. Developmental Psychology, 21(6), 1111-1119. https://doi.org/10.1037/0012-1649.21.6.1111</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Uehara, I.,  (2000). Differences in Episodic Memory between Four- and Five-Year-Olds: False Information versus Real Experiences. Psychological Reports, 86(3), 745-755. https://doi.org/10.2466/pr0.2000.86.3.745</t>
+          <t>Uehara, I. (2000). Differences in Episodic Memory between Four- and Five-Year-Olds: False Information versus Real Experiences. Psychological Reports, 86(3), 745-755. https://doi.org/10.2466/pr0.2000.86.3.745</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Unger, L., Fisher, A. V., Nugent, R., Ventura, S. L., &amp; MacLellan, C. J.,  (2016). Developmental changes in semantic knowledge organization. Journal of Experimental Child Psychology, 146(), 202-222. https://doi.org/10.1016/j.jecp.2016.01.005</t>
+          <t>Unger, L., Fisher, A. V., Nugent, R., Ventura, S. L., &amp; MacLellan, C. J. (2016). Developmental changes in semantic knowledge organization. Journal of Experimental Child Psychology, 146(), 202-222. https://doi.org/10.1016/j.jecp.2016.01.005</t>
         </is>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Unger, L., Savic, O., &amp; Sloutsky, V. M.,  (2020). Statistical regularities shape semantic organization throughout development. Cognition, 198(), 104190. https://doi.org/10.1016/j.cognition.2020.104190</t>
+          <t>Unger, L., Savic, O., &amp; Sloutsky, V. M. (2020). Statistical regularities shape semantic organization throughout development. Cognition, 198(), 104190. https://doi.org/10.1016/j.cognition.2020.104190</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Vakil, E., Blachstein, H., &amp; Sheinman, M.,  (1998). Rey AVLT: Developmental Norms for Children and the Sensitivity of Different Memory Measures to Age. Child Neuropsychology, 4(3), 161-177. https://doi.org/10.1076/chin.4.3.161.3173</t>
+          <t>Vakil, E., Blachstein, H., &amp; Sheinman, M. (1998). Rey AVLT: Developmental Norms for Children and the Sensitivity of Different Memory Measures to Age. Child Neuropsychology, 4(3), 161-177. https://doi.org/10.1076/chin.4.3.161.3173</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Valentino, K., Nuttall, A. K., Comas, M., McDonnell, C. G., Piper, B., Thomas, T. E., &amp; Fanuele, S.,  (2014). Mother–child reminiscing and autobiographical memory specificity among preschool-age children. Developmental Psychology, 50(4), 1197-1207. https://doi.org/10.1037/a0034912</t>
+          <t>Valentino, K., Nuttall, A. K., Comas, M., McDonnell, C. G., Piper, B., Thomas, T. E., &amp; Fanuele, S. (2014). Mother–child reminiscing and autobiographical memory specificity among preschool-age children. Developmental Psychology, 50(4), 1197-1207. https://doi.org/10.1037/a0034912</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>van Witteloostuijn, M., Lammertink, I., Boersma, P., Wijnen, F., &amp; Rispens, J.,  (2019). Assessing Visual Statistical Learning in Early-School-Aged Children: The Usefulness of an Online Reaction Time Measure. Frontiers in Psychology, 10(), 2051. https://doi.org/10.3389/fpsyg.2019.02051</t>
+          <t>van Witteloostuijn, M., Lammertink, I., Boersma, P., Wijnen, F., &amp; Rispens, J. (2019). Assessing Visual Statistical Learning in Early-School-Aged Children: The Usefulness of an Online Reaction Time Measure. Frontiers in Psychology, 10(), 2051. https://doi.org/10.3389/fpsyg.2019.02051</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>van Witteloostuijn, M., Boersma, P., Wijnen, F., &amp; Rispens, J.,  (2019). Statistical learning abilities of children with dyslexia across three experimental paradigms. PLOS ONE, 14(8), e0220041. https://doi.org/10.1371/journal.pone.0220041</t>
+          <t>van Witteloostuijn, M., Boersma, P., Wijnen, F., &amp; Rispens, J. (2019). Statistical learning abilities of children with dyslexia across three experimental paradigms. PLOS ONE, 14(8), e0220041. https://doi.org/10.1371/journal.pone.0220041</t>
         </is>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Varga, N. L., &amp; Bauer, P. J.,  (2013). Effects of delays on 6-year-old children’s self-generation and retention of knowledge through integration. Journal of Experimental Child Psychology, 115(2), 326-341. https://doi.org/10.1016/j.jecp.2013.01.008</t>
+          <t>Varga, N. L., &amp; Bauer, P. J. (2013). Effects of delays on 6-year-old children’s self-generation and retention of knowledge through integration. Journal of Experimental Child Psychology, 115(2), 326-341. https://doi.org/10.1016/j.jecp.2013.01.008</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Varga, N. L., Stewart, R. A., &amp; Bauer, P. J.,  (2016). Integrating across episodes: Investigating the long-term accessibility of self-derived knowledge in 4-year-old children. Journal of Experimental Child Psychology, 145(), 48-63. https://doi.org/10.1016/j.jecp.2015.11.015</t>
+          <t>Varga, N. L., Stewart, R. A., &amp; Bauer, P. J. (2016). Integrating across episodes: Investigating the long-term accessibility of self-derived knowledge in 4-year-old children. Journal of Experimental Child Psychology, 145(), 48-63. https://doi.org/10.1016/j.jecp.2015.11.015</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Varga, N. L., Esposito, A. G., &amp; Bauer, P. J.,  (2019). Cognitive correlates of memory integration across development: Explaining variability in an educationally relevant phenomenon. Journal of Experimental Psychology: General, 148(4), 739-762. https://doi.org/10.1037/xge0000581</t>
+          <t>Varga, N. L., Esposito, A. G., &amp; Bauer, P. J. (2019). Cognitive correlates of memory integration across development: Explaining variability in an educationally relevant phenomenon. Journal of Experimental Psychology: General, 148(4), 739-762. https://doi.org/10.1037/xge0000581</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Vicari, S.,  (2001). Implicit versus explicit memory function in children with Down and Williams syndrome. Down Syndrome Research and Practice, 7(1), 35-40. https://doi.org/10.3104/reports.112</t>
+          <t>Vicari, S. (2001). Implicit versus explicit memory function in children with Down and Williams syndrome. Down Syndrome Research and Practice, 7(1), 35-40. https://doi.org/10.3104/reports.112</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Vicari, S., Bellucci, S., &amp; Carlesimo, G. A.,  (2001). Procedural learning deficit in children with Williams syndrome. Neuropsychologia, 39(7), 665-677. https://doi.org/10.1016/S0028-3932(01)00012-4</t>
+          <t>Vicari, S., Bellucci, S., &amp; Carlesimo, G. A. (2001). Procedural learning deficit in children with Williams syndrome. Neuropsychologia, 39(7), 665-677. https://doi.org/10.1016/S0028-3932(01)00012-4</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Vicari, S., Verucci, L., &amp; Carlesimo, G. A.,  (2007). Implicit memory is independent from IQ and age but not from etiology: evidence from Down and Williams syndromes. Journal of Intellectual Disability Research, 51(12), 932-941. https://doi.org/10.1111/j.1365-2788.2007.01003.x</t>
+          <t>Vicari, S., Verucci, L., &amp; Carlesimo, G. A. (2007). Implicit memory is independent from IQ and age but not from etiology: evidence from Down and Williams syndromes. Journal of Intellectual Disability Research, 51(12), 932-941. https://doi.org/10.1111/j.1365-2788.2007.01003.x</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Vieites, V., Pruden, S. M., Shusterman, A., &amp; Reeb-Sutherland, B. C.,  (2020). Using hippocampal-dependent eyeblink conditioning to predict individual differences in spatial reorientation strategies in 3- to 6-year-olds. Developmental Science, 23(1), e12867. https://doi.org/10.1111/desc.12867</t>
+          <t>Vieites, V., Pruden, S. M., Shusterman, A., &amp; Reeb-Sutherland, B. C. (2020). Using hippocampal-dependent eyeblink conditioning to predict individual differences in spatial reorientation strategies in 3- to 6-year-olds. Developmental Science, 23(1), e12867. https://doi.org/10.1111/desc.12867</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Visser, I., &amp; Raijmakers, M. E. J.,  (2012). Developing Representations of Compound Stimuli. Frontiers in Psychology, 3(), . https://doi.org/10.3389/fpsyg.2012.00073</t>
+          <t>Visser, I., &amp; Raijmakers, M. E. J. (2012). Developing Representations of Compound Stimuli. Frontiers in Psychology, 3(), . https://doi.org/10.3389/fpsyg.2012.00073</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Vlach, H. A., &amp; Sandhofer, C. M.,  (2011). Developmental differences in children’s context-dependent word learning. Journal of Experimental Child Psychology, 108(2), 394-401. https://doi.org/10.1016/j.jecp.2010.09.011</t>
+          <t>Vlach, H. A., &amp; Sandhofer, C. M. (2011). Developmental differences in children’s context-dependent word learning. Journal of Experimental Child Psychology, 108(2), 394-401. https://doi.org/10.1016/j.jecp.2010.09.011</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Vlach, H. A.,  (2016). How we categorize objects is related to how we remember them: The shape bias as a memory bias. Journal of Experimental Child Psychology, 152(), 12-30. https://doi.org/10.1016/j.jecp.2016.06.013</t>
+          <t>Vlach, H. A. (2016). How we categorize objects is related to how we remember them: The shape bias as a memory bias. Journal of Experimental Child Psychology, 152(), 12-30. https://doi.org/10.1016/j.jecp.2016.06.013</t>
         </is>
       </c>
     </row>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Vöhringer, I. A., Kolling, T., Graf, F., Poloczek, S., Fassbender, I., Freitag, C., Lamm, B., Suhrke, J., Teiser, J., Teubert, M., Keller, H., Lohaus, A., Schwarzer, G., &amp; Knopf, M.,  (2018). The Development of Implicit Memory From Infancy to Childhood: On Average Performance Levels and Interindividual Differences. Child Development, 89(2), 370-382. https://doi.org/10.1111/cdev.12749</t>
+          <t>Vöhringer, I. A., Kolling, T., Graf, F., Poloczek, S., Fassbender, I., Freitag, C., Lamm, B., Suhrke, J., Teiser, J., Teubert, M., Keller, H., Lohaus, A., Schwarzer, G., &amp; Knopf, M. (2018). The Development of Implicit Memory From Infancy to Childhood: On Average Performance Levels and Interindividual Differences. Child Development, 89(2), 370-382. https://doi.org/10.1111/cdev.12749</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Wang, Q.,  (2004). The Emergence of Cultural Self-Constructs: Autobiographical Memory and Self-Description in European American and Chinese Children. Developmental Psychology, 40(1), 3-15. https://doi.org/10.1037/0012-1649.40.1.3</t>
+          <t>Wang, Q. (2004). The Emergence of Cultural Self-Constructs: Autobiographical Memory and Self-Description in European American and Chinese Children. Developmental Psychology, 40(1), 3-15. https://doi.org/10.1037/0012-1649.40.1.3</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Wang, Q.,  (2007). “Remember When You Got The Big, Big Bulldozer?” Mother–Child Reminiscing Over Time and Across Cultures. Social Cognition, 25(4), 455-471. https://doi.org/10.1521/soco.2007.25.4.455</t>
+          <t>Wang, Q. (2007). “Remember When You Got The Big, Big Bulldozer?” Mother–Child Reminiscing Over Time and Across Cultures. Social Cognition, 25(4), 455-471. https://doi.org/10.1521/soco.2007.25.4.455</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Wang, Q.,  (2008). Emotion knowledge and autobiographical memory across the preschool years: A cross-cultural longitudinal investigation. Cognition, 108(1), 117-135. https://doi.org/10.1016/j.cognition.2008.02.002</t>
+          <t>Wang, Q. (2008). Emotion knowledge and autobiographical memory across the preschool years: A cross-cultural longitudinal investigation. Cognition, 108(1), 117-135. https://doi.org/10.1016/j.cognition.2008.02.002</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Wang, Q., &amp; Peterson, C.,  (2014). Your earliest memory may be earlier than you think: Prospective studies of children’s dating of earliest childhood memories. Developmental Psychology, 50(6), 1680-1686. https://doi.org/10.1037/a0036001</t>
+          <t>Wang, Q., &amp; Peterson, C. (2014). Your earliest memory may be earlier than you think: Prospective studies of children’s dating of earliest childhood memories. Developmental Psychology, 50(6), 1680-1686. https://doi.org/10.1037/a0036001</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Waxman, S. R., Lynch, E. B., Casey, K. L., &amp; Baer, L.,  (1997). Setters and samoyeds: The emergence of subordinate level categories as a basis for inductive inference in preschool-age children. Developmental Psychology, 33(6), 1074-1090. https://doi.org/10.1037/0012-1649.33.6.1074</t>
+          <t>Waxman, S. R., Lynch, E. B., Casey, K. L., &amp; Baer, L. (1997). Setters and samoyeds: The emergence of subordinate level categories as a basis for inductive inference in preschool-age children. Developmental Psychology, 33(6), 1074-1090. https://doi.org/10.1037/0012-1649.33.6.1074</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Weighall, A.R., Henderson, L.M., Barr, D.J., Cairney, S.A., &amp; Gaskell, M.G.,  (2017). Eye-tracking the time‐course of novel word learning and lexical competition in adults and children. Brain and Language, 167(), 13-27. https://doi.org/10.1016/j.bandl.2016.07.010</t>
+          <t>Weighall, A.R., Henderson, L.M., Barr, D.J., Cairney, S.A., &amp; Gaskell, M.G. (2017). Eye-tracking the time‐course of novel word learning and lexical competition in adults and children. Brain and Language, 167(), 13-27. https://doi.org/10.1016/j.bandl.2016.07.010</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Weintraub, S., Dikmen, S. S., Heaton, R. K., Tulsky, D. S., Zelazo, P. D., Bauer, P. J., Carlozzi, N. E., Slotkin, J., Blitz, D., Wallner-Allen, K., Fox, N. A., Beaumont, J. L., Mungas, D., Nowinski, C. J., Richler, J., Deocampo, J. A., Anderson, J. E., Manly, J. J., Borosh, B., Havlik, R., Conway, K., Edwards, E., Freund, L., King, J. W., Moy, C., Witt, E., &amp; Gershon, R. C.,  (2013). Cognition assessment using the NIH Toolbox. Neurology, 80(Issue 11, Supplement 3), S54-S64. https://doi.org/10.1212/WNL.0b013e3182872ded</t>
+          <t>Weintraub, S., Dikmen, S. S., Heaton, R. K., Tulsky, D. S., Zelazo, P. D., Bauer, P. J., Carlozzi, N. E., Slotkin, J., Blitz, D., Wallner-Allen, K., Fox, N. A., Beaumont, J. L., Mungas, D., Nowinski, C. J., Richler, J., Deocampo, J. A., Anderson, J. E., Manly, J. J., Borosh, B., Havlik, R., Conway, K., Edwards, E., Freund, L., King, J. W., Moy, C., Witt, E., &amp; Gershon, R. C. (2013). Cognition assessment using the NIH Toolbox. Neurology, 80(Issue 11, Supplement 3), S54-S64. https://doi.org/10.1212/WNL.0b013e3182872ded</t>
         </is>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Wendelken, C., Lee, J. K., Pospisil, J., Sastre, M., Ross, J. M., Bunge, S. A., &amp; Ghetti, S.,  (2015). White Matter Tracts Connected to the Medial Temporal Lobe Support the Development of Mnemonic Control. Cerebral Cortex, 25(9), 2574-2583. https://doi.org/10.1093/cercor/bhu059</t>
+          <t>Wendelken, C., Lee, J. K., Pospisil, J., Sastre, M., Ross, J. M., Bunge, S. A., &amp; Ghetti, S. (2015). White Matter Tracts Connected to the Medial Temporal Lobe Support the Development of Mnemonic Control. Cerebral Cortex, 25(9), 2574-2583. https://doi.org/10.1093/cercor/bhu059</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Wenner, J. A., Burch, M. M., Lynch, J. S., &amp; Bauer, P. J.,  (2008). Becoming a teller of tales: Associations between children’s fictional narratives and parent–child reminiscence narratives. Journal of Experimental Child Psychology, 101(1), 1-19. https://doi.org/10.1016/j.jecp.2007.10.006</t>
+          <t>Wenner, J. A., Burch, M. M., Lynch, J. S., &amp; Bauer, P. J. (2008). Becoming a teller of tales: Associations between children’s fictional narratives and parent–child reminiscence narratives. Journal of Experimental Child Psychology, 101(1), 1-19. https://doi.org/10.1016/j.jecp.2007.10.006</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Wilburn, C., &amp; Feeney, A.,  (2008). Do development and learning really decrease memory? On similarity and category-based induction in adults and children. Cognition, 106(3), 1451-1464. https://doi.org/10.1016/j.cognition.2007.04.018</t>
+          <t>Wilburn, C., &amp; Feeney, A. (2008). Do development and learning really decrease memory? On similarity and category-based induction in adults and children. Cognition, 106(3), 1451-1464. https://doi.org/10.1016/j.cognition.2007.04.018</t>
         </is>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Wilhelm, I., Rose, M., Imhof, K. I, Rasch, B.ö., Büchel, C., &amp; Born, J.,  (2013). The sleeping child outplays the adult's capacity to convert implicit into explicit knowledge. Nature Neuroscience, 16(4), 391-393. https://doi.org/10.1038/nn.3343</t>
+          <t>Wilhelm, I., Rose, M., Imhof, K. I, Rasch, B.ö., Büchel, C., &amp; Born, J. (2013). The sleeping child outplays the adult's capacity to convert implicit into explicit knowledge. Nature Neuroscience, 16(4), 391-393. https://doi.org/10.1038/nn.3343</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Williams, S. E., &amp; Horst, J. S.,  (2014). Goodnight book: sleep consolidation improves word learning via storybooks. Frontiers in Psychology, 5(), . https://doi.org/10.3389/fpsyg.2014.00184</t>
+          <t>Williams, S. E., &amp; Horst, J. S. (2014). Goodnight book: sleep consolidation improves word learning via storybooks. Frontiers in Psychology, 5(), . https://doi.org/10.3389/fpsyg.2014.00184</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Wimmer, M. C., &amp; Howe, M. L.,  (2009). The development of automatic associative processes and children’s false memories. Journal of Experimental Child Psychology, 104(4), 447-465. https://doi.org/10.1016/j.jecp.2009.07.006</t>
+          <t>Wimmer, M. C., &amp; Howe, M. L. (2009). The development of automatic associative processes and children’s false memories. Journal of Experimental Child Psychology, 104(4), 447-465. https://doi.org/10.1016/j.jecp.2009.07.006</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Wimmer, M. C., &amp; Howe, M. L.,  (2010). Are children’s memory illusions created differently from those of adults? Evidence from levels-of-processing and divided attention paradigms. Journal of Experimental Child Psychology, 107(1), 31-49. https://doi.org/10.1016/j.jecp.2010.03.003</t>
+          <t>Wimmer, M. C., &amp; Howe, M. L. (2010). Are children’s memory illusions created differently from those of adults? Evidence from levels-of-processing and divided attention paradigms. Journal of Experimental Child Psychology, 107(1), 31-49. https://doi.org/10.1016/j.jecp.2010.03.003</t>
         </is>
       </c>
     </row>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Wright, B. C., &amp; Dowker, A. D.,  (2002). The Role of Cues to Differential Absolute Size in Children's Transitive Inferences. Journal of Experimental Child Psychology, 81(3), 249-275. https://doi.org/10.1006/jecp.2001.2653</t>
+          <t>Wright, B. C., &amp; Dowker, A. D. (2002). The Role of Cues to Differential Absolute Size in Children's Transitive Inferences. Journal of Experimental Child Psychology, 81(3), 249-275. https://doi.org/10.1006/jecp.2001.2653</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Wright, B. C.,  (2021). Towards a resolution of some outstanding issues in transitive research: An empirical test on middle childhood. Learning &amp; Behavior, 49(2), 204-221. https://doi.org/10.3758/s13420-020-00440-7</t>
+          <t>Wright, B. C. (2021). Towards a resolution of some outstanding issues in transitive research: An empirical test on middle childhood. Learning &amp; Behavior, 49(2), 204-221. https://doi.org/10.3758/s13420-020-00440-7</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Wyatt, B. S., &amp; Conners, F. A.,  (1998). Implicit and explicit memory in individuals with mental retardation. American journal of mental retardation: AJMR, 102(5), 511-526. https://doi.org/10.1352/0895-8017(1998)102&lt;0511:iaemii&gt;2.0.co;2</t>
+          <t>Wyatt, B. S., &amp; Conners, F. A. (1998). Implicit and explicit memory in individuals with mental retardation. American journal of mental retardation: AJMR, 102(5), 511-526. https://doi.org/10.1352/0895-8017(1998)102&lt;0511:iaemii&gt;2.0.co;2</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Yim, H., Dennis, S. J., &amp; Sloutsky, V. M.,  (2013). The Development of Episodic Memory: Items, Contexts, and Relations. Psychological Science, 24(11), 2163-2172. https://doi.org/10.1177/0956797613487385</t>
+          <t>Yim, H., Dennis, S. J., &amp; Sloutsky, V. M. (2013). The Development of Episodic Memory: Items, Contexts, and Relations. Psychological Science, 24(11), 2163-2172. https://doi.org/10.1177/0956797613487385</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Yu, Q., McCall, D. M., Homayouni, R., Tang, L., Chen, Z., Schoff, D., Nishimura, M., Raz, S., &amp; Ofen, N.,  (2018). Age-associated increase in mnemonic strategy use is linked to prefrontal cortex development. NeuroImage, 181(), 162-169. https://doi.org/10.1016/j.neuroimage.2018.07.008</t>
+          <t>Yu, Q., McCall, D. M., Homayouni, R., Tang, L., Chen, Z., Schoff, D., Nishimura, M., Raz, S., &amp; Ofen, N. (2018). Age-associated increase in mnemonic strategy use is linked to prefrontal cortex development. NeuroImage, 181(), 162-169. https://doi.org/10.1016/j.neuroimage.2018.07.008</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Yu, Q., Daugherty, A. M., Anderson, D. M., Nishimura, M., Brush, D., Hardwick, A., Lacey, W., Raz, S., &amp; Ofen, N.,  (2018). Socioeconomic status and hippocampal volume in children and young adults. Developmental Science, 21(3), e12561. https://doi.org/10.1111/desc.12561</t>
+          <t>Yu, Q., Daugherty, A. M., Anderson, D. M., Nishimura, M., Brush, D., Hardwick, A., Lacey, W., Raz, S., &amp; Ofen, N. (2018). Socioeconomic status and hippocampal volume in children and young adults. Developmental Science, 21(3), e12561. https://doi.org/10.1111/desc.12561</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Zajac, R., &amp; Hayne, H.,  (2003). I don't think that's what really happened: The effect of cross-examination on the accuracy of children's reports. Journal of Experimental Psychology: Applied, 9(3), 187-195. https://doi.org/10.1037/1076-898X.9.3.187</t>
+          <t>Zajac, R., &amp; Hayne, H. (2003). I don't think that's what really happened: The effect of cross-examination on the accuracy of children's reports. Journal of Experimental Psychology: Applied, 9(3), 187-195. https://doi.org/10.1037/1076-898X.9.3.187</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Zinke, K., Wilhelm, I., Bayramoglu, Mü., Klein, S., &amp; Born, J.,  (2017). Children's initial sleep-associated changes in motor skill are unrelated to long-term skill levels. Developmental Science, 20(6), e12463. https://doi.org/10.1111/desc.12463</t>
+          <t>Zinke, K., Wilhelm, I., Bayramoglu, Mü., Klein, S., &amp; Born, J. (2017). Children's initial sleep-associated changes in motor skill are unrelated to long-term skill levels. Developmental Science, 20(6), e12463. https://doi.org/10.1111/desc.12463</t>
         </is>
       </c>
     </row>
